--- a/2.xlsx
+++ b/2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="589">
   <si>
     <t>✨ 推荐网站</t>
   </si>
@@ -1163,6 +1163,15 @@
   </si>
   <si>
     <t>http://www.paperdatas.com</t>
+  </si>
+  <si>
+    <t>Vega AI🦄</t>
+  </si>
+  <si>
+    <t>https://rightbrain.art</t>
+  </si>
+  <si>
+    <t>👍免费的ai绘画网站</t>
   </si>
   <si>
     <t>aescripts+aeplugins</t>
@@ -1779,10 +1788,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1840,32 +1849,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1886,14 +1878,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1904,13 +1889,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1939,7 +1917,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1953,8 +1938,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1963,6 +1964,14 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1983,7 +1992,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1995,19 +2010,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2019,67 +2058,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2097,7 +2076,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2109,31 +2154,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2145,25 +2166,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2174,32 +2183,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2245,17 +2228,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2274,6 +2257,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2282,10 +2291,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2294,16 +2303,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2315,112 +2324,112 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2818,8 +2827,8 @@
   <sheetPr/>
   <dimension ref="A1:CQ29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" topLeftCell="D10" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4494,45 +4503,57 @@
         <v>283</v>
       </c>
     </row>
-    <row r="11" spans="7:88">
+    <row r="11" spans="1:88">
+      <c r="A11" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="G11" s="1" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="N11" s="14" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="T11" s="14" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="AE11" s="1" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="AF11" s="14" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="AH11" s="1" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="AI11" s="1" t="s">
         <v>70</v>
@@ -4541,53 +4562,53 @@
       <c r="AP11" s="3"/>
       <c r="AV11" s="3"/>
       <c r="AW11" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="AX11" s="14" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="AZ11" s="1" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="BB11" s="3"/>
       <c r="BC11" s="1" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="BD11" s="14" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="BE11" s="14" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="BF11" s="1" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="BU11" s="1" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="BV11" s="14" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="BX11" s="1" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="CA11" s="1" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="CB11" s="14" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="CC11" s="15" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="CD11" s="1" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="CG11" s="1" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="CH11" s="15" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="CJ11" s="1" t="s">
         <v>283</v>
@@ -4595,337 +4616,337 @@
     </row>
     <row r="12" spans="7:82">
       <c r="G12" s="1" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="N12" s="14" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="T12" s="14" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="U12" s="15" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="AE12" s="1" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="AF12" s="14" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="AH12" s="1" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="AJ12" s="3"/>
       <c r="AP12" s="3"/>
       <c r="AV12" s="3"/>
       <c r="AW12" s="1" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="AX12" s="14" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="AZ12" s="1" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="BB12" s="3"/>
       <c r="BC12" s="1" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="BD12" s="14" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="BE12" s="14" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="BF12" s="1" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="BU12" s="1" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="BV12" s="14" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="BX12" s="1" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="CA12" s="1" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="CB12" s="14" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="CD12" s="1" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
     </row>
     <row r="13" spans="7:82">
       <c r="G13" s="1" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="N13" s="14" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="S13" s="1" t="s">
         <v>102</v>
       </c>
       <c r="T13" s="14" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="AE13" s="1" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="AF13" s="14" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="AH13" s="1" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="AJ13" s="3"/>
       <c r="AP13" s="3"/>
       <c r="AV13" s="3"/>
       <c r="AW13" s="1" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="AX13" s="19" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="AZ13" s="1" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="BB13" s="3"/>
       <c r="BC13" s="1" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="BD13" s="14" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="BE13" s="14" t="s">
         <v>372</v>
       </c>
       <c r="BF13" s="1" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="BU13" s="1" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="BV13" s="14" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="BX13" s="1" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="CA13" s="1" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="CB13" s="14" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="CC13" s="14" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="CD13" s="1" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
     </row>
     <row r="14" spans="13:82">
       <c r="M14" s="1" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="N14" s="14" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="T14" s="14" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="AJ14" s="3"/>
       <c r="AP14" s="3"/>
       <c r="AV14" s="3"/>
       <c r="AW14" s="1" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="AX14" s="14" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="AY14" s="14" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="AZ14" s="1" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="BB14" s="3"/>
       <c r="BC14" s="1" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="BD14" s="14" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="BE14" s="14" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="BF14" s="1" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="BU14" s="1" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="BV14" s="14" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="BW14" s="14" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="BX14" s="1" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="CA14" s="1" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="CB14" s="14" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="CD14" s="1" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
     </row>
     <row r="15" spans="19:82">
       <c r="S15" s="1" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="T15" s="15" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="AJ15" s="3"/>
       <c r="AP15" s="3"/>
       <c r="AV15" s="3"/>
       <c r="AW15" s="1" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="AX15" s="14" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="AZ15" s="1" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="BB15" s="3"/>
       <c r="BU15" s="1" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="BV15" s="14" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="BX15" s="1" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="CA15" s="1" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="CB15" s="14" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="CD15" s="1" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
     </row>
     <row r="16" spans="19:82">
       <c r="S16" s="1" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="T16" s="14" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="AJ16" s="3"/>
       <c r="AP16" s="3"/>
       <c r="AV16" s="3"/>
       <c r="BB16" s="3"/>
       <c r="BU16" s="1" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="BV16" s="14" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="BW16" s="14" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="BX16" s="1" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="CA16" s="1" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="CB16" s="14" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="CD16" s="1" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
     </row>
     <row r="17" spans="19:82">
       <c r="S17" s="1" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="T17" s="14" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="U17" s="14" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="AJ17" s="3"/>
       <c r="AP17" s="3"/>
@@ -4933,58 +4954,58 @@
       <c r="AX17" s="21"/>
       <c r="BB17" s="3"/>
       <c r="BU17" s="1" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="BV17" s="14" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="BX17" s="1" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="CA17" s="1" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="CB17" s="15" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="CD17" s="1" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
     </row>
     <row r="18" spans="19:82">
       <c r="S18" s="1" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="T18" s="14" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="AJ18" s="3"/>
       <c r="AP18" s="3"/>
       <c r="AV18" s="3"/>
       <c r="BB18" s="3"/>
       <c r="BU18" s="1" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="BV18" s="14" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="BX18" s="1" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="CA18" s="1" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="CB18" s="14" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="CC18" s="14" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="CD18" s="1" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
     </row>
     <row r="19" spans="36:82">
@@ -4993,22 +5014,22 @@
       <c r="AV19" s="3"/>
       <c r="BB19" s="3"/>
       <c r="BU19" s="23" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="BV19" s="14" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="BX19" s="1" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="CA19" s="1" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="CB19" s="14" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="CD19" s="1" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
     </row>
     <row r="20" spans="36:82">
@@ -5017,25 +5038,25 @@
       <c r="AV20" s="3"/>
       <c r="BB20" s="3"/>
       <c r="BU20" s="1" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="BV20" s="14" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="BX20" s="1" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="CA20" s="1" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="CB20" s="14" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="CC20" s="14" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="CD20" s="1" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
     </row>
     <row r="21" spans="36:82">
@@ -5044,22 +5065,22 @@
       <c r="AV21" s="3"/>
       <c r="BB21" s="3"/>
       <c r="BU21" s="1" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="BV21" s="14" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="BX21" s="1" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="CA21" s="1" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="CB21" s="14" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="CD21" s="1" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
     </row>
     <row r="22" spans="36:82">
@@ -5068,22 +5089,22 @@
       <c r="AV22" s="3"/>
       <c r="BB22" s="3"/>
       <c r="BU22" s="1" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="BV22" s="14" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="BX22" s="1" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="CA22" s="1" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="CB22" s="14" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="CD22" s="1" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="23" spans="36:82">
@@ -5092,25 +5113,25 @@
       <c r="AV23" s="3"/>
       <c r="BB23" s="3"/>
       <c r="BU23" s="1" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="BV23" s="14" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="BX23" s="1" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="CA23" s="1" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="CB23" s="14" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="CC23" s="14" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="CD23" s="1" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
     </row>
     <row r="24" spans="36:82">
@@ -5119,22 +5140,22 @@
       <c r="AV24" s="3"/>
       <c r="BB24" s="3"/>
       <c r="BU24" s="1" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="BV24" s="14" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="BX24" s="1" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="CA24" s="1" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="CB24" s="14" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="CD24" s="1" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="25" spans="36:82">
@@ -5143,45 +5164,45 @@
       <c r="AV25" s="3"/>
       <c r="BB25" s="3"/>
       <c r="BU25" s="1" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="BV25" s="19" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="BX25" s="1" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="CA25" s="1" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="CB25" s="14" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="CC25" s="14" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="CD25" s="1" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="26" spans="73:83">
       <c r="BU26" s="1" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="BV26" s="14" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="BX26" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="CA26" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="CB26" s="14" t="s">
+        <v>577</v>
+      </c>
+      <c r="CD26" s="1" t="s">
         <v>572</v>
-      </c>
-      <c r="CA26" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="CB26" s="14" t="s">
-        <v>574</v>
-      </c>
-      <c r="CD26" s="1" t="s">
-        <v>569</v>
       </c>
       <c r="CE26" s="1" t="s">
         <v>70</v>
@@ -5189,44 +5210,44 @@
     </row>
     <row r="27" spans="73:82">
       <c r="BU27" s="1" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="BV27" s="14" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="BX27" s="1" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="CA27" s="1" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="CB27" s="14" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="CD27" s="1" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="28" spans="79:82">
       <c r="CA28" s="1" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="CB28" s="12" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="CD28" s="1" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="29" spans="79:82">
       <c r="CA29" s="1" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="CB29" s="14" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="CD29" s="1" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
     </row>
   </sheetData>
@@ -5466,6 +5487,7 @@
     <hyperlink ref="CB7" r:id="rId221" display="https://mockupplanet.com" tooltip="https://mockupplanet.com"/>
     <hyperlink ref="H13" r:id="rId222" display="https://www.kelongwo.com/pc-xmind/"/>
     <hyperlink ref="I13" r:id="rId223" display="https://api.iowen.cn/favicon/xmind.cn/.png"/>
+    <hyperlink ref="B11" r:id="rId224" display="https://rightbrain.art"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/2.xlsx
+++ b/2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="593">
   <si>
     <t>✨ 推荐网站</t>
   </si>
@@ -1165,7 +1165,7 @@
     <t>http://www.paperdatas.com</t>
   </si>
   <si>
-    <t>Vega AI🦄</t>
+    <t>&lt;i style="color:red;"&gt;Vega AI&lt;/i&gt;🦄</t>
   </si>
   <si>
     <t>https://rightbrain.art</t>
@@ -1781,6 +1781,22 @@
   </si>
   <si>
     <t>专业级的PPT设计教程，PPT技能自我提升必备教程</t>
+  </si>
+  <si>
+    <t>图片字体可商用</t>
+  </si>
+  <si>
+    <t>https://www.thosefree.com/design</t>
+  </si>
+  <si>
+    <t>https://img.thosefree.com/static/logo.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+免费商用图库
+免费商用字体
+免费商用视频
+免费商用音频</t>
   </si>
 </sst>
 </file>
@@ -1789,8 +1805,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -1850,13 +1866,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -1864,7 +1873,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1885,15 +1894,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1916,6 +1918,13 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -1932,7 +1941,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1953,25 +1985,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1992,7 +2008,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2004,31 +2026,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2052,7 +2062,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2064,37 +2074,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2112,7 +2152,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2124,49 +2182,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2183,6 +2199,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2219,15 +2259,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2239,6 +2270,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2257,32 +2299,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2291,10 +2307,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2303,16 +2319,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2324,112 +2340,112 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2825,10 +2841,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:CQ29"/>
+  <dimension ref="A1:CQ30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="BX19" workbookViewId="0">
+      <selection activeCell="CE31" sqref="CE31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5248,6 +5264,20 @@
       </c>
       <c r="CD29" s="1" t="s">
         <v>588</v>
+      </c>
+    </row>
+    <row r="30" spans="79:82">
+      <c r="CA30" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="CB30" s="15" t="s">
+        <v>590</v>
+      </c>
+      <c r="CC30" s="14" t="s">
+        <v>591</v>
+      </c>
+      <c r="CD30" s="1" t="s">
+        <v>592</v>
       </c>
     </row>
   </sheetData>
@@ -5488,6 +5518,8 @@
     <hyperlink ref="H13" r:id="rId222" display="https://www.kelongwo.com/pc-xmind/"/>
     <hyperlink ref="I13" r:id="rId223" display="https://api.iowen.cn/favicon/xmind.cn/.png"/>
     <hyperlink ref="B11" r:id="rId224" display="https://rightbrain.art"/>
+    <hyperlink ref="CB30" r:id="rId225" display="https://www.thosefree.com/design"/>
+    <hyperlink ref="CC30" r:id="rId226" display="https://img.thosefree.com/static/logo.png"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/2.xlsx
+++ b/2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="596">
   <si>
     <t>✨ 推荐网站</t>
   </si>
@@ -1259,6 +1259,15 @@
   </si>
   <si>
     <t>http://www.paperfree.cn/freeActivity/index.html</t>
+  </si>
+  <si>
+    <t>文件传输网页</t>
+  </si>
+  <si>
+    <t>https://wormhole.app</t>
+  </si>
+  <si>
+    <t>单文件传输最大10G，不限速</t>
   </si>
   <si>
     <t>配色集</t>
@@ -1804,10 +1813,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1865,8 +1874,16 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1874,6 +1891,21 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1887,7 +1919,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1902,18 +1941,18 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1932,8 +1971,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1947,47 +1995,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2008,7 +2017,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2020,13 +2125,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2038,97 +2143,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2146,31 +2161,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2182,13 +2191,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2199,6 +2208,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2213,24 +2246,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2260,16 +2275,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2284,21 +2308,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2307,10 +2316,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2319,16 +2328,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2340,112 +2349,112 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2843,8 +2852,8 @@
   <sheetPr/>
   <dimension ref="A1:CQ30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="BX19" workbookViewId="0">
-      <selection activeCell="CE31" sqref="CE31"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4630,339 +4639,351 @@
         <v>283</v>
       </c>
     </row>
-    <row r="12" spans="7:82">
+    <row r="12" spans="1:82">
+      <c r="A12" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="G12" s="1" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="N12" s="14" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="T12" s="14" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="U12" s="15" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="AE12" s="1" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="AF12" s="14" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="AH12" s="1" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="AJ12" s="3"/>
       <c r="AP12" s="3"/>
       <c r="AV12" s="3"/>
       <c r="AW12" s="1" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="AX12" s="14" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="AZ12" s="1" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="BB12" s="3"/>
       <c r="BC12" s="1" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="BD12" s="14" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="BE12" s="14" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="BF12" s="1" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="BU12" s="1" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="BV12" s="14" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="BX12" s="1" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="CA12" s="1" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="CB12" s="14" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="CD12" s="1" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
     </row>
     <row r="13" spans="7:82">
       <c r="G13" s="1" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="N13" s="14" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="S13" s="1" t="s">
         <v>102</v>
       </c>
       <c r="T13" s="14" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="AE13" s="1" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="AF13" s="14" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="AH13" s="1" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="AJ13" s="3"/>
       <c r="AP13" s="3"/>
       <c r="AV13" s="3"/>
       <c r="AW13" s="1" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="AX13" s="19" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="AZ13" s="1" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="BB13" s="3"/>
       <c r="BC13" s="1" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="BD13" s="14" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="BE13" s="14" t="s">
         <v>372</v>
       </c>
       <c r="BF13" s="1" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="BU13" s="1" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="BV13" s="14" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="BX13" s="1" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="CA13" s="1" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="CB13" s="14" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="CC13" s="14" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="CD13" s="1" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
     </row>
     <row r="14" spans="13:82">
       <c r="M14" s="1" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="N14" s="14" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="T14" s="14" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="AJ14" s="3"/>
       <c r="AP14" s="3"/>
       <c r="AV14" s="3"/>
       <c r="AW14" s="1" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="AX14" s="14" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="AY14" s="14" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="AZ14" s="1" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="BB14" s="3"/>
       <c r="BC14" s="1" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="BD14" s="14" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="BE14" s="14" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="BF14" s="1" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="BU14" s="1" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="BV14" s="14" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="BW14" s="14" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="BX14" s="1" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="CA14" s="1" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="CB14" s="14" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="CD14" s="1" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
     </row>
     <row r="15" spans="19:82">
       <c r="S15" s="1" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="T15" s="15" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="AJ15" s="3"/>
       <c r="AP15" s="3"/>
       <c r="AV15" s="3"/>
       <c r="AW15" s="1" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="AX15" s="14" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="AZ15" s="1" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="BB15" s="3"/>
       <c r="BU15" s="1" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="BV15" s="14" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="BX15" s="1" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="CA15" s="1" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="CB15" s="14" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="CD15" s="1" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
     </row>
     <row r="16" spans="19:82">
       <c r="S16" s="1" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="T16" s="14" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="AJ16" s="3"/>
       <c r="AP16" s="3"/>
       <c r="AV16" s="3"/>
       <c r="BB16" s="3"/>
       <c r="BU16" s="1" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="BV16" s="14" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="BW16" s="14" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="BX16" s="1" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="CA16" s="1" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="CB16" s="14" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="CD16" s="1" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
     </row>
     <row r="17" spans="19:82">
       <c r="S17" s="1" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="T17" s="14" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="U17" s="14" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="AJ17" s="3"/>
       <c r="AP17" s="3"/>
@@ -4970,58 +4991,58 @@
       <c r="AX17" s="21"/>
       <c r="BB17" s="3"/>
       <c r="BU17" s="1" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="BV17" s="14" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="BX17" s="1" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="CA17" s="1" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="CB17" s="15" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="CD17" s="1" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
     </row>
     <row r="18" spans="19:82">
       <c r="S18" s="1" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="T18" s="14" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="AJ18" s="3"/>
       <c r="AP18" s="3"/>
       <c r="AV18" s="3"/>
       <c r="BB18" s="3"/>
       <c r="BU18" s="1" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="BV18" s="14" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="BX18" s="1" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="CA18" s="1" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="CB18" s="14" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="CC18" s="14" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="CD18" s="1" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
     </row>
     <row r="19" spans="36:82">
@@ -5030,22 +5051,22 @@
       <c r="AV19" s="3"/>
       <c r="BB19" s="3"/>
       <c r="BU19" s="23" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="BV19" s="14" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="BX19" s="1" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="CA19" s="1" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="CB19" s="14" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="CD19" s="1" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
     </row>
     <row r="20" spans="36:82">
@@ -5054,25 +5075,25 @@
       <c r="AV20" s="3"/>
       <c r="BB20" s="3"/>
       <c r="BU20" s="1" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="BV20" s="14" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="BX20" s="1" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="CA20" s="1" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="CB20" s="14" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="CC20" s="14" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="CD20" s="1" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
     </row>
     <row r="21" spans="36:82">
@@ -5081,22 +5102,22 @@
       <c r="AV21" s="3"/>
       <c r="BB21" s="3"/>
       <c r="BU21" s="1" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="BV21" s="14" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="BX21" s="1" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="CA21" s="1" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="CB21" s="14" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="CD21" s="1" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
     </row>
     <row r="22" spans="36:82">
@@ -5105,22 +5126,22 @@
       <c r="AV22" s="3"/>
       <c r="BB22" s="3"/>
       <c r="BU22" s="1" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="BV22" s="14" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="BX22" s="1" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="CA22" s="1" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="CB22" s="14" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="CD22" s="1" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="23" spans="36:82">
@@ -5129,25 +5150,25 @@
       <c r="AV23" s="3"/>
       <c r="BB23" s="3"/>
       <c r="BU23" s="1" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="BV23" s="14" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="BX23" s="1" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="CA23" s="1" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="CB23" s="14" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="CC23" s="14" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="CD23" s="1" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="24" spans="36:82">
@@ -5156,22 +5177,22 @@
       <c r="AV24" s="3"/>
       <c r="BB24" s="3"/>
       <c r="BU24" s="1" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="BV24" s="14" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="BX24" s="1" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="CA24" s="1" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="CB24" s="14" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="CD24" s="1" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="25" spans="36:82">
@@ -5180,45 +5201,45 @@
       <c r="AV25" s="3"/>
       <c r="BB25" s="3"/>
       <c r="BU25" s="1" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="BV25" s="19" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="BX25" s="1" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="CA25" s="1" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="CB25" s="14" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="CC25" s="14" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="CD25" s="1" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="26" spans="73:83">
       <c r="BU26" s="1" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="BV26" s="14" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="BX26" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="CA26" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="CB26" s="14" t="s">
+        <v>580</v>
+      </c>
+      <c r="CD26" s="1" t="s">
         <v>575</v>
-      </c>
-      <c r="CA26" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="CB26" s="14" t="s">
-        <v>577</v>
-      </c>
-      <c r="CD26" s="1" t="s">
-        <v>572</v>
       </c>
       <c r="CE26" s="1" t="s">
         <v>70</v>
@@ -5226,58 +5247,58 @@
     </row>
     <row r="27" spans="73:82">
       <c r="BU27" s="1" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="BV27" s="14" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="BX27" s="1" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="CA27" s="1" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="CB27" s="14" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="CD27" s="1" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="28" spans="79:82">
       <c r="CA28" s="1" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="CB28" s="12" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="CD28" s="1" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
     </row>
     <row r="29" spans="79:82">
       <c r="CA29" s="1" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="CB29" s="14" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="CD29" s="1" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
     </row>
     <row r="30" spans="79:82">
       <c r="CA30" s="1" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="CB30" s="15" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="CC30" s="14" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="CD30" s="1" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
     </row>
   </sheetData>
@@ -5520,6 +5541,7 @@
     <hyperlink ref="B11" r:id="rId224" display="https://rightbrain.art"/>
     <hyperlink ref="CB30" r:id="rId225" display="https://www.thosefree.com/design"/>
     <hyperlink ref="CC30" r:id="rId226" display="https://img.thosefree.com/static/logo.png"/>
+    <hyperlink ref="B12" r:id="rId227" display="https://wormhole.app"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/2.xlsx
+++ b/2.xlsx
@@ -1261,13 +1261,13 @@
     <t>http://www.paperfree.cn/freeActivity/index.html</t>
   </si>
   <si>
-    <t>文件传输网页</t>
+    <t>文件传输网页(免注册)</t>
   </si>
   <si>
     <t>https://wormhole.app</t>
   </si>
   <si>
-    <t>单文件传输最大10G，不限速</t>
+    <t>单文件传输最大10G，不限速(免注册)</t>
   </si>
   <si>
     <t>配色集</t>
@@ -1813,10 +1813,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1875,15 +1875,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1893,14 +1886,6 @@
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1918,8 +1903,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1933,8 +1964,16 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1948,32 +1987,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1982,21 +1997,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2017,7 +2017,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2029,7 +2029,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2041,25 +2047,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2077,7 +2071,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2089,49 +2155,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2143,43 +2179,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2191,13 +2197,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2208,6 +2208,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2231,6 +2242,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2268,8 +2288,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2288,26 +2308,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2316,10 +2316,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2328,16 +2328,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2349,112 +2349,112 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2853,7 +2853,7 @@
   <dimension ref="A1:CQ30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/2.xlsx
+++ b/2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="599">
   <si>
     <t>✨ 推荐网站</t>
   </si>
@@ -1147,6 +1147,99 @@
     <t>格式转换,在线解压,在线压缩,压缩包格式,图片格式,音频格式,视频格式,电子文档格式,幻灯片格式,电子表格格式,电子书格式,字体格式,CAD格式,矢量格式,网站抓图</t>
   </si>
   <si>
+    <t>resourceboy（免费）</t>
+  </si>
+  <si>
+    <t>https://resourceboy.com</t>
+  </si>
+  <si>
+    <t>免费样机，缺点是只能英文搜(用本站搜索引擎可翻译)</t>
+  </si>
+  <si>
+    <t>免费论文查重-3</t>
+  </si>
+  <si>
+    <t>http://www.paperdatas.com</t>
+  </si>
+  <si>
+    <t>&lt;i style="color:red;"&gt;Vega AI&lt;/i&gt;🦄</t>
+  </si>
+  <si>
+    <t>https://rightbrain.art</t>
+  </si>
+  <si>
+    <t>👍免费的ai绘画网站</t>
+  </si>
+  <si>
+    <t>aescripts+aeplugins</t>
+  </si>
+  <si>
+    <t>https://aescripts.com</t>
+  </si>
+  <si>
+    <t>https://3o.hk/images/2023/04/17/o22x5b2fc99ff2f00df8.png</t>
+  </si>
+  <si>
+    <t>主流插件网站（国外）</t>
+  </si>
+  <si>
+    <t>UI设计师导航网 - 优阁</t>
+  </si>
+  <si>
+    <t>http://so.uigreat.com</t>
+  </si>
+  <si>
+    <t>优阁UI设计师网址导航专注分享优秀设计网站、免费无版权限制可商用的高品质素材，UI设计教程、尺寸规范、配色方案、设计素材和灵感</t>
+  </si>
+  <si>
+    <t>纹藏</t>
+  </si>
+  <si>
+    <t>http://wenzang.art</t>
+  </si>
+  <si>
+    <t>纹藏Wenzang.art中国纹样线上博物馆</t>
+  </si>
+  <si>
+    <t>iTab新标签页</t>
+  </si>
+  <si>
+    <t>https://itab.link</t>
+  </si>
+  <si>
+    <t>👍iTab新标签页（强烈推荐，已经安利了好几个人了）</t>
+  </si>
+  <si>
+    <t>手机软件</t>
+  </si>
+  <si>
+    <t>http://www.lanzoux.com/s/APP</t>
+  </si>
+  <si>
+    <t>只能手机端打开，影视、动漫、小说、工具类等~</t>
+  </si>
+  <si>
+    <t>系列AE教程（全41讲）</t>
+  </si>
+  <si>
+    <t>http://www.bilibili.com/video/BV1EW411171A/</t>
+  </si>
+  <si>
+    <t>https://3o.hk/images/2023/04/17/25.png</t>
+  </si>
+  <si>
+    <t>AE软件课程入门【2018全套零基础AE教程】</t>
+  </si>
+  <si>
+    <t>gif编辑器</t>
+  </si>
+  <si>
+    <t>https://ezgif.com</t>
+  </si>
+  <si>
+    <t>亲测可以制作动态qq头像</t>
+  </si>
+  <si>
     <t>云米素材（部分免费）</t>
   </si>
   <si>
@@ -1159,88 +1252,91 @@
     <t>云米创意,素材,原创设计,创意平台,psd素材,贴图素材,高清素材</t>
   </si>
   <si>
-    <t>免费论文查重-3</t>
-  </si>
-  <si>
-    <t>http://www.paperdatas.com</t>
-  </si>
-  <si>
-    <t>&lt;i style="color:red;"&gt;Vega AI&lt;/i&gt;🦄</t>
-  </si>
-  <si>
-    <t>https://rightbrain.art</t>
-  </si>
-  <si>
-    <t>👍免费的ai绘画网站</t>
-  </si>
-  <si>
-    <t>aescripts+aeplugins</t>
-  </si>
-  <si>
-    <t>https://aescripts.com</t>
-  </si>
-  <si>
-    <t>https://3o.hk/images/2023/04/17/o22x5b2fc99ff2f00df8.png</t>
-  </si>
-  <si>
-    <t>主流插件网站（国外）</t>
-  </si>
-  <si>
-    <t>UI设计师导航网 - 优阁</t>
-  </si>
-  <si>
-    <t>http://so.uigreat.com</t>
-  </si>
-  <si>
-    <t>优阁UI设计师网址导航专注分享优秀设计网站、免费无版权限制可商用的高品质素材，UI设计教程、尺寸规范、配色方案、设计素材和灵感</t>
-  </si>
-  <si>
-    <t>纹藏</t>
-  </si>
-  <si>
-    <t>http://wenzang.art</t>
-  </si>
-  <si>
-    <t>纹藏Wenzang.art中国纹样线上博物馆</t>
-  </si>
-  <si>
-    <t>iTab新标签页</t>
-  </si>
-  <si>
-    <t>https://itab.link</t>
-  </si>
-  <si>
-    <t>👍iTab新标签页（强烈推荐，已经安利了好几个人了）</t>
-  </si>
-  <si>
-    <t>手机软件</t>
-  </si>
-  <si>
-    <t>http://www.lanzoux.com/s/APP</t>
-  </si>
-  <si>
-    <t>只能手机端打开，影视、动漫、小说、工具类等~</t>
-  </si>
-  <si>
-    <t>系列AE教程（全41讲）</t>
-  </si>
-  <si>
-    <t>http://www.bilibili.com/video/BV1EW411171A/</t>
-  </si>
-  <si>
-    <t>https://3o.hk/images/2023/04/17/25.png</t>
-  </si>
-  <si>
-    <t>AE软件课程入门【2018全套零基础AE教程】</t>
-  </si>
-  <si>
-    <t>gif编辑器</t>
-  </si>
-  <si>
-    <t>https://ezgif.com</t>
-  </si>
-  <si>
-    <t>亲测可以制作动态qq头像</t>
+    <t>免费论文查重-4</t>
+  </si>
+  <si>
+    <t>http://www.paperfree.cn/freeActivity/index.html</t>
+  </si>
+  <si>
+    <t>文件传输网页(免注册)</t>
+  </si>
+  <si>
+    <t>https://wormhole.app</t>
+  </si>
+  <si>
+    <t>单文件传输最大10G，不限速(免注册)</t>
+  </si>
+  <si>
+    <t>配色集</t>
+  </si>
+  <si>
+    <t>https://space.bilibili.com/485723138</t>
+  </si>
+  <si>
+    <t>https://3o.hk/images/2023/04/17/o92x.png</t>
+  </si>
+  <si>
+    <t>老师推荐的B站分享配色的up主</t>
+  </si>
+  <si>
+    <t>创造狮 创意工作者导航</t>
+  </si>
+  <si>
+    <t>http://www.chuangzaoshi.com</t>
+  </si>
+  <si>
+    <t>创造狮，一个创意工作者的导航，专注分享正版优质设计、前端、产品、运营的书签导航</t>
+  </si>
+  <si>
+    <t>动效设计学习网-Motion Great</t>
+  </si>
+  <si>
+    <t>http://www.motiongreat.com</t>
+  </si>
+  <si>
+    <t>https://3o.hk/images/2023/04/18/image.png</t>
+  </si>
+  <si>
+    <t>动效设计,动效教程,UI动效,MG教程,MG动画,3D动效教程,AE教程</t>
+  </si>
+  <si>
+    <t>Infinity新标签页</t>
+  </si>
+  <si>
+    <t>http://cn.infinitynewtab.com</t>
+  </si>
+  <si>
+    <t>👍浏览器的新标签页 快速高效的管理你的常用网站</t>
+  </si>
+  <si>
+    <t>adobe全家桶（不限速下载）</t>
+  </si>
+  <si>
+    <t>https://flowus.cn/share/ab4b6b86-34a6-4aa0-a679-b4a221b8e41d</t>
+  </si>
+  <si>
+    <t>转载阿虚大佬的</t>
+  </si>
+  <si>
+    <t>AE光效制作（全81讲）</t>
+  </si>
+  <si>
+    <t>http://www.bilibili.com/video/BV1J4411C7am?p=5/</t>
+  </si>
+  <si>
+    <t>https://3o.hk/images/2023/04/17/26.png</t>
+  </si>
+  <si>
+    <t>我要自学网【AE软件】AE光效制作（全81讲）</t>
+  </si>
+  <si>
+    <t>Zamzar 在线格式转换</t>
+  </si>
+  <si>
+    <t>http://www.zamzar.com</t>
+  </si>
+  <si>
+    <t>打开是英文的，英语不是很好也能差不多能看懂</t>
   </si>
   <si>
     <t>模库网</t>
@@ -1255,91 +1351,64 @@
     <t>免费设计素材模板下载图库共享网站</t>
   </si>
   <si>
-    <t>免费论文查重-4</t>
-  </si>
-  <si>
-    <t>http://www.paperfree.cn/freeActivity/index.html</t>
-  </si>
-  <si>
-    <t>文件传输网页(免注册)</t>
-  </si>
-  <si>
-    <t>https://wormhole.app</t>
-  </si>
-  <si>
-    <t>单文件传输最大10G，不限速(免注册)</t>
-  </si>
-  <si>
-    <t>配色集</t>
-  </si>
-  <si>
-    <t>https://space.bilibili.com/485723138</t>
-  </si>
-  <si>
-    <t>https://3o.hk/images/2023/04/17/o92x.png</t>
-  </si>
-  <si>
-    <t>老师推荐的B站分享配色的up主</t>
-  </si>
-  <si>
-    <t>创造狮 创意工作者导航</t>
-  </si>
-  <si>
-    <t>http://www.chuangzaoshi.com</t>
-  </si>
-  <si>
-    <t>创造狮，一个创意工作者的导航，专注分享正版优质设计、前端、产品、运营的书签导航</t>
-  </si>
-  <si>
-    <t>动效设计学习网-Motion Great</t>
-  </si>
-  <si>
-    <t>http://www.motiongreat.com</t>
-  </si>
-  <si>
-    <t>https://3o.hk/images/2023/04/18/image.png</t>
-  </si>
-  <si>
-    <t>动效设计,动效教程,UI动效,MG教程,MG动画,3D动效教程,AE教程</t>
-  </si>
-  <si>
-    <t>Infinity新标签页</t>
-  </si>
-  <si>
-    <t>http://cn.infinitynewtab.com</t>
-  </si>
-  <si>
-    <t>👍浏览器的新标签页 快速高效的管理你的常用网站</t>
-  </si>
-  <si>
-    <t>adobe全家桶（不限速下载）</t>
-  </si>
-  <si>
-    <t>https://flowus.cn/share/ab4b6b86-34a6-4aa0-a679-b4a221b8e41d</t>
-  </si>
-  <si>
-    <t>转载阿虚大佬的</t>
-  </si>
-  <si>
-    <t>AE光效制作（全81讲）</t>
-  </si>
-  <si>
-    <t>http://www.bilibili.com/video/BV1J4411C7am?p=5/</t>
-  </si>
-  <si>
-    <t>https://3o.hk/images/2023/04/17/26.png</t>
-  </si>
-  <si>
-    <t>我要自学网【AE软件】AE光效制作（全81讲）</t>
-  </si>
-  <si>
-    <t>Zamzar 在线格式转换</t>
-  </si>
-  <si>
-    <t>http://www.zamzar.com</t>
-  </si>
-  <si>
-    <t>打开是英文的，英语不是很好也能差不多能看懂</t>
+    <t>Xmind</t>
+  </si>
+  <si>
+    <t>https://www.kelongwo.com/pc-xmind/</t>
+  </si>
+  <si>
+    <t>https://api.iowen.cn/favicon/xmind.cn/.png</t>
+  </si>
+  <si>
+    <t>XMind是一种著名的思维导图软件，可以帮助用户快速构建并整理思路，</t>
+  </si>
+  <si>
+    <t>设计师网站导航</t>
+  </si>
+  <si>
+    <t>http://hao.shijuechuanda.com</t>
+  </si>
+  <si>
+    <t>设计网址导航 | 视觉传达</t>
+  </si>
+  <si>
+    <t>http://dribbble.com</t>
+  </si>
+  <si>
+    <t>设计作品的交流平台,UI设计师推荐必去网站</t>
+  </si>
+  <si>
+    <t>干的库Pr插件</t>
+  </si>
+  <si>
+    <t>https://gan.cool</t>
+  </si>
+  <si>
+    <t>国人自主研发的第一款Adobe Premiere Pro全功能插件</t>
+  </si>
+  <si>
+    <t>亿破姐</t>
+  </si>
+  <si>
+    <t>http://www.ypojie.com</t>
+  </si>
+  <si>
+    <t>精选互联网优秀软件分享、电脑技术、经验教程、SEO网站优化教程</t>
+  </si>
+  <si>
+    <t>PS2019教程（全80讲）</t>
+  </si>
+  <si>
+    <t>http://www.bilibili.com/video/BV12x411f7Gp?p=9</t>
+  </si>
+  <si>
+    <t>PS2019教程(PhotoShop从入门到入土 零基础入门80集)</t>
+  </si>
+  <si>
+    <t>文档格式在线转换</t>
+  </si>
+  <si>
+    <t>http://smallpdf.com</t>
   </si>
   <si>
     <t>魔酷网</t>
@@ -1351,64 +1420,55 @@
     <t>Blender插件-Blender模型Blender贴图魔酷网模型一站式下载</t>
   </si>
   <si>
-    <t>Xmind</t>
-  </si>
-  <si>
-    <t>https://www.kelongwo.com/pc-xmind/</t>
-  </si>
-  <si>
-    <t>https://api.iowen.cn/favicon/xmind.cn/.png</t>
-  </si>
-  <si>
-    <t>XMind是一种著名的思维导图软件，可以帮助用户快速构建并整理思路，</t>
-  </si>
-  <si>
-    <t>设计师网站导航</t>
-  </si>
-  <si>
-    <t>http://hao.shijuechuanda.com</t>
-  </si>
-  <si>
-    <t>设计网址导航 | 视觉传达</t>
-  </si>
-  <si>
-    <t>http://dribbble.com</t>
-  </si>
-  <si>
-    <t>设计作品的交流平台,UI设计师推荐必去网站</t>
-  </si>
-  <si>
-    <t>干的库Pr插件</t>
-  </si>
-  <si>
-    <t>https://gan.cool</t>
-  </si>
-  <si>
-    <t>国人自主研发的第一款Adobe Premiere Pro全功能插件</t>
-  </si>
-  <si>
-    <t>亿破姐</t>
-  </si>
-  <si>
-    <t>http://www.ypojie.com</t>
-  </si>
-  <si>
-    <t>精选互联网优秀软件分享、电脑技术、经验教程、SEO网站优化教程</t>
-  </si>
-  <si>
-    <t>PS2019教程（全80讲）</t>
-  </si>
-  <si>
-    <t>http://www.bilibili.com/video/BV12x411f7Gp?p=9</t>
-  </si>
-  <si>
-    <t>PS2019教程(PhotoShop从入门到入土 零基础入门80集)</t>
-  </si>
-  <si>
-    <t>文档格式在线转换</t>
-  </si>
-  <si>
-    <t>http://smallpdf.com</t>
+    <t>奶牛导航</t>
+  </si>
+  <si>
+    <t>http://ebook.name/nav.html</t>
+  </si>
+  <si>
+    <t>一个极简的网址导航，聚合了多种搜索引擎，收录了各种常用网站。</t>
+  </si>
+  <si>
+    <t>Behance</t>
+  </si>
+  <si>
+    <t>http://www.behance.net</t>
+  </si>
+  <si>
+    <t>系列设计作品开放平台</t>
+  </si>
+  <si>
+    <t>滚动截屏</t>
+  </si>
+  <si>
+    <t>http://snip.qq.com</t>
+  </si>
+  <si>
+    <t>https://3o.hk/images/2023/04/17/4.png</t>
+  </si>
+  <si>
+    <t>腾讯qq出品-滚动截屏</t>
+  </si>
+  <si>
+    <t>Pr教程(全57集)</t>
+  </si>
+  <si>
+    <t>http://www.bilibili.com/video/BV1bb411F7Sh/</t>
+  </si>
+  <si>
+    <t>https://3o.hk/images/2023/04/17/27.png</t>
+  </si>
+  <si>
+    <t>Pr2015教程全57集</t>
+  </si>
+  <si>
+    <t>png→svg</t>
+  </si>
+  <si>
+    <t>http://www.pngtosvg.com</t>
+  </si>
+  <si>
+    <t>https://3o.hk/images/2023/04/17/o80.png</t>
   </si>
   <si>
     <t>魔顿网</t>
@@ -1423,55 +1483,31 @@
     <t>免费C4D资源下载设计,高效,3d模型,c4d模型 ,魔顿,C4D插件,纹理贴图贴图</t>
   </si>
   <si>
-    <t>奶牛导航</t>
-  </si>
-  <si>
-    <t>http://ebook.name/nav.html</t>
-  </si>
-  <si>
-    <t>一个极简的网址导航，聚合了多种搜索引擎，收录了各种常用网站。</t>
-  </si>
-  <si>
-    <t>Behance</t>
-  </si>
-  <si>
-    <t>http://www.behance.net</t>
-  </si>
-  <si>
-    <t>系列设计作品开放平台</t>
-  </si>
-  <si>
-    <t>滚动截屏</t>
-  </si>
-  <si>
-    <t>http://snip.qq.com</t>
-  </si>
-  <si>
-    <t>https://3o.hk/images/2023/04/17/4.png</t>
-  </si>
-  <si>
-    <t>腾讯qq出品-滚动截屏</t>
-  </si>
-  <si>
-    <t>Pr教程(全57集)</t>
-  </si>
-  <si>
-    <t>http://www.bilibili.com/video/BV1bb411F7Sh/</t>
-  </si>
-  <si>
-    <t>https://3o.hk/images/2023/04/17/27.png</t>
-  </si>
-  <si>
-    <t>Pr2015教程全57集</t>
-  </si>
-  <si>
-    <t>png→svg</t>
-  </si>
-  <si>
-    <t>http://www.pngtosvg.com</t>
-  </si>
-  <si>
-    <t>https://3o.hk/images/2023/04/17/o80.png</t>
+    <t>Pinterest (花瓣它爹)</t>
+  </si>
+  <si>
+    <t>http://www.pinterest.com</t>
+  </si>
+  <si>
+    <t>设计灵感收集地，图片分享类的社交网站</t>
+  </si>
+  <si>
+    <t>小熊软件助手</t>
+  </si>
+  <si>
+    <t>https://www.xxrjzs.com</t>
+  </si>
+  <si>
+    <t>自建网盘下载速度快</t>
+  </si>
+  <si>
+    <t>在线抠图</t>
+  </si>
+  <si>
+    <t>http://www.remove.bg/zh</t>
+  </si>
+  <si>
+    <t>只需单击一下，即可在5秒钟内自动删除图像背景。</t>
   </si>
   <si>
     <t>3D溜溜网</t>
@@ -1483,31 +1519,25 @@
     <t>【3D模型免费下载】打造一流的3DMax模型库_3D溜溜网 3d66.com</t>
   </si>
   <si>
-    <t>Pinterest (花瓣它爹)</t>
-  </si>
-  <si>
-    <t>http://www.pinterest.com</t>
-  </si>
-  <si>
-    <t>设计灵感收集地，图片分享类的社交网站</t>
-  </si>
-  <si>
-    <t>小熊软件助手</t>
-  </si>
-  <si>
-    <t>https://www.xxrjzs.com</t>
-  </si>
-  <si>
-    <t>自建网盘下载速度快</t>
-  </si>
-  <si>
-    <t>在线抠图</t>
-  </si>
-  <si>
-    <t>http://www.remove.bg/zh</t>
-  </si>
-  <si>
-    <t>只需单击一下，即可在5秒钟内自动删除图像背景。</t>
+    <t>Boss设计</t>
+  </si>
+  <si>
+    <t>http://www.bossdesign.cn</t>
+  </si>
+  <si>
+    <t>收集国外设计素材网站的资源平台。</t>
+  </si>
+  <si>
+    <t>UI尺寸规范</t>
+  </si>
+  <si>
+    <t>http://tool.lanrentuku.com/guifan/ui.html</t>
+  </si>
+  <si>
+    <t>https://3o.hk/images/2023/04/17/28.png</t>
+  </si>
+  <si>
+    <t>iPhone/iPad/Android UI尺寸规范</t>
   </si>
   <si>
     <t>CG模型网</t>
@@ -1519,25 +1549,25 @@
     <t>专注多品类3D模型下载、原创作品分享、软件学习</t>
   </si>
   <si>
-    <t>Boss设计</t>
-  </si>
-  <si>
-    <t>http://www.bossdesign.cn</t>
-  </si>
-  <si>
-    <t>收集国外设计素材网站的资源平台。</t>
-  </si>
-  <si>
-    <t>UI尺寸规范</t>
-  </si>
-  <si>
-    <t>http://tool.lanrentuku.com/guifan/ui.html</t>
-  </si>
-  <si>
-    <t>https://3o.hk/images/2023/04/17/28.png</t>
-  </si>
-  <si>
-    <t>iPhone/iPad/Android UI尺寸规范</t>
+    <t>像素画</t>
+  </si>
+  <si>
+    <t>http://hello.eboy.com/pool/~Pixorama/1?q=project</t>
+  </si>
+  <si>
+    <t>https://eboy.s3.us-west-1.amazonaws.com/bubble/projects/2005/Future%20Publishing/FTP-pixartcov-newst-15k.png</t>
+  </si>
+  <si>
+    <t>一个分享好看的像素画的网站</t>
+  </si>
+  <si>
+    <t>Screen Sizes</t>
+  </si>
+  <si>
+    <t>http://screensiz.es/</t>
+  </si>
+  <si>
+    <t>在线查询不同设备的屏幕尺寸</t>
   </si>
   <si>
     <t>51PPT</t>
@@ -1549,25 +1579,22 @@
     <t>51PPT模板网 - 幻灯片演示模板及素材下载</t>
   </si>
   <si>
-    <t>像素画</t>
-  </si>
-  <si>
-    <t>http://hello.eboy.com/pool/~Pixorama/1?q=project</t>
-  </si>
-  <si>
-    <t>https://eboy.s3.us-west-1.amazonaws.com/bubble/projects/2005/Future%20Publishing/FTP-pixartcov-newst-15k.png</t>
-  </si>
-  <si>
-    <t>一个分享好看的像素画的网站</t>
-  </si>
-  <si>
-    <t>Screen Sizes</t>
-  </si>
-  <si>
-    <t>http://screensiz.es/</t>
-  </si>
-  <si>
-    <t>在线查询不同设备的屏幕尺寸</t>
+    <t>Instagram（需魔法）</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com</t>
+  </si>
+  <si>
+    <t>类似于国内小红书</t>
+  </si>
+  <si>
+    <t>IPhone屏幕尺寸</t>
+  </si>
+  <si>
+    <t>http://www.paintcodeapp.com/news/ultimate-guide-to-iphone-resolutions</t>
+  </si>
+  <si>
+    <t>IPhone各设备屏幕尺寸信息参数</t>
   </si>
   <si>
     <t>第一PPT</t>
@@ -1579,22 +1606,13 @@
     <t>免费ppt下载网站，广告超多，注意甄别！！</t>
   </si>
   <si>
-    <t>Instagram（需魔法）</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com</t>
-  </si>
-  <si>
-    <t>类似于国内小红书</t>
-  </si>
-  <si>
-    <t>IPhone屏幕尺寸</t>
-  </si>
-  <si>
-    <t>http://www.paintcodeapp.com/news/ultimate-guide-to-iphone-resolutions</t>
-  </si>
-  <si>
-    <t>IPhone各设备屏幕尺寸信息参数</t>
+    <t>安卓尺寸</t>
+  </si>
+  <si>
+    <t>http://material.io/blog/device-metrics</t>
+  </si>
+  <si>
+    <t>Google安卓主流设备尺寸</t>
   </si>
   <si>
     <t>爱给网</t>
@@ -1609,13 +1627,13 @@
     <t>免费提供免费的音效配乐|3D模型|视频|游戏素材资源下载</t>
   </si>
   <si>
-    <t>安卓尺寸</t>
-  </si>
-  <si>
-    <t>http://material.io/blog/device-metrics</t>
-  </si>
-  <si>
-    <t>Google安卓主流设备尺寸</t>
+    <t>草料二维码</t>
+  </si>
+  <si>
+    <t>http://cli.im/deqr</t>
+  </si>
+  <si>
+    <t>免费在线二维码解码器</t>
   </si>
   <si>
     <t>5素材</t>
@@ -1627,13 +1645,13 @@
     <t>免费设计素材下载,免抠PNG图片素材,免抠PS素材模板,PSD免抠设计背景图片,平面广告海报图片模板素材，psd艺术字免抠图片等免费设计素材图片下载，电商淘宝素材模板，平面广告模板素材等在线素材下载，免费素材共享。</t>
   </si>
   <si>
-    <t>草料二维码</t>
-  </si>
-  <si>
-    <t>http://cli.im/deqr</t>
-  </si>
-  <si>
-    <t>免费在线二维码解码器</t>
+    <t>png压缩</t>
+  </si>
+  <si>
+    <t>http://tinify.cn</t>
+  </si>
+  <si>
+    <t>TinyPNG使用智能有损压缩技术将WebP, PNG and JPEG图片的文件大小降低</t>
   </si>
   <si>
     <t>设计部落</t>
@@ -1648,13 +1666,13 @@
     <t>素材,图库,图片,图片下载,设计素材,PSD,矢量,AI,CDR,EPS,设计,免费素材网,素材天下,PS素材</t>
   </si>
   <si>
-    <t>png压缩</t>
-  </si>
-  <si>
-    <t>http://tinify.cn</t>
-  </si>
-  <si>
-    <t>TinyPNG使用智能有损压缩技术将WebP, PNG and JPEG图片的文件大小降低</t>
+    <t>图片压缩</t>
+  </si>
+  <si>
+    <t>http://www.yasuotu.com</t>
+  </si>
+  <si>
+    <t>在线图片压缩工具，支持GIF压缩、PNG压缩、JPG压缩</t>
   </si>
   <si>
     <t>觅元素</t>
@@ -1666,13 +1684,13 @@
     <t>免抠素材,位图,透明背景素材,透明背景图片,免抠png,高清png</t>
   </si>
   <si>
-    <t>图片压缩</t>
-  </si>
-  <si>
-    <t>http://www.yasuotu.com</t>
-  </si>
-  <si>
-    <t>在线图片压缩工具，支持GIF压缩、PNG压缩、JPG压缩</t>
+    <t>ProcessOn -思维导图</t>
+  </si>
+  <si>
+    <t>http://www.processon.com</t>
+  </si>
+  <si>
+    <t>思维导图,流程图,免费在线作图工具,在线流程图...</t>
   </si>
   <si>
     <t>矢量插画下载</t>
@@ -1684,13 +1702,13 @@
     <t>免抠矢量插画下载</t>
   </si>
   <si>
-    <t>ProcessOn -思维导图</t>
-  </si>
-  <si>
-    <t>http://www.processon.com</t>
-  </si>
-  <si>
-    <t>思维导图,流程图,免费在线作图工具,在线流程图...</t>
+    <t>千图抠图工具</t>
+  </si>
+  <si>
+    <t>http://koutu.58pic.com</t>
+  </si>
+  <si>
+    <t>AI自动抠图-千图抠图工具</t>
   </si>
   <si>
     <t>绘艺素材-音效网</t>
@@ -1705,13 +1723,13 @@
     <t>绘艺素材音效网提供各类音效下载</t>
   </si>
   <si>
-    <t>千图抠图工具</t>
-  </si>
-  <si>
-    <t>http://koutu.58pic.com</t>
-  </si>
-  <si>
-    <t>AI自动抠图-千图抠图工具</t>
+    <t>去除gif背景</t>
+  </si>
+  <si>
+    <t>http://www.unscreen.com/upload</t>
+  </si>
+  <si>
+    <t>AI自动抠图去除gif背景</t>
   </si>
   <si>
     <t>免费商用字体</t>
@@ -1723,13 +1741,13 @@
     <t>字风华-最全最新的免费可商用中英文字体下载网站！</t>
   </si>
   <si>
-    <t>去除gif背景</t>
-  </si>
-  <si>
-    <t>http://www.unscreen.com/upload</t>
-  </si>
-  <si>
-    <t>AI自动抠图去除gif背景</t>
+    <t>在线文件转换</t>
+  </si>
+  <si>
+    <t>https://products.groupdocs.app/zh/conversion/total</t>
+  </si>
+  <si>
+    <t>使用 Chrome 和 Firefox 等现代浏览器从任何设备在线转换文档。</t>
   </si>
   <si>
     <t>猫啃网(免费字体)</t>
@@ -1744,28 +1762,19 @@
     <t>免费下载无版权可商用字体-英文中文字体</t>
   </si>
   <si>
-    <t>在线文件转换</t>
-  </si>
-  <si>
-    <t>https://products.groupdocs.app/zh/conversion/total</t>
-  </si>
-  <si>
-    <t>使用 Chrome 和 Firefox 等现代浏览器从任何设备在线转换文档。</t>
+    <t>在线矢量设计</t>
+  </si>
+  <si>
+    <t>https://vectordad.com</t>
+  </si>
+  <si>
+    <t>图像艺术矢量化</t>
   </si>
   <si>
     <t>字体仓库</t>
   </si>
   <si>
     <t>http://www.ziticangku.com</t>
-  </si>
-  <si>
-    <t>在线矢量设计</t>
-  </si>
-  <si>
-    <t>https://vectordad.com</t>
-  </si>
-  <si>
-    <t>图像艺术矢量化</t>
   </si>
   <si>
     <t>100font</t>
@@ -1874,14 +1883,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -1890,14 +1891,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1919,7 +1928,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1927,6 +1944,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1948,26 +1980,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1984,13 +2000,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2017,7 +2026,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2035,31 +2176,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2071,133 +2206,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2208,6 +2217,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2225,8 +2258,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2246,15 +2279,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2266,21 +2290,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2316,10 +2325,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2328,133 +2337,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2850,10 +2859,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:CQ30"/>
+  <dimension ref="A1:CQ31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" topLeftCell="BX1" workbookViewId="0">
+      <selection activeCell="CF12" sqref="CF12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4512,17 +4521,14 @@
       <c r="CB10" s="14" t="s">
         <v>378</v>
       </c>
-      <c r="CC10" s="14" t="s">
+      <c r="CD10" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="CD10" s="1" t="s">
+      <c r="CG10" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="CG10" s="1" t="s">
+      <c r="CH10" s="14" t="s">
         <v>381</v>
-      </c>
-      <c r="CH10" s="14" t="s">
-        <v>382</v>
       </c>
       <c r="CJ10" s="1" t="s">
         <v>283</v>
@@ -4530,55 +4536,55 @@
     </row>
     <row r="11" spans="1:88">
       <c r="A11" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B11" s="14" t="s">
         <v>383</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="D11" s="1" t="s">
         <v>384</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>385</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>70</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="H11" s="14" t="s">
         <v>386</v>
       </c>
-      <c r="H11" s="14" t="s">
+      <c r="I11" s="15" t="s">
         <v>387</v>
       </c>
-      <c r="I11" s="15" t="s">
+      <c r="J11" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="M11" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="N11" s="14" t="s">
         <v>390</v>
       </c>
-      <c r="N11" s="14" t="s">
+      <c r="P11" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="P11" s="1" t="s">
+      <c r="S11" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="S11" s="1" t="s">
+      <c r="T11" s="14" t="s">
         <v>393</v>
       </c>
-      <c r="T11" s="14" t="s">
+      <c r="V11" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="V11" s="1" t="s">
+      <c r="AE11" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="AE11" s="1" t="s">
+      <c r="AF11" s="14" t="s">
         <v>396</v>
       </c>
-      <c r="AF11" s="14" t="s">
+      <c r="AH11" s="1" t="s">
         <v>397</v>
-      </c>
-      <c r="AH11" s="1" t="s">
-        <v>398</v>
       </c>
       <c r="AI11" s="1" t="s">
         <v>70</v>
@@ -4587,53 +4593,53 @@
       <c r="AP11" s="3"/>
       <c r="AV11" s="3"/>
       <c r="AW11" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="AX11" s="14" t="s">
         <v>399</v>
       </c>
-      <c r="AX11" s="14" t="s">
+      <c r="AZ11" s="1" t="s">
         <v>400</v>
-      </c>
-      <c r="AZ11" s="1" t="s">
-        <v>401</v>
       </c>
       <c r="BB11" s="3"/>
       <c r="BC11" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="BD11" s="14" t="s">
         <v>402</v>
       </c>
-      <c r="BD11" s="14" t="s">
+      <c r="BE11" s="14" t="s">
         <v>403</v>
       </c>
-      <c r="BE11" s="14" t="s">
+      <c r="BF11" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="BF11" s="1" t="s">
+      <c r="BU11" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="BU11" s="1" t="s">
+      <c r="BV11" s="14" t="s">
         <v>406</v>
       </c>
-      <c r="BV11" s="14" t="s">
+      <c r="BX11" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="BX11" s="1" t="s">
+      <c r="CA11" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="CA11" s="1" t="s">
+      <c r="CB11" s="14" t="s">
         <v>409</v>
       </c>
-      <c r="CB11" s="14" t="s">
+      <c r="CC11" s="14" t="s">
         <v>410</v>
       </c>
-      <c r="CC11" s="15" t="s">
+      <c r="CD11" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="CD11" s="1" t="s">
+      <c r="CG11" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="CG11" s="1" t="s">
+      <c r="CH11" s="15" t="s">
         <v>413</v>
-      </c>
-      <c r="CH11" s="15" t="s">
-        <v>414</v>
       </c>
       <c r="CJ11" s="1" t="s">
         <v>283</v>
@@ -4641,97 +4647,100 @@
     </row>
     <row r="12" spans="1:82">
       <c r="A12" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B12" s="14" t="s">
         <v>415</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="D12" s="1" t="s">
         <v>416</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>417</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>75</v>
       </c>
       <c r="G12" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="H12" s="14" t="s">
         <v>418</v>
       </c>
-      <c r="H12" s="14" t="s">
+      <c r="I12" s="15" t="s">
         <v>419</v>
       </c>
-      <c r="I12" s="15" t="s">
+      <c r="J12" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="M12" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="N12" s="14" t="s">
         <v>422</v>
       </c>
-      <c r="N12" s="14" t="s">
+      <c r="P12" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="P12" s="1" t="s">
+      <c r="S12" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="S12" s="1" t="s">
+      <c r="T12" s="14" t="s">
         <v>425</v>
       </c>
-      <c r="T12" s="14" t="s">
+      <c r="U12" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="U12" s="15" t="s">
+      <c r="V12" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="V12" s="1" t="s">
+      <c r="AE12" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="AE12" s="1" t="s">
+      <c r="AF12" s="14" t="s">
         <v>429</v>
       </c>
-      <c r="AF12" s="14" t="s">
+      <c r="AH12" s="1" t="s">
         <v>430</v>
-      </c>
-      <c r="AH12" s="1" t="s">
-        <v>431</v>
       </c>
       <c r="AJ12" s="3"/>
       <c r="AP12" s="3"/>
       <c r="AV12" s="3"/>
       <c r="AW12" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="AX12" s="14" t="s">
         <v>432</v>
       </c>
-      <c r="AX12" s="14" t="s">
+      <c r="AZ12" s="1" t="s">
         <v>433</v>
-      </c>
-      <c r="AZ12" s="1" t="s">
-        <v>434</v>
       </c>
       <c r="BB12" s="3"/>
       <c r="BC12" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="BD12" s="14" t="s">
         <v>435</v>
       </c>
-      <c r="BD12" s="14" t="s">
+      <c r="BE12" s="14" t="s">
         <v>436</v>
       </c>
-      <c r="BE12" s="14" t="s">
+      <c r="BF12" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="BF12" s="1" t="s">
+      <c r="BU12" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="BU12" s="1" t="s">
+      <c r="BV12" s="14" t="s">
         <v>439</v>
       </c>
-      <c r="BV12" s="14" t="s">
+      <c r="BX12" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="BX12" s="1" t="s">
+      <c r="CA12" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="CA12" s="1" t="s">
+      <c r="CB12" s="14" t="s">
         <v>442</v>
       </c>
-      <c r="CB12" s="14" t="s">
+      <c r="CC12" s="15" t="s">
         <v>443</v>
       </c>
       <c r="CD12" s="1" t="s">
@@ -4818,76 +4827,76 @@
       <c r="CB13" s="14" t="s">
         <v>466</v>
       </c>
-      <c r="CC13" s="14" t="s">
+      <c r="CD13" s="1" t="s">
         <v>467</v>
-      </c>
-      <c r="CD13" s="1" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="14" spans="13:82">
       <c r="M14" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="N14" s="14" t="s">
         <v>469</v>
       </c>
-      <c r="N14" s="14" t="s">
+      <c r="P14" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="P14" s="1" t="s">
+      <c r="S14" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="S14" s="1" t="s">
+      <c r="T14" s="14" t="s">
         <v>472</v>
       </c>
-      <c r="T14" s="14" t="s">
+      <c r="V14" s="1" t="s">
         <v>473</v>
-      </c>
-      <c r="V14" s="1" t="s">
-        <v>474</v>
       </c>
       <c r="AJ14" s="3"/>
       <c r="AP14" s="3"/>
       <c r="AV14" s="3"/>
       <c r="AW14" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="AX14" s="14" t="s">
         <v>475</v>
       </c>
-      <c r="AX14" s="14" t="s">
+      <c r="AY14" s="14" t="s">
         <v>476</v>
       </c>
-      <c r="AY14" s="14" t="s">
+      <c r="AZ14" s="1" t="s">
         <v>477</v>
-      </c>
-      <c r="AZ14" s="1" t="s">
-        <v>478</v>
       </c>
       <c r="BB14" s="3"/>
       <c r="BC14" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="BD14" s="14" t="s">
         <v>479</v>
       </c>
-      <c r="BD14" s="14" t="s">
+      <c r="BE14" s="14" t="s">
         <v>480</v>
       </c>
-      <c r="BE14" s="14" t="s">
+      <c r="BF14" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="BF14" s="1" t="s">
+      <c r="BU14" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="BU14" s="1" t="s">
+      <c r="BV14" s="14" t="s">
         <v>483</v>
       </c>
-      <c r="BV14" s="14" t="s">
+      <c r="BW14" s="14" t="s">
         <v>484</v>
       </c>
-      <c r="BW14" s="14" t="s">
+      <c r="BX14" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="CA14" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="BX14" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="CA14" s="1" t="s">
+      <c r="CB14" s="14" t="s">
         <v>486</v>
       </c>
-      <c r="CB14" s="14" t="s">
+      <c r="CC14" s="14" t="s">
         <v>487</v>
       </c>
       <c r="CD14" s="1" t="s">
@@ -5002,7 +5011,7 @@
       <c r="CA17" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="CB17" s="15" t="s">
+      <c r="CB17" s="14" t="s">
         <v>519</v>
       </c>
       <c r="CD17" s="1" t="s">
@@ -5035,14 +5044,11 @@
       <c r="CA18" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="CB18" s="14" t="s">
+      <c r="CB18" s="15" t="s">
         <v>528</v>
       </c>
-      <c r="CC18" s="14" t="s">
+      <c r="CD18" s="1" t="s">
         <v>529</v>
-      </c>
-      <c r="CD18" s="1" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="19" spans="36:82">
@@ -5051,18 +5057,21 @@
       <c r="AV19" s="3"/>
       <c r="BB19" s="3"/>
       <c r="BU19" s="23" t="s">
+        <v>530</v>
+      </c>
+      <c r="BV19" s="14" t="s">
         <v>531</v>
       </c>
-      <c r="BV19" s="14" t="s">
+      <c r="BX19" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="BX19" s="1" t="s">
+      <c r="CA19" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="CA19" s="1" t="s">
+      <c r="CB19" s="14" t="s">
         <v>534</v>
       </c>
-      <c r="CB19" s="14" t="s">
+      <c r="CC19" s="14" t="s">
         <v>535</v>
       </c>
       <c r="CD19" s="1" t="s">
@@ -5089,11 +5098,8 @@
       <c r="CB20" s="14" t="s">
         <v>541</v>
       </c>
-      <c r="CC20" s="14" t="s">
+      <c r="CD20" s="1" t="s">
         <v>542</v>
-      </c>
-      <c r="CD20" s="1" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="21" spans="36:82">
@@ -5102,18 +5108,21 @@
       <c r="AV21" s="3"/>
       <c r="BB21" s="3"/>
       <c r="BU21" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="BV21" s="14" t="s">
         <v>544</v>
       </c>
-      <c r="BV21" s="14" t="s">
+      <c r="BX21" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="BX21" s="1" t="s">
+      <c r="CA21" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="CA21" s="1" t="s">
+      <c r="CB21" s="14" t="s">
         <v>547</v>
       </c>
-      <c r="CB21" s="14" t="s">
+      <c r="CC21" s="14" t="s">
         <v>548</v>
       </c>
       <c r="CD21" s="1" t="s">
@@ -5164,11 +5173,8 @@
       <c r="CB23" s="14" t="s">
         <v>560</v>
       </c>
-      <c r="CC23" s="14" t="s">
+      <c r="CD23" s="1" t="s">
         <v>561</v>
-      </c>
-      <c r="CD23" s="1" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="24" spans="36:82">
@@ -5177,18 +5183,21 @@
       <c r="AV24" s="3"/>
       <c r="BB24" s="3"/>
       <c r="BU24" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="BV24" s="14" t="s">
         <v>563</v>
       </c>
-      <c r="BV24" s="14" t="s">
+      <c r="BX24" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="BX24" s="1" t="s">
+      <c r="CA24" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="CA24" s="1" t="s">
+      <c r="CB24" s="14" t="s">
         <v>566</v>
       </c>
-      <c r="CB24" s="14" t="s">
+      <c r="CC24" s="14" t="s">
         <v>567</v>
       </c>
       <c r="CD24" s="1" t="s">
@@ -5215,72 +5224,72 @@
       <c r="CB25" s="14" t="s">
         <v>573</v>
       </c>
-      <c r="CC25" s="14" t="s">
+      <c r="CD25" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="CD25" s="1" t="s">
+    </row>
+    <row r="26" spans="73:82">
+      <c r="BU26" s="1" t="s">
         <v>575</v>
       </c>
+      <c r="BV26" s="14" t="s">
+        <v>576</v>
+      </c>
+      <c r="BX26" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="CA26" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="CB26" s="14" t="s">
+        <v>579</v>
+      </c>
+      <c r="CC26" s="14" t="s">
+        <v>580</v>
+      </c>
+      <c r="CD26" s="1" t="s">
+        <v>581</v>
+      </c>
     </row>
-    <row r="26" spans="73:83">
-      <c r="BU26" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="BV26" s="14" t="s">
-        <v>577</v>
-      </c>
-      <c r="BX26" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="CA26" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="CB26" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="CD26" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="CE26" s="1" t="s">
+    <row r="27" spans="73:83">
+      <c r="BU27" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="BV27" s="14" t="s">
+        <v>583</v>
+      </c>
+      <c r="BX27" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="CA27" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="CB27" s="14" t="s">
+        <v>586</v>
+      </c>
+      <c r="CD27" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="CE27" s="1" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="73:82">
-      <c r="BU27" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="BV27" s="14" t="s">
-        <v>582</v>
-      </c>
-      <c r="BX27" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="CA27" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="CB27" s="14" t="s">
-        <v>585</v>
-      </c>
-      <c r="CD27" s="1" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="28" spans="79:82">
       <c r="CA28" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="CB28" s="12" t="s">
         <v>587</v>
       </c>
+      <c r="CB28" s="14" t="s">
+        <v>588</v>
+      </c>
       <c r="CD28" s="1" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
     </row>
     <row r="29" spans="79:82">
       <c r="CA29" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="CB29" s="14" t="s">
+      <c r="CB29" s="12" t="s">
         <v>590</v>
       </c>
       <c r="CD29" s="1" t="s">
@@ -5291,14 +5300,25 @@
       <c r="CA30" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="CB30" s="15" t="s">
+      <c r="CB30" s="14" t="s">
         <v>593</v>
       </c>
-      <c r="CC30" s="14" t="s">
+      <c r="CD30" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="CD30" s="1" t="s">
+    </row>
+    <row r="31" spans="79:82">
+      <c r="CA31" s="1" t="s">
         <v>595</v>
+      </c>
+      <c r="CB31" s="15" t="s">
+        <v>596</v>
+      </c>
+      <c r="CC31" s="14" t="s">
+        <v>597</v>
+      </c>
+      <c r="CD31" s="1" t="s">
+        <v>598</v>
       </c>
     </row>
   </sheetData>
@@ -5455,26 +5475,26 @@
     <hyperlink ref="CB6" r:id="rId145" display="https://www.kelongwo.com/Resource_function/yuanjx/C/?aff=1799"/>
     <hyperlink ref="CB8" r:id="rId146" display="http://www.ls.graphics"/>
     <hyperlink ref="CB9" r:id="rId147" display="https://www.freepik.com"/>
-    <hyperlink ref="CB10" r:id="rId148" display="http://www.yunmiss.com/list/1.html"/>
-    <hyperlink ref="CB11" r:id="rId149" display="http://www.mcool.com/free.php"/>
-    <hyperlink ref="CB12" r:id="rId150" display="https://blender.kim"/>
-    <hyperlink ref="CB13" r:id="rId151" display="http://www.modown.cn/?aff=70874"/>
-    <hyperlink ref="CB14" r:id="rId152" display="https://www.3d66.com"/>
-    <hyperlink ref="CB15" r:id="rId153" display="https://www.cgmodel.com"/>
-    <hyperlink ref="CB16" r:id="rId154" display="http://www.51pptmoban.com"/>
-    <hyperlink ref="CB18" r:id="rId155" display="http://aigei.com/design/?m=b_4425938"/>
-    <hyperlink ref="CB17" r:id="rId156" display="http://www.1ppt.com"/>
-    <hyperlink ref="CB19" r:id="rId157" display="http://www.5sucai.com"/>
-    <hyperlink ref="CB20" r:id="rId158" display="http://www.sheji567.com"/>
-    <hyperlink ref="CB21" r:id="rId159" display="http://www.51yuansu.com"/>
-    <hyperlink ref="CB22" r:id="rId160" display="http://undraw.co/illustrations"/>
-    <hyperlink ref="CB23" r:id="rId161" display="http://www.huiyi8.com/yinxiao"/>
-    <hyperlink ref="CB24" r:id="rId162" display="http://www.zifh.com"/>
-    <hyperlink ref="CB25" r:id="rId163" display="http://www.maoken.com"/>
-    <hyperlink ref="CB26" r:id="rId164" display="http://www.ziticangku.com"/>
-    <hyperlink ref="CB27" r:id="rId165" display="http://www.100font.com"/>
-    <hyperlink ref="CB28" r:id="rId166" display="http://zh.fonts2u.com" tooltip="http://zh.fonts2u.com"/>
-    <hyperlink ref="CB29" r:id="rId167" display="http://www.pptfans.cn/pptcourse"/>
+    <hyperlink ref="CB11" r:id="rId148" display="http://www.yunmiss.com/list/1.html"/>
+    <hyperlink ref="CB12" r:id="rId149" display="http://www.mcool.com/free.php"/>
+    <hyperlink ref="CB13" r:id="rId150" display="https://blender.kim"/>
+    <hyperlink ref="CB14" r:id="rId151" display="http://www.modown.cn/?aff=70874"/>
+    <hyperlink ref="CB15" r:id="rId152" display="https://www.3d66.com"/>
+    <hyperlink ref="CB16" r:id="rId153" display="https://www.cgmodel.com"/>
+    <hyperlink ref="CB17" r:id="rId154" display="http://www.51pptmoban.com"/>
+    <hyperlink ref="CB19" r:id="rId155" display="http://aigei.com/design/?m=b_4425938"/>
+    <hyperlink ref="CB18" r:id="rId156" display="http://www.1ppt.com"/>
+    <hyperlink ref="CB20" r:id="rId157" display="http://www.5sucai.com"/>
+    <hyperlink ref="CB21" r:id="rId158" display="http://www.sheji567.com"/>
+    <hyperlink ref="CB22" r:id="rId159" display="http://www.51yuansu.com"/>
+    <hyperlink ref="CB23" r:id="rId160" display="http://undraw.co/illustrations"/>
+    <hyperlink ref="CB24" r:id="rId161" display="http://www.huiyi8.com/yinxiao"/>
+    <hyperlink ref="CB25" r:id="rId162" display="http://www.zifh.com"/>
+    <hyperlink ref="CB26" r:id="rId163" display="http://www.maoken.com"/>
+    <hyperlink ref="CB27" r:id="rId164" display="http://www.ziticangku.com"/>
+    <hyperlink ref="CB28" r:id="rId165" display="http://www.100font.com"/>
+    <hyperlink ref="CB29" r:id="rId166" display="http://zh.fonts2u.com" tooltip="http://zh.fonts2u.com"/>
+    <hyperlink ref="CB30" r:id="rId167" display="http://www.pptfans.cn/pptcourse"/>
     <hyperlink ref="CH3" r:id="rId168" display="http://by.360xueke.com"/>
     <hyperlink ref="CH4" r:id="rId169" display="http://www.cnki.net"/>
     <hyperlink ref="CH5" r:id="rId170" display="http://www.wanfangdata.com.cn"/>
@@ -5517,13 +5537,13 @@
     <hyperlink ref="CC3" r:id="rId23" display="https://pic.zhaotu.me/2023/04/16/12x69a97f65a24ebf1a.png"/>
     <hyperlink ref="CC5" r:id="rId23" display="https://pic.zhaotu.me/2023/04/16/12x69a97f65a24ebf1a.png"/>
     <hyperlink ref="CC6" r:id="rId18" display="https://img.quankexia.com/kelongwo/wp-content/uploads/2021/07/2021071214094981.png"/>
-    <hyperlink ref="CC13" r:id="rId204" display="https://api.iowen.cn/favicon/www.modown.cn.png"/>
+    <hyperlink ref="CC14" r:id="rId204" display="https://api.iowen.cn/favicon/www.modown.cn.png"/>
     <hyperlink ref="CI8" r:id="rId22" display="https://gpt.1nav.ml/favicon.ico"/>
-    <hyperlink ref="CC10" r:id="rId205" display="https://3o.hk/images/2023/04/17/o66.png"/>
-    <hyperlink ref="CC25" r:id="rId206" display="https://3o.hk/images/2023/04/17/o1.png"/>
-    <hyperlink ref="CC18" r:id="rId207" display="https://3o.hk/images/2023/04/17/o63.png"/>
-    <hyperlink ref="CC23" r:id="rId208" display="https://3o.hk/images/2023/04/17/o69.png"/>
-    <hyperlink ref="CC20" r:id="rId209" display="https://3o.hk/images/2023/04/17/o78.png"/>
+    <hyperlink ref="CC11" r:id="rId205" display="https://3o.hk/images/2023/04/17/o66.png"/>
+    <hyperlink ref="CC26" r:id="rId206" display="https://3o.hk/images/2023/04/17/o1.png"/>
+    <hyperlink ref="CC19" r:id="rId207" display="https://3o.hk/images/2023/04/17/o63.png"/>
+    <hyperlink ref="CC24" r:id="rId208" display="https://3o.hk/images/2023/04/17/o69.png"/>
+    <hyperlink ref="CC21" r:id="rId209" display="https://3o.hk/images/2023/04/17/o78.png"/>
     <hyperlink ref="BW16" r:id="rId210" display="https://3o.hk/images/2023/04/17/28.png"/>
     <hyperlink ref="AF13" r:id="rId211" display="https://gan.cool" tooltip="https://gan.cool"/>
     <hyperlink ref="BV8" r:id="rId212" display="https://www.flexclip.com/cn/tools/compress-video/"/>
@@ -5533,15 +5553,16 @@
     <hyperlink ref="AX14" r:id="rId216" display="http://snip.qq.com"/>
     <hyperlink ref="AX15" r:id="rId217" display="https://www.xxrjzs.com"/>
     <hyperlink ref="AY14" r:id="rId218" display="https://3o.hk/images/2023/04/17/4.png"/>
-    <hyperlink ref="CC11" r:id="rId219" display="https://www.mcool.com/favicon.ico"/>
+    <hyperlink ref="CC12" r:id="rId219" display="https://www.mcool.com/favicon.ico"/>
     <hyperlink ref="T18" r:id="rId220" display="https://www.instagram.com"/>
     <hyperlink ref="CB7" r:id="rId221" display="https://mockupplanet.com" tooltip="https://mockupplanet.com"/>
     <hyperlink ref="H13" r:id="rId222" display="https://www.kelongwo.com/pc-xmind/"/>
     <hyperlink ref="I13" r:id="rId223" display="https://api.iowen.cn/favicon/xmind.cn/.png"/>
     <hyperlink ref="B11" r:id="rId224" display="https://rightbrain.art"/>
-    <hyperlink ref="CB30" r:id="rId225" display="https://www.thosefree.com/design"/>
-    <hyperlink ref="CC30" r:id="rId226" display="https://img.thosefree.com/static/logo.png"/>
+    <hyperlink ref="CB31" r:id="rId225" display="https://www.thosefree.com/design"/>
+    <hyperlink ref="CC31" r:id="rId226" display="https://img.thosefree.com/static/logo.png"/>
     <hyperlink ref="B12" r:id="rId227" display="https://wormhole.app"/>
+    <hyperlink ref="CB10" r:id="rId228" display="https://resourceboy.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/2.xlsx
+++ b/2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="602">
   <si>
     <t>✨ 推荐网站</t>
   </si>
@@ -541,6 +541,15 @@
     <t>千秋书在-专注分享精品电子书，精校kindle电子书,外刊杂志下载,PDF漫画下载</t>
   </si>
   <si>
+    <t>Adobe调色盘</t>
+  </si>
+  <si>
+    <t>https://color.adobe.com</t>
+  </si>
+  <si>
+    <t>新增辅助工具</t>
+  </si>
+  <si>
     <t>万兴喵影</t>
   </si>
   <si>
@@ -1060,7 +1069,7 @@
     <t>https://www.freepik.com</t>
   </si>
   <si>
-    <t>矢量图，照片，psd样机等免费下载</t>
+    <t>矢量图，照片，psd免费样机等免费下载</t>
   </si>
   <si>
     <t>免费论文查重-2</t>
@@ -1822,10 +1831,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1890,13 +1899,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -1907,6 +1909,52 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1928,7 +1976,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1943,22 +1991,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1972,16 +2005,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1990,22 +2015,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2026,13 +2035,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2044,7 +2059,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2056,31 +2101,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2092,25 +2143,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2128,13 +2167,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2146,13 +2185,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2164,49 +2209,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2244,41 +2253,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2303,6 +2277,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2317,6 +2300,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2325,10 +2334,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2337,16 +2346,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2358,112 +2367,112 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2861,8 +2870,8 @@
   <sheetPr/>
   <dimension ref="A1:CQ31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" topLeftCell="BX1" workbookViewId="0">
-      <selection activeCell="CF12" sqref="CF12"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" topLeftCell="AK1" workbookViewId="0">
+      <selection activeCell="AT6" sqref="AT6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3783,86 +3792,95 @@
         <v>174</v>
       </c>
       <c r="AP5" s="3"/>
+      <c r="AQ5" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="AR5" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="AT5" s="1" t="s">
+        <v>177</v>
+      </c>
       <c r="AV5" s="3"/>
       <c r="AW5" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AX5" s="14" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="AZ5" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="BB5" s="3"/>
       <c r="BC5" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="BD5" s="14" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="BE5" s="14" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="BF5" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="BG5" s="1" t="s">
         <v>70</v>
       </c>
       <c r="BI5" s="1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="BJ5" s="14" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="BK5" s="14"/>
       <c r="BL5" s="1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="BO5" s="1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="BP5" s="14" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="BR5" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="BU5" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="BV5" s="14" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="BX5" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="CA5" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="CB5" s="14" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="CC5" s="14" t="s">
         <v>89</v>
       </c>
       <c r="CD5" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="CG5" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="CH5" s="14" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="CJ5" s="1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="CM5" s="1" t="s">
         <v>152</v>
       </c>
       <c r="CN5" s="14" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="CP5" s="1" t="s">
         <v>154</v>
@@ -3882,77 +3900,77 @@
         <v>90</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="K6" s="10"/>
       <c r="M6" s="8" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="N6" s="11" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="O6" s="11" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q6" s="10"/>
       <c r="S6" s="8" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="T6" s="9" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="U6" s="9"/>
       <c r="V6" s="8" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="W6" s="10" t="s">
         <v>49</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Z6" s="14" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="AE6" s="1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="AF6" s="14" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="AG6" s="14" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="AH6" s="1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="AJ6" s="3"/>
       <c r="AK6" s="1" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="AL6" s="14" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="AN6" s="1" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AP6" s="3"/>
       <c r="AV6" s="3"/>
@@ -3970,371 +3988,371 @@
       </c>
       <c r="BB6" s="3"/>
       <c r="BC6" s="1" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="BD6" s="14" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="BE6" s="14" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="BF6" s="1" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="BI6" s="1" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="BJ6" s="14" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="BK6" s="14" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="BL6" s="1" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="BO6" s="1" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="BP6" s="15" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="BR6" s="1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="BU6" s="1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="BV6" s="14" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="BX6" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="CA6" s="1" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="CB6" s="14" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="CC6" s="14" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="CD6" s="1" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="CG6" s="1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="CH6" s="14" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="CJ6" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="1:88">
       <c r="A7" s="8" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>40</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="K7" s="10"/>
       <c r="M7" s="1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="N7" s="14" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="O7" s="11" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q7" s="10"/>
       <c r="S7" s="8" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="T7" s="9" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="U7" s="11"/>
       <c r="V7" s="8" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="W7" s="11"/>
       <c r="AE7" s="1" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="AF7" s="14" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="AH7" s="1" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="AJ7" s="3"/>
       <c r="AK7" s="1" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="AL7" s="14" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="AN7" s="1" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="AP7" s="3"/>
       <c r="AV7" s="3"/>
       <c r="AW7" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="AX7" s="14" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="AY7" s="14" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="AZ7" s="1" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="BB7" s="3"/>
       <c r="BC7" s="1" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="BD7" s="14" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="BE7" s="14" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="BF7" s="1" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="BG7" s="1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="BI7" s="1" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="BJ7" s="14" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="BK7" s="14" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="BL7" s="1" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="BO7" s="1" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="BP7" s="14" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="BR7" s="1" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="BU7" s="1" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="BV7" s="14" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="BX7" s="1" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="CA7" s="1" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="CB7" s="15" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="CD7" s="1" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="CG7" s="1" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="CH7" s="14" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="CJ7" s="1" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8" spans="1:89">
       <c r="A8" s="1" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="N8" s="11" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="O8" s="11" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="P8" s="6" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q8" s="10"/>
       <c r="S8" s="1" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="T8" s="15" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="AE8" s="1" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="AF8" s="14" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="AH8" s="1" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="AJ8" s="3"/>
       <c r="AP8" s="3"/>
       <c r="AV8" s="3"/>
       <c r="AW8" s="1" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="AX8" s="14" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="AY8" s="14" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="AZ8" s="1" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="BB8" s="3"/>
       <c r="BC8" s="1" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="BD8" s="14" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="BE8" s="14" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="BF8" s="1" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="BU8" s="1" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="BV8" s="15" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="BW8" s="14" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="BX8" s="1" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="CA8" s="1" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="CB8" s="14" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="CD8" s="1" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="CG8" s="1" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="CH8" s="14" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="CI8" s="14" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="CJ8" s="1" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="CK8" s="1" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="9" ht="18.75" spans="1:88">
       <c r="A9" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>323</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>319</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>320</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>87</v>
@@ -4350,241 +4368,241 @@
       </c>
       <c r="Q9" s="10"/>
       <c r="S9" s="1" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="T9" s="15" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="U9" s="15" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="AE9" s="1" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="AF9" s="14" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="AH9" s="1" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="AJ9" s="3"/>
       <c r="AP9" s="3"/>
       <c r="AV9" s="3"/>
       <c r="AW9" s="1" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="AX9" s="14" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="AY9" s="14" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="AZ9" s="1" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="BB9" s="3"/>
       <c r="BC9" s="1" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="BD9" s="14" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="BE9" s="14" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="BF9" s="1" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="BU9" s="1" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="BV9" s="14" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="BX9" s="1" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="CA9" s="1" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="CB9" s="14" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="CD9" s="1" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="CG9" s="1" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="CH9" s="14" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="CJ9" s="1" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="10" spans="1:88">
       <c r="A10" s="1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="N10" s="14" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="T10" s="14" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="U10" s="14" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="AE10" s="1" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="AF10" s="14" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="AH10" s="1" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="AJ10" s="3"/>
       <c r="AP10" s="3"/>
       <c r="AV10" s="3"/>
       <c r="AW10" s="1" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="AX10" s="14" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="AZ10" s="1" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="BB10" s="3"/>
       <c r="BC10" s="1" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="BD10" s="14" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="BE10" s="14" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="BF10" s="1" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="BG10" s="1" t="s">
         <v>70</v>
       </c>
       <c r="BU10" s="1" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="BV10" s="14" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="BX10" s="1" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="CA10" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="CB10" s="14" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="CD10" s="1" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="CG10" s="1" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="CH10" s="14" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="CJ10" s="1" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="11" spans="1:88">
       <c r="A11" s="1" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>70</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="N11" s="14" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="T11" s="14" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="AE11" s="1" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="AF11" s="14" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="AH11" s="1" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="AI11" s="1" t="s">
         <v>70</v>
@@ -4593,406 +4611,406 @@
       <c r="AP11" s="3"/>
       <c r="AV11" s="3"/>
       <c r="AW11" s="1" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="AX11" s="14" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="AZ11" s="1" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="BB11" s="3"/>
       <c r="BC11" s="1" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="BD11" s="14" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="BE11" s="14" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="BF11" s="1" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="BU11" s="1" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="BV11" s="14" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="BX11" s="1" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="CA11" s="1" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="CB11" s="14" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="CC11" s="14" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="CD11" s="1" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="CG11" s="1" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="CH11" s="15" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="CJ11" s="1" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="12" spans="1:82">
       <c r="A12" s="1" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>75</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="N12" s="14" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="T12" s="14" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="U12" s="15" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="AE12" s="1" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="AF12" s="14" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="AH12" s="1" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="AJ12" s="3"/>
       <c r="AP12" s="3"/>
       <c r="AV12" s="3"/>
       <c r="AW12" s="1" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="AX12" s="14" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="AZ12" s="1" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="BB12" s="3"/>
       <c r="BC12" s="1" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="BD12" s="14" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="BE12" s="14" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="BF12" s="1" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="BU12" s="1" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="BV12" s="14" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="BX12" s="1" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="CA12" s="1" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="CB12" s="14" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="CC12" s="15" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="CD12" s="1" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="13" spans="7:82">
       <c r="G13" s="1" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="N13" s="14" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="S13" s="1" t="s">
         <v>102</v>
       </c>
       <c r="T13" s="14" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="AE13" s="1" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="AF13" s="14" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="AH13" s="1" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="AJ13" s="3"/>
       <c r="AP13" s="3"/>
       <c r="AV13" s="3"/>
       <c r="AW13" s="1" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="AX13" s="19" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="AZ13" s="1" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="BB13" s="3"/>
       <c r="BC13" s="1" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="BD13" s="14" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="BE13" s="14" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="BF13" s="1" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="BU13" s="1" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="BV13" s="14" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="BX13" s="1" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="CA13" s="1" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="CB13" s="14" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="CD13" s="1" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
     </row>
     <row r="14" spans="13:82">
       <c r="M14" s="1" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="N14" s="14" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="T14" s="14" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="AJ14" s="3"/>
       <c r="AP14" s="3"/>
       <c r="AV14" s="3"/>
       <c r="AW14" s="1" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="AX14" s="14" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="AY14" s="14" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="AZ14" s="1" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="BB14" s="3"/>
       <c r="BC14" s="1" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="BD14" s="14" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="BE14" s="14" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="BF14" s="1" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="BU14" s="1" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="BV14" s="14" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="BW14" s="14" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="BX14" s="1" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="CA14" s="1" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="CB14" s="14" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="CC14" s="14" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="CD14" s="1" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
     </row>
     <row r="15" spans="19:82">
       <c r="S15" s="1" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="T15" s="15" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="AJ15" s="3"/>
       <c r="AP15" s="3"/>
       <c r="AV15" s="3"/>
       <c r="AW15" s="1" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="AX15" s="14" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="AZ15" s="1" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="BB15" s="3"/>
       <c r="BU15" s="1" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="BV15" s="14" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="BX15" s="1" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="CA15" s="1" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="CB15" s="14" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="CD15" s="1" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
     </row>
     <row r="16" spans="19:82">
       <c r="S16" s="1" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="T16" s="14" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="AJ16" s="3"/>
       <c r="AP16" s="3"/>
       <c r="AV16" s="3"/>
       <c r="BB16" s="3"/>
       <c r="BU16" s="1" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="BV16" s="14" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="BW16" s="14" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="BX16" s="1" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="CA16" s="1" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="CB16" s="14" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="CD16" s="1" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
     </row>
     <row r="17" spans="19:82">
       <c r="S17" s="1" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="T17" s="14" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="U17" s="14" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="AJ17" s="3"/>
       <c r="AP17" s="3"/>
@@ -5000,55 +5018,55 @@
       <c r="AX17" s="21"/>
       <c r="BB17" s="3"/>
       <c r="BU17" s="1" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="BV17" s="14" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="BX17" s="1" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="CA17" s="1" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="CB17" s="14" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="CD17" s="1" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
     </row>
     <row r="18" spans="19:82">
       <c r="S18" s="1" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="T18" s="14" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="AJ18" s="3"/>
       <c r="AP18" s="3"/>
       <c r="AV18" s="3"/>
       <c r="BB18" s="3"/>
       <c r="BU18" s="1" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="BV18" s="14" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="BX18" s="1" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="CA18" s="1" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="CB18" s="15" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="CD18" s="1" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
     </row>
     <row r="19" spans="36:82">
@@ -5057,25 +5075,25 @@
       <c r="AV19" s="3"/>
       <c r="BB19" s="3"/>
       <c r="BU19" s="23" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="BV19" s="14" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="BX19" s="1" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="CA19" s="1" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="CB19" s="14" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="CC19" s="14" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="CD19" s="1" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
     </row>
     <row r="20" spans="36:82">
@@ -5084,22 +5102,22 @@
       <c r="AV20" s="3"/>
       <c r="BB20" s="3"/>
       <c r="BU20" s="1" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="BV20" s="14" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="BX20" s="1" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="CA20" s="1" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="CB20" s="14" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="CD20" s="1" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
     </row>
     <row r="21" spans="36:82">
@@ -5108,25 +5126,25 @@
       <c r="AV21" s="3"/>
       <c r="BB21" s="3"/>
       <c r="BU21" s="1" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="BV21" s="14" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="BX21" s="1" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="CA21" s="1" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="CB21" s="14" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="CC21" s="14" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="CD21" s="1" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="22" spans="36:82">
@@ -5135,22 +5153,22 @@
       <c r="AV22" s="3"/>
       <c r="BB22" s="3"/>
       <c r="BU22" s="1" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="BV22" s="14" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="BX22" s="1" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="CA22" s="1" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="CB22" s="14" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="CD22" s="1" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
     </row>
     <row r="23" spans="36:82">
@@ -5159,22 +5177,22 @@
       <c r="AV23" s="3"/>
       <c r="BB23" s="3"/>
       <c r="BU23" s="1" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="BV23" s="14" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="BX23" s="1" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="CA23" s="1" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="CB23" s="14" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="CD23" s="1" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="24" spans="36:82">
@@ -5183,25 +5201,25 @@
       <c r="AV24" s="3"/>
       <c r="BB24" s="3"/>
       <c r="BU24" s="1" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="BV24" s="14" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="BX24" s="1" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="CA24" s="1" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="CB24" s="14" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="CC24" s="14" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="CD24" s="1" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="25" spans="36:82">
@@ -5210,65 +5228,65 @@
       <c r="AV25" s="3"/>
       <c r="BB25" s="3"/>
       <c r="BU25" s="1" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="BV25" s="19" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="BX25" s="1" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="CA25" s="1" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="CB25" s="14" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="CD25" s="1" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="26" spans="73:82">
       <c r="BU26" s="1" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="BV26" s="14" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="BX26" s="1" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="CA26" s="1" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="CB26" s="14" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="CC26" s="14" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="CD26" s="1" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="27" spans="73:83">
       <c r="BU27" s="1" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="BV27" s="14" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="BX27" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="CA27" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="CB27" s="14" t="s">
+        <v>589</v>
+      </c>
+      <c r="CD27" s="1" t="s">
         <v>584</v>
-      </c>
-      <c r="CA27" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="CB27" s="14" t="s">
-        <v>586</v>
-      </c>
-      <c r="CD27" s="1" t="s">
-        <v>581</v>
       </c>
       <c r="CE27" s="1" t="s">
         <v>70</v>
@@ -5276,49 +5294,49 @@
     </row>
     <row r="28" spans="79:82">
       <c r="CA28" s="1" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="CB28" s="14" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="CD28" s="1" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="29" spans="79:82">
       <c r="CA29" s="1" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="CB29" s="12" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="CD29" s="1" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
     </row>
     <row r="30" spans="79:82">
       <c r="CA30" s="1" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="CB30" s="14" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="CD30" s="1" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
     </row>
     <row r="31" spans="79:82">
       <c r="CA31" s="1" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="CB31" s="15" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="CC31" s="14" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="CD31" s="1" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
   </sheetData>
@@ -5563,6 +5581,7 @@
     <hyperlink ref="CC31" r:id="rId226" display="https://img.thosefree.com/static/logo.png"/>
     <hyperlink ref="B12" r:id="rId227" display="https://wormhole.app"/>
     <hyperlink ref="CB10" r:id="rId228" display="https://resourceboy.com"/>
+    <hyperlink ref="AR5" r:id="rId229" display="https://color.adobe.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/2.xlsx
+++ b/2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="603">
   <si>
     <t>✨ 推荐网站</t>
   </si>
@@ -61,6 +61,9 @@
     <t>🗜 综合资源网&lt;span&gt;（包含各种软件教程、模板、素材等各种资源的自学平台)&lt;/span&gt;</t>
   </si>
   <si>
+    <t>zonghe</t>
+  </si>
+  <si>
     <t>常用软件 &lt;span&gt;（包含手机软件和电脑软件）&lt;/span&gt;</t>
   </si>
   <si>
@@ -541,6 +544,243 @@
     <t>千秋书在-专注分享精品电子书，精校kindle电子书,外刊杂志下载,PDF漫画下载</t>
   </si>
   <si>
+    <t>万兴喵影</t>
+  </si>
+  <si>
+    <t>http://miao.wondershare.cn</t>
+  </si>
+  <si>
+    <t>万兴喵影（原名万兴神剪手/喵影工厂），是一款风靡全球的视频剪辑神器，可用于Windows、macOS、Android以及iOS系统。</t>
+  </si>
+  <si>
+    <t>李翔的C4D入门教学</t>
+  </si>
+  <si>
+    <t>http://www.bilibili.com/video/BV177411P7d1?👋这是我推荐的，很棒的教程</t>
+  </si>
+  <si>
+    <t>https://3o.hk/images/2023/04/17/o77.png</t>
+  </si>
+  <si>
+    <t>👍李翔的C4D入门教学（10个案例已完结）</t>
+  </si>
+  <si>
+    <t>设计悬赏</t>
+  </si>
+  <si>
+    <t>https://task.huitu.com</t>
+  </si>
+  <si>
+    <t>设计悬赏,摄影悬赏,悬赏任务需求,汇图网-原创作品交易平台</t>
+  </si>
+  <si>
+    <t>SauceNAO</t>
+  </si>
+  <si>
+    <t>http://saucenao.com</t>
+  </si>
+  <si>
+    <t>SauceNAO（专门搜P站图）</t>
+  </si>
+  <si>
+    <t>PDF工具</t>
+  </si>
+  <si>
+    <t>http://www.bossdesign.cn/pdftools</t>
+  </si>
+  <si>
+    <t>👍免费PDF在线转换工具合辑——boss设计</t>
+  </si>
+  <si>
+    <t>小七素材</t>
+  </si>
+  <si>
+    <t>http://zymf.ys168.com</t>
+  </si>
+  <si>
+    <t>一个永久免费的素材库</t>
+  </si>
+  <si>
+    <t>万方数据</t>
+  </si>
+  <si>
+    <t>http://www.wanfangdata.com.cn</t>
+  </si>
+  <si>
+    <t>（付费）校内IP范围内免费 万方数据、论文、文献</t>
+  </si>
+  <si>
+    <t>https://dh.4everland.app</t>
+  </si>
+  <si>
+    <t>zyhsq</t>
+  </si>
+  <si>
+    <t>Pixso</t>
+  </si>
+  <si>
+    <t>https://pixso.cn/community/home</t>
+  </si>
+  <si>
+    <t>https://3o.hk/images/2023/04/17/12x.png</t>
+  </si>
+  <si>
+    <t>Pixso官方提供海量优质设计素材，设计系统，图标Icon，组件库，插画，线框图，助力设计师和产品经理快速套用设计模板，提升设计效率</t>
+  </si>
+  <si>
+    <t>优设导航</t>
+  </si>
+  <si>
+    <t>http://hao.uisdc.com</t>
+  </si>
+  <si>
+    <t>https://image.uisdc.com/wp-content/uploads/2018/09/nav-dkt-new2018.jpg</t>
+  </si>
+  <si>
+    <t>优设精选设计师网站导航</t>
+  </si>
+  <si>
+    <t>优阁网</t>
+  </si>
+  <si>
+    <t>http://www.uigreat.com</t>
+  </si>
+  <si>
+    <t>UI设计新人必上网站，像素范儿ui，设计学习交流社区</t>
+  </si>
+  <si>
+    <t>Webgradients</t>
+  </si>
+  <si>
+    <t>http://webgradients.com</t>
+  </si>
+  <si>
+    <t>Webgradients-网页配色</t>
+  </si>
+  <si>
+    <t>PSD缩略图（AI, PS, EPS, PDF）</t>
+  </si>
+  <si>
+    <t>http://www.appinn.com/sagethumbs-for-windows/#google_vignette</t>
+  </si>
+  <si>
+    <t>https://3o.hk/images/2023/04/17/21.png</t>
+  </si>
+  <si>
+    <t>SageThumbs – 在右键菜单预览图片，并可预览 AI, PS, EPS, PDF 缩略图[Win版] 开源免费 提供国内下载地址</t>
+  </si>
+  <si>
+    <t>西边云</t>
+  </si>
+  <si>
+    <t>http://xibianyun.com/book/</t>
+  </si>
+  <si>
+    <t>图书 西边云（多维度搜索）</t>
+  </si>
+  <si>
+    <t>【虚幻4】</t>
+  </si>
+  <si>
+    <t>http://www.bilibili.com/video/BV164411Y732?👋禹哥推荐的，兄弟们冲冲冲，学起来,评论区有up主的网站😏</t>
+  </si>
+  <si>
+    <t>https://3o.hk/images/2023/04/17/o56.png</t>
+  </si>
+  <si>
+    <t>👍【虚幻4】UE4初学者系列教程合集-全中文新手入门教程</t>
+  </si>
+  <si>
+    <t>创意星球 - 学院奖</t>
+  </si>
+  <si>
+    <t>http://www.5iidea.com/xyj</t>
+  </si>
+  <si>
+    <t>https://3o.hk/images/2023/04/17/o68.png</t>
+  </si>
+  <si>
+    <t>搜狗识图</t>
+  </si>
+  <si>
+    <t>http://pic.sogou.com/pic/index.jsp</t>
+  </si>
+  <si>
+    <t>搜狗图片 识图</t>
+  </si>
+  <si>
+    <t>在线PDF</t>
+  </si>
+  <si>
+    <t>https://www.pdf2go.com/zh</t>
+  </si>
+  <si>
+    <t>免费PDF在线转换工具</t>
+  </si>
+  <si>
+    <t>克隆窝素材解析</t>
+  </si>
+  <si>
+    <t>https://www.kelongwo.com/Resource_function/yuanjx/C/?aff=1799</t>
+  </si>
+  <si>
+    <t>https://img.quankexia.com/kelongwo/wp-content/uploads/2021/07/2021071214094981.png</t>
+  </si>
+  <si>
+    <t>👍在这里你可以免费享受会员平台的免费资源，可以和大家交流互联网心得，发布你自己的优质资源。克隆窝以学习，技术提升，用户互动为平台核心，大力的发展互联网的需求。</t>
+  </si>
+  <si>
+    <t>维普网</t>
+  </si>
+  <si>
+    <t>http://www.cqvip.com</t>
+  </si>
+  <si>
+    <t>（付费）校内IP范围内免费 提供各类学术论文等文献下载</t>
+  </si>
+  <si>
+    <t>克隆窝</t>
+  </si>
+  <si>
+    <t>https://www.kelongwo.com/?aff=7168</t>
+  </si>
+  <si>
+    <t>yyds 都很推荐的一个网站</t>
+  </si>
+  <si>
+    <t>Streamline</t>
+  </si>
+  <si>
+    <t>https://www.streamlinehq.com</t>
+  </si>
+  <si>
+    <t>https://framerusercontent.com/images/xYWUE6fSnRyPyBimyskHG7Gws.png</t>
+  </si>
+  <si>
+    <t>Streamline获得了Figma 2022年最佳图形资源奖。世界上最大的图标、插图、表情符号和元素集。</t>
+  </si>
+  <si>
+    <t>设计导航</t>
+  </si>
+  <si>
+    <t>http://hao.shejidaren.com</t>
+  </si>
+  <si>
+    <t>https://3o.hk/images/2023/04/17/18.png</t>
+  </si>
+  <si>
+    <t>设计导航 - 精选最好的设计网站大全</t>
+  </si>
+  <si>
+    <t>UI100Day</t>
+  </si>
+  <si>
+    <t>http://www.ui100day.com</t>
+  </si>
+  <si>
+    <t>UI设计师100天练习计划，新增百字斩！</t>
+  </si>
+  <si>
     <t>Adobe调色盘</t>
   </si>
   <si>
@@ -548,243 +788,6 @@
   </si>
   <si>
     <t>新增辅助工具</t>
-  </si>
-  <si>
-    <t>万兴喵影</t>
-  </si>
-  <si>
-    <t>http://miao.wondershare.cn</t>
-  </si>
-  <si>
-    <t>万兴喵影（原名万兴神剪手/喵影工厂），是一款风靡全球的视频剪辑神器，可用于Windows、macOS、Android以及iOS系统。</t>
-  </si>
-  <si>
-    <t>李翔的C4D入门教学</t>
-  </si>
-  <si>
-    <t>http://www.bilibili.com/video/BV177411P7d1?👋这是我推荐的，很棒的教程</t>
-  </si>
-  <si>
-    <t>https://3o.hk/images/2023/04/17/o77.png</t>
-  </si>
-  <si>
-    <t>👍李翔的C4D入门教学（10个案例已完结）</t>
-  </si>
-  <si>
-    <t>设计悬赏</t>
-  </si>
-  <si>
-    <t>https://task.huitu.com</t>
-  </si>
-  <si>
-    <t>设计悬赏,摄影悬赏,悬赏任务需求,汇图网-原创作品交易平台</t>
-  </si>
-  <si>
-    <t>SauceNAO</t>
-  </si>
-  <si>
-    <t>http://saucenao.com</t>
-  </si>
-  <si>
-    <t>SauceNAO（专门搜P站图）</t>
-  </si>
-  <si>
-    <t>PDF工具</t>
-  </si>
-  <si>
-    <t>http://www.bossdesign.cn/pdftools</t>
-  </si>
-  <si>
-    <t>👍免费PDF在线转换工具合辑——boss设计</t>
-  </si>
-  <si>
-    <t>小七素材</t>
-  </si>
-  <si>
-    <t>http://zymf.ys168.com</t>
-  </si>
-  <si>
-    <t>一个永久免费的素材库</t>
-  </si>
-  <si>
-    <t>万方数据</t>
-  </si>
-  <si>
-    <t>http://www.wanfangdata.com.cn</t>
-  </si>
-  <si>
-    <t>（付费）校内IP范围内免费 万方数据、论文、文献</t>
-  </si>
-  <si>
-    <t>https://dh.4everland.app</t>
-  </si>
-  <si>
-    <t>zyhsq</t>
-  </si>
-  <si>
-    <t>Pixso</t>
-  </si>
-  <si>
-    <t>https://pixso.cn/community/home</t>
-  </si>
-  <si>
-    <t>https://3o.hk/images/2023/04/17/12x.png</t>
-  </si>
-  <si>
-    <t>Pixso官方提供海量优质设计素材，设计系统，图标Icon，组件库，插画，线框图，助力设计师和产品经理快速套用设计模板，提升设计效率</t>
-  </si>
-  <si>
-    <t>优设导航</t>
-  </si>
-  <si>
-    <t>http://hao.uisdc.com</t>
-  </si>
-  <si>
-    <t>https://image.uisdc.com/wp-content/uploads/2018/09/nav-dkt-new2018.jpg</t>
-  </si>
-  <si>
-    <t>优设精选设计师网站导航</t>
-  </si>
-  <si>
-    <t>优阁网</t>
-  </si>
-  <si>
-    <t>http://www.uigreat.com</t>
-  </si>
-  <si>
-    <t>UI设计新人必上网站，像素范儿ui，设计学习交流社区</t>
-  </si>
-  <si>
-    <t>Webgradients</t>
-  </si>
-  <si>
-    <t>http://webgradients.com</t>
-  </si>
-  <si>
-    <t>Webgradients-网页配色</t>
-  </si>
-  <si>
-    <t>PSD缩略图（AI, PS, EPS, PDF）</t>
-  </si>
-  <si>
-    <t>http://www.appinn.com/sagethumbs-for-windows/#google_vignette</t>
-  </si>
-  <si>
-    <t>https://3o.hk/images/2023/04/17/21.png</t>
-  </si>
-  <si>
-    <t>SageThumbs – 在右键菜单预览图片，并可预览 AI, PS, EPS, PDF 缩略图[Win版] 开源免费 提供国内下载地址</t>
-  </si>
-  <si>
-    <t>西边云</t>
-  </si>
-  <si>
-    <t>http://xibianyun.com/book/</t>
-  </si>
-  <si>
-    <t>图书 西边云（多维度搜索）</t>
-  </si>
-  <si>
-    <t>【虚幻4】</t>
-  </si>
-  <si>
-    <t>http://www.bilibili.com/video/BV164411Y732?👋禹哥推荐的，兄弟们冲冲冲，学起来,评论区有up主的网站😏</t>
-  </si>
-  <si>
-    <t>https://3o.hk/images/2023/04/17/o56.png</t>
-  </si>
-  <si>
-    <t>👍【虚幻4】UE4初学者系列教程合集-全中文新手入门教程</t>
-  </si>
-  <si>
-    <t>创意星球 - 学院奖</t>
-  </si>
-  <si>
-    <t>http://www.5iidea.com/xyj</t>
-  </si>
-  <si>
-    <t>https://3o.hk/images/2023/04/17/o68.png</t>
-  </si>
-  <si>
-    <t>搜狗识图</t>
-  </si>
-  <si>
-    <t>http://pic.sogou.com/pic/index.jsp</t>
-  </si>
-  <si>
-    <t>搜狗图片 识图</t>
-  </si>
-  <si>
-    <t>在线PDF</t>
-  </si>
-  <si>
-    <t>https://www.pdf2go.com/zh</t>
-  </si>
-  <si>
-    <t>免费PDF在线转换工具</t>
-  </si>
-  <si>
-    <t>克隆窝素材解析</t>
-  </si>
-  <si>
-    <t>https://www.kelongwo.com/Resource_function/yuanjx/C/?aff=1799</t>
-  </si>
-  <si>
-    <t>https://img.quankexia.com/kelongwo/wp-content/uploads/2021/07/2021071214094981.png</t>
-  </si>
-  <si>
-    <t>👍在这里你可以免费享受会员平台的免费资源，可以和大家交流互联网心得，发布你自己的优质资源。克隆窝以学习，技术提升，用户互动为平台核心，大力的发展互联网的需求。</t>
-  </si>
-  <si>
-    <t>维普网</t>
-  </si>
-  <si>
-    <t>http://www.cqvip.com</t>
-  </si>
-  <si>
-    <t>（付费）校内IP范围内免费 提供各类学术论文等文献下载</t>
-  </si>
-  <si>
-    <t>克隆窝</t>
-  </si>
-  <si>
-    <t>https://www.kelongwo.com/?aff=7168</t>
-  </si>
-  <si>
-    <t>yyds 都很推荐的一个网站</t>
-  </si>
-  <si>
-    <t>Streamline</t>
-  </si>
-  <si>
-    <t>https://www.streamlinehq.com</t>
-  </si>
-  <si>
-    <t>https://framerusercontent.com/images/xYWUE6fSnRyPyBimyskHG7Gws.png</t>
-  </si>
-  <si>
-    <t>Streamline获得了Figma 2022年最佳图形资源奖。世界上最大的图标、插图、表情符号和元素集。</t>
-  </si>
-  <si>
-    <t>设计导航</t>
-  </si>
-  <si>
-    <t>http://hao.shejidaren.com</t>
-  </si>
-  <si>
-    <t>https://3o.hk/images/2023/04/17/18.png</t>
-  </si>
-  <si>
-    <t>设计导航 - 精选最好的设计网站大全</t>
-  </si>
-  <si>
-    <t>UI100Day</t>
-  </si>
-  <si>
-    <t>http://www.ui100day.com</t>
-  </si>
-  <si>
-    <t>UI设计师100天练习计划，新增百字斩！</t>
   </si>
   <si>
     <t>extfans</t>
@@ -1831,10 +1834,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1893,53 +1896,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1947,14 +1911,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1976,6 +1932,75 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -1990,31 +2015,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2035,13 +2038,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2053,13 +2050,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2071,13 +2062,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2089,55 +2080,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2155,6 +2116,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2167,7 +2140,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2179,37 +2212,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2226,6 +2229,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2253,35 +2265,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2301,17 +2295,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2326,6 +2314,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2334,10 +2337,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2346,133 +2349,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2870,8 +2873,8 @@
   <sheetPr/>
   <dimension ref="A1:CQ31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" topLeftCell="AK1" workbookViewId="0">
-      <selection activeCell="AT6" sqref="AT6"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" topLeftCell="AQ1" workbookViewId="0">
+      <selection activeCell="AU8" sqref="AU8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2976,89 +2979,89 @@
         <v>14</v>
       </c>
       <c r="AR1" s="6" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AS1" s="6"/>
       <c r="AT1" s="6"/>
       <c r="AU1" s="6"/>
       <c r="AV1" s="3"/>
       <c r="AW1" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AX1" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AY1" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ1" s="6"/>
       <c r="BA1" s="6"/>
       <c r="BB1" s="3"/>
       <c r="BC1" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD1" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BE1" s="6"/>
       <c r="BF1" s="6"/>
       <c r="BG1" s="6"/>
       <c r="BH1" s="4"/>
       <c r="BI1" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BJ1" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BK1" s="6"/>
       <c r="BL1" s="6"/>
       <c r="BM1" s="6"/>
       <c r="BN1" s="4"/>
       <c r="BO1" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BP1" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BQ1" s="6"/>
       <c r="BR1" s="6"/>
       <c r="BS1" s="6"/>
       <c r="BT1" s="3"/>
       <c r="BU1" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BV1" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BW1" s="6"/>
       <c r="BX1" s="6"/>
       <c r="BY1" s="6"/>
       <c r="BZ1" s="3"/>
       <c r="CA1" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="CB1" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="CC1" s="6"/>
       <c r="CD1" s="6"/>
       <c r="CE1" s="6"/>
       <c r="CF1" s="3"/>
       <c r="CG1" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="CH1" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="CI1" s="6"/>
       <c r="CJ1" s="6"/>
       <c r="CK1" s="6"/>
       <c r="CL1" s="3"/>
       <c r="CM1" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="CN1" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="CO1" s="6"/>
       <c r="CP1" s="6"/>
@@ -3066,1951 +3069,1951 @@
     </row>
     <row r="2" s="2" customFormat="1" spans="1:95">
       <c r="A2" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L2" s="3"/>
       <c r="M2" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R2" s="20"/>
       <c r="S2" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T2" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U2" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V2" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="W2" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X2" s="20"/>
       <c r="Y2" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Z2" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AA2" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AB2" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AC2" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AD2" s="20"/>
       <c r="AE2" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AF2" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AG2" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AH2" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AI2" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AJ2" s="20"/>
       <c r="AK2" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AL2" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AM2" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AN2" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AO2" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AP2" s="20"/>
       <c r="AQ2" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AR2" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AS2" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AT2" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AU2" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AV2" s="20"/>
       <c r="AW2" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AX2" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AY2" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AZ2" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="BA2" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="BB2" s="20"/>
       <c r="BC2" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="BD2" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="BE2" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="BF2" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="BG2" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="BH2" s="22"/>
       <c r="BI2" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="BJ2" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="BK2" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="BL2" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="BM2" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="BN2" s="22"/>
       <c r="BO2" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="BP2" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="BQ2" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="BR2" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="BS2" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="BT2" s="20"/>
       <c r="BU2" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="BV2" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="BW2" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="BX2" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="BY2" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="BZ2" s="20"/>
       <c r="CA2" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="CB2" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="CC2" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="CD2" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="CE2" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="CF2" s="20"/>
       <c r="CG2" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="CH2" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="CI2" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="CJ2" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="CK2" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="CL2" s="20"/>
       <c r="CM2" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="CN2" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="CO2" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="CP2" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="CQ2" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:95">
       <c r="A3" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K3" s="10"/>
       <c r="M3" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P3" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q3" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T3" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Y3" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Z3" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AA3" s="9"/>
       <c r="AB3" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AC3" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AE3" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AF3" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AG3" s="9"/>
       <c r="AH3" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AI3" s="10"/>
       <c r="AJ3" s="3"/>
       <c r="AK3" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AL3" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AM3" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AN3" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AO3" s="10"/>
       <c r="AP3" s="3"/>
       <c r="AQ3" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AR3" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AS3" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AT3" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AU3" s="10"/>
       <c r="AV3" s="3"/>
       <c r="AW3" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AX3" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AY3" s="9"/>
       <c r="AZ3" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="BA3" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="BB3" s="3"/>
       <c r="BC3" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="BD3" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BE3" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="BF3" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BG3" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BI3" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="BJ3" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="BK3" s="14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="BL3" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="BN3" s="4"/>
       <c r="BO3" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="BP3" s="14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="BQ3" s="14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BR3" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="BU3" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="BV3" s="14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="BX3" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="CA3" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="CB3" s="14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="CC3" s="14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="CD3" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="CG3" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="CH3" s="14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="CJ3" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="CM3" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="CN3" s="14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="CP3" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="CQ3" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:94">
       <c r="A4" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K4" s="10"/>
       <c r="M4" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O4" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P4" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q4" s="11"/>
       <c r="S4" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="T4" s="14" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Y4" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Z4" s="9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AA4" s="11"/>
       <c r="AB4" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AC4" s="11"/>
       <c r="AE4" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AF4" s="11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AG4" s="11"/>
       <c r="AH4" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AI4" s="11"/>
       <c r="AJ4" s="3"/>
       <c r="AK4" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AL4" s="11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AM4" s="11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AN4" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AO4" s="11"/>
       <c r="AP4" s="3"/>
       <c r="AQ4" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AR4" s="11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AS4" s="11"/>
       <c r="AT4" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AU4" s="11"/>
       <c r="AV4" s="3"/>
       <c r="AW4" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AX4" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AY4" s="11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AZ4" s="8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="BA4" s="11"/>
       <c r="BB4" s="3"/>
       <c r="BC4" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="BD4" s="11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="BE4" s="11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="BF4" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="BG4" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="BI4" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="BJ4" s="14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BK4" s="14" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BL4" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BO4" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="BP4" s="14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BR4" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="BU4" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BV4" s="14" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="BX4" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="BY4" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="CA4" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="CB4" s="14" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="CD4" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="CG4" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="CH4" s="14" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="CJ4" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="CM4" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="CN4" s="14" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="CP4" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:94">
       <c r="A5" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I5" s="14"/>
       <c r="J5" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K5" s="10"/>
       <c r="M5" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="P5" s="8" t="s">
         <v>37</v>
-      </c>
-      <c r="O5" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="P5" s="8" t="s">
-        <v>36</v>
       </c>
       <c r="Q5" s="10"/>
       <c r="S5" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="T5" s="14" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Z5" s="14" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AE5" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AF5" s="14" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AH5" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AJ5" s="3"/>
       <c r="AK5" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AL5" s="14" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AN5" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AP5" s="3"/>
-      <c r="AQ5" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="AR5" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="AT5" s="1" t="s">
-        <v>177</v>
-      </c>
       <c r="AV5" s="3"/>
       <c r="AW5" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="AX5" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="AZ5" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="AX5" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="AZ5" s="1" t="s">
-        <v>180</v>
       </c>
       <c r="BB5" s="3"/>
       <c r="BC5" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="BD5" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="BE5" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="BD5" s="14" t="s">
+      <c r="BF5" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="BE5" s="14" t="s">
+      <c r="BG5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BI5" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="BF5" s="1" t="s">
+      <c r="BJ5" s="14" t="s">
         <v>184</v>
-      </c>
-      <c r="BG5" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BI5" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="BJ5" s="14" t="s">
-        <v>186</v>
       </c>
       <c r="BK5" s="14"/>
       <c r="BL5" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="BO5" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="BP5" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="BO5" s="1" t="s">
+      <c r="BR5" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="BP5" s="14" t="s">
+      <c r="BU5" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="BR5" s="1" t="s">
+      <c r="BV5" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="BU5" s="1" t="s">
+      <c r="BX5" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="BV5" s="14" t="s">
+      <c r="CA5" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="BX5" s="1" t="s">
+      <c r="CB5" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="CA5" s="1" t="s">
+      <c r="CC5" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="CD5" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="CB5" s="14" t="s">
+      <c r="CG5" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="CC5" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="CD5" s="1" t="s">
+      <c r="CH5" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="CG5" s="1" t="s">
+      <c r="CJ5" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="CH5" s="14" t="s">
+      <c r="CM5" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="CN5" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="CJ5" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="CM5" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="CN5" s="14" t="s">
-        <v>200</v>
-      </c>
       <c r="CP5" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:88">
       <c r="A6" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E6" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="H6" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="I6" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="J6" s="8" t="s">
         <v>203</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>205</v>
       </c>
       <c r="K6" s="10"/>
       <c r="M6" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="O6" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="N6" s="11" t="s">
+      <c r="P6" s="8" t="s">
         <v>207</v>
-      </c>
-      <c r="O6" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="P6" s="8" t="s">
-        <v>209</v>
       </c>
       <c r="Q6" s="10"/>
       <c r="S6" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="T6" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="U6" s="9"/>
       <c r="V6" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="W6" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="Z6" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="W6" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y6" s="1" t="s">
+      <c r="AB6" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="Z6" s="14" t="s">
+      <c r="AE6" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="AB6" s="1" t="s">
+      <c r="AF6" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="AE6" s="1" t="s">
+      <c r="AG6" s="14" t="s">
         <v>216</v>
       </c>
-      <c r="AF6" s="14" t="s">
+      <c r="AH6" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="AG6" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="AH6" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="AJ6" s="3"/>
       <c r="AK6" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AL6" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="AN6" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="AL6" s="14" t="s">
-        <v>221</v>
-      </c>
-      <c r="AN6" s="1" t="s">
-        <v>222</v>
       </c>
       <c r="AP6" s="3"/>
       <c r="AV6" s="3"/>
       <c r="AW6" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AX6" s="14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AY6" s="14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AZ6" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="BB6" s="3"/>
       <c r="BC6" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="BD6" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="BE6" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="BD6" s="14" t="s">
+      <c r="BF6" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="BE6" s="14" t="s">
+      <c r="BI6" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="BF6" s="1" t="s">
+      <c r="BJ6" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="BI6" s="1" t="s">
+      <c r="BK6" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="BJ6" s="14" t="s">
+      <c r="BL6" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="BO6" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="BK6" s="14" t="s">
+      <c r="BP6" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="BL6" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="BO6" s="1" t="s">
+      <c r="BR6" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="BP6" s="15" t="s">
+      <c r="BU6" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="BR6" s="1" t="s">
+      <c r="BV6" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="BU6" s="1" t="s">
+      <c r="BX6" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="BV6" s="14" t="s">
+      <c r="CA6" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="BX6" s="1" t="s">
+      <c r="CB6" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="CA6" s="1" t="s">
+      <c r="CC6" s="14" t="s">
         <v>236</v>
       </c>
-      <c r="CB6" s="14" t="s">
+      <c r="CD6" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="CC6" s="14" t="s">
+      <c r="CG6" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="CD6" s="1" t="s">
+      <c r="CH6" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="CG6" s="1" t="s">
+      <c r="CJ6" s="1" t="s">
         <v>240</v>
-      </c>
-      <c r="CH6" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="CJ6" s="1" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="7" spans="1:88">
       <c r="A7" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="E7" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="H7" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="1" t="s">
+      <c r="I7" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="J7" s="6" t="s">
         <v>247</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>249</v>
       </c>
       <c r="K7" s="10"/>
       <c r="M7" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="N7" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="O7" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="N7" s="14" t="s">
+      <c r="P7" s="6" t="s">
         <v>251</v>
-      </c>
-      <c r="O7" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="P7" s="6" t="s">
-        <v>253</v>
       </c>
       <c r="Q7" s="10"/>
       <c r="S7" s="8" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="T7" s="9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="U7" s="11"/>
       <c r="V7" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="W7" s="11"/>
+      <c r="Y7" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="Z7" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="W7" s="11"/>
+      <c r="AB7" s="1" t="s">
+        <v>257</v>
+      </c>
       <c r="AE7" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AF7" s="14" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AH7" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AJ7" s="3"/>
       <c r="AK7" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AL7" s="14" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AN7" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AP7" s="3"/>
       <c r="AV7" s="3"/>
       <c r="AW7" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AX7" s="14" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AY7" s="14" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AZ7" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="BB7" s="3"/>
       <c r="BC7" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="BD7" s="14" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="BE7" s="14" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="BF7" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="BG7" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="BI7" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="BJ7" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="BK7" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="BL7" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="BK7" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="BL7" s="1" t="s">
-        <v>272</v>
-      </c>
       <c r="BO7" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="BP7" s="14" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="BR7" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="BU7" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="BV7" s="14" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="BX7" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="CA7" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="CB7" s="15" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="CD7" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="CG7" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="CH7" s="14" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="CJ7" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8" spans="1:89">
       <c r="A8" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N8" s="11" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="O8" s="11" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="P8" s="6" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q8" s="10"/>
       <c r="S8" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T8" s="15" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AE8" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AF8" s="14" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AH8" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AJ8" s="3"/>
       <c r="AP8" s="3"/>
       <c r="AV8" s="3"/>
       <c r="AW8" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AX8" s="14" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AY8" s="14" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AZ8" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="BB8" s="3"/>
       <c r="BC8" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="BD8" s="14" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="BE8" s="14" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="BF8" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="BU8" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="BV8" s="15" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="BW8" s="14" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BX8" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="CA8" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="CB8" s="14" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="CD8" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="CG8" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="CH8" s="14" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="CI8" s="14" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="CJ8" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="CK8" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="9" ht="18.75" spans="1:88">
       <c r="A9" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>322</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>323</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>325</v>
-      </c>
       <c r="G9" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N9" s="14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O9" s="14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Q9" s="10"/>
       <c r="S9" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="T9" s="15" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="U9" s="15" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AE9" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AF9" s="14" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AH9" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AJ9" s="3"/>
       <c r="AP9" s="3"/>
       <c r="AV9" s="3"/>
       <c r="AW9" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AX9" s="14" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AY9" s="14" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AZ9" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="BB9" s="3"/>
       <c r="BC9" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="BD9" s="14" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="BE9" s="14" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="BF9" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="BU9" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="BV9" s="14" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="BX9" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="CA9" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="CB9" s="14" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="CD9" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="CG9" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="CH9" s="14" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="CJ9" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="10" spans="1:88">
       <c r="A10" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N10" s="14" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="T10" s="14" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="U10" s="14" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AE10" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AF10" s="14" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AH10" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AJ10" s="3"/>
       <c r="AP10" s="3"/>
       <c r="AV10" s="3"/>
       <c r="AW10" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AX10" s="14" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AZ10" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="BB10" s="3"/>
       <c r="BC10" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="BD10" s="14" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="BE10" s="14" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="BF10" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="BG10" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="BU10" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="BV10" s="14" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="BX10" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="CA10" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="CB10" s="14" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="CD10" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="CG10" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="CH10" s="14" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="CJ10" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="11" spans="1:88">
       <c r="A11" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N11" s="14" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="T11" s="14" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AE11" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AF11" s="14" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AH11" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AI11" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ11" s="3"/>
       <c r="AP11" s="3"/>
       <c r="AV11" s="3"/>
       <c r="AW11" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AX11" s="14" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AZ11" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="BB11" s="3"/>
       <c r="BC11" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="BD11" s="14" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="BE11" s="14" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="BF11" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="BU11" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="BV11" s="14" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="BX11" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="CA11" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="CB11" s="14" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="CC11" s="14" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="CD11" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="CG11" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="CH11" s="15" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="CJ11" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="12" spans="1:82">
       <c r="A12" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N12" s="14" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="T12" s="14" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="U12" s="15" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AE12" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AF12" s="14" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AH12" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AJ12" s="3"/>
       <c r="AP12" s="3"/>
       <c r="AV12" s="3"/>
       <c r="AW12" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AX12" s="14" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AZ12" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="BB12" s="3"/>
       <c r="BC12" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="BD12" s="14" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="BE12" s="14" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="BF12" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="BU12" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="BV12" s="14" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="BX12" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="CA12" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="CB12" s="14" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="CC12" s="15" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="CD12" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="13" spans="7:82">
       <c r="G13" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="N13" s="14" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="T13" s="14" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AE13" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AF13" s="14" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AH13" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AJ13" s="3"/>
       <c r="AP13" s="3"/>
       <c r="AV13" s="3"/>
       <c r="AW13" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AX13" s="19" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AZ13" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="BB13" s="3"/>
       <c r="BC13" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="BD13" s="14" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="BE13" s="14" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="BF13" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="BU13" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="BV13" s="14" t="s">
+        <v>468</v>
+      </c>
+      <c r="BX13" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="BX13" s="1" t="s">
-        <v>466</v>
-      </c>
       <c r="CA13" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="CB13" s="14" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="CD13" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="14" spans="13:82">
       <c r="M14" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="N14" s="14" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="T14" s="14" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AJ14" s="3"/>
       <c r="AP14" s="3"/>
       <c r="AV14" s="3"/>
       <c r="AW14" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AX14" s="14" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AY14" s="14" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AZ14" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="BB14" s="3"/>
       <c r="BC14" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="BD14" s="14" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="BE14" s="14" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="BF14" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="BU14" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="BV14" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="BW14" s="14" t="s">
+        <v>488</v>
+      </c>
+      <c r="BX14" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="BW14" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="BX14" s="1" t="s">
-        <v>485</v>
-      </c>
       <c r="CA14" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="CB14" s="14" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="CC14" s="14" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="CD14" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="15" spans="19:82">
       <c r="S15" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="T15" s="15" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AJ15" s="3"/>
       <c r="AP15" s="3"/>
       <c r="AV15" s="3"/>
       <c r="AW15" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AX15" s="14" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AZ15" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="BB15" s="3"/>
       <c r="BU15" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="BV15" s="14" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="BX15" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="CA15" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="CB15" s="14" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="CD15" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="16" spans="19:82">
       <c r="S16" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="T16" s="14" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AJ16" s="3"/>
       <c r="AP16" s="3"/>
       <c r="AV16" s="3"/>
       <c r="BB16" s="3"/>
       <c r="BU16" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="BV16" s="14" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="BW16" s="14" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="BX16" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="CA16" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="CB16" s="14" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="CD16" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="17" spans="19:82">
       <c r="S17" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="T17" s="14" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="U17" s="14" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AJ17" s="3"/>
       <c r="AP17" s="3"/>
@@ -5018,55 +5021,55 @@
       <c r="AX17" s="21"/>
       <c r="BB17" s="3"/>
       <c r="BU17" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="BV17" s="14" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="BX17" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="CA17" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="CB17" s="14" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="CD17" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="18" spans="19:82">
       <c r="S18" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="T18" s="14" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AJ18" s="3"/>
       <c r="AP18" s="3"/>
       <c r="AV18" s="3"/>
       <c r="BB18" s="3"/>
       <c r="BU18" s="1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="BV18" s="14" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="BX18" s="1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="CA18" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="CB18" s="15" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="CD18" s="1" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="19" spans="36:82">
@@ -5075,25 +5078,25 @@
       <c r="AV19" s="3"/>
       <c r="BB19" s="3"/>
       <c r="BU19" s="23" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="BV19" s="14" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="BX19" s="1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="CA19" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="CB19" s="14" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="CC19" s="14" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="CD19" s="1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="20" spans="36:82">
@@ -5102,22 +5105,22 @@
       <c r="AV20" s="3"/>
       <c r="BB20" s="3"/>
       <c r="BU20" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="BV20" s="14" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="BX20" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="CA20" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="CB20" s="14" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="CD20" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="21" spans="36:82">
@@ -5126,25 +5129,25 @@
       <c r="AV21" s="3"/>
       <c r="BB21" s="3"/>
       <c r="BU21" s="1" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="BV21" s="14" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="BX21" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="CA21" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="CB21" s="14" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="CC21" s="14" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="CD21" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="22" spans="36:82">
@@ -5153,22 +5156,22 @@
       <c r="AV22" s="3"/>
       <c r="BB22" s="3"/>
       <c r="BU22" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="BV22" s="14" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="BX22" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="CA22" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="CB22" s="14" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="CD22" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="23" spans="36:82">
@@ -5177,22 +5180,22 @@
       <c r="AV23" s="3"/>
       <c r="BB23" s="3"/>
       <c r="BU23" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="BV23" s="14" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="BX23" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="CA23" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="CB23" s="14" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="CD23" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="24" spans="36:82">
@@ -5201,25 +5204,25 @@
       <c r="AV24" s="3"/>
       <c r="BB24" s="3"/>
       <c r="BU24" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="BV24" s="14" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="BX24" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="CA24" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="CB24" s="14" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="CC24" s="14" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="CD24" s="1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="25" spans="36:82">
@@ -5228,115 +5231,115 @@
       <c r="AV25" s="3"/>
       <c r="BB25" s="3"/>
       <c r="BU25" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="BV25" s="19" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="BX25" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="CA25" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="CB25" s="14" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="CD25" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="26" spans="73:82">
       <c r="BU26" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="BV26" s="14" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="BX26" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="CA26" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="CB26" s="14" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="CC26" s="14" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="CD26" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="27" spans="73:83">
       <c r="BU27" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="BV27" s="14" t="s">
+        <v>587</v>
+      </c>
+      <c r="BX27" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="CA27" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="CB27" s="14" t="s">
+        <v>590</v>
+      </c>
+      <c r="CD27" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="BV27" s="14" t="s">
-        <v>586</v>
-      </c>
-      <c r="BX27" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="CA27" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="CB27" s="14" t="s">
-        <v>589</v>
-      </c>
-      <c r="CD27" s="1" t="s">
-        <v>584</v>
-      </c>
       <c r="CE27" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="79:82">
       <c r="CA28" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="CB28" s="14" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="CD28" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="29" spans="79:82">
       <c r="CA29" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="CB29" s="12" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="CD29" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="30" spans="79:82">
       <c r="CA30" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="CB30" s="14" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="CD30" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="31" spans="79:82">
       <c r="CA31" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="CB31" s="15" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="CC31" s="14" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="CD31" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
   </sheetData>
@@ -5581,7 +5584,7 @@
     <hyperlink ref="CC31" r:id="rId226" display="https://img.thosefree.com/static/logo.png"/>
     <hyperlink ref="B12" r:id="rId227" display="https://wormhole.app"/>
     <hyperlink ref="CB10" r:id="rId228" display="https://resourceboy.com"/>
-    <hyperlink ref="AR5" r:id="rId229" display="https://color.adobe.com"/>
+    <hyperlink ref="Z7" r:id="rId229" display="https://color.adobe.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/2.xlsx
+++ b/2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="612">
   <si>
     <t>✨ 推荐网站</t>
   </si>
@@ -1252,6 +1252,171 @@
     <t>亲测可以制作动态qq头像</t>
   </si>
   <si>
+    <t>ANTHONY BOYD GRAPHICS</t>
+  </si>
+  <si>
+    <t>https://www.anthonyboyd.graphics</t>
+  </si>
+  <si>
+    <t>高质量样机，常更新，以及贴图</t>
+  </si>
+  <si>
+    <t>免费论文查重-4</t>
+  </si>
+  <si>
+    <t>http://www.paperfree.cn/freeActivity/index.html</t>
+  </si>
+  <si>
+    <t>文件传输网页(免注册)</t>
+  </si>
+  <si>
+    <t>https://wormhole.app</t>
+  </si>
+  <si>
+    <t>单文件传输最大10G，不限速(免注册)</t>
+  </si>
+  <si>
+    <t>配色集</t>
+  </si>
+  <si>
+    <t>https://space.bilibili.com/485723138</t>
+  </si>
+  <si>
+    <t>https://3o.hk/images/2023/04/17/o92x.png</t>
+  </si>
+  <si>
+    <t>老师推荐的B站分享配色的up主</t>
+  </si>
+  <si>
+    <t>创造狮 创意工作者导航</t>
+  </si>
+  <si>
+    <t>http://www.chuangzaoshi.com</t>
+  </si>
+  <si>
+    <t>创造狮，一个创意工作者的导航，专注分享正版优质设计、前端、产品、运营的书签导航</t>
+  </si>
+  <si>
+    <t>动效设计学习网-Motion Great</t>
+  </si>
+  <si>
+    <t>http://www.motiongreat.com</t>
+  </si>
+  <si>
+    <t>https://3o.hk/images/2023/04/18/image.png</t>
+  </si>
+  <si>
+    <t>动效设计,动效教程,UI动效,MG教程,MG动画,3D动效教程,AE教程</t>
+  </si>
+  <si>
+    <t>Infinity新标签页</t>
+  </si>
+  <si>
+    <t>http://cn.infinitynewtab.com</t>
+  </si>
+  <si>
+    <t>👍浏览器的新标签页 快速高效的管理你的常用网站</t>
+  </si>
+  <si>
+    <t>adobe全家桶（不限速下载）</t>
+  </si>
+  <si>
+    <t>https://flowus.cn/share/ab4b6b86-34a6-4aa0-a679-b4a221b8e41d</t>
+  </si>
+  <si>
+    <t>转载阿虚大佬的</t>
+  </si>
+  <si>
+    <t>AE光效制作（全81讲）</t>
+  </si>
+  <si>
+    <t>http://www.bilibili.com/video/BV1J4411C7am?p=5/</t>
+  </si>
+  <si>
+    <t>https://3o.hk/images/2023/04/17/26.png</t>
+  </si>
+  <si>
+    <t>我要自学网【AE软件】AE光效制作（全81讲）</t>
+  </si>
+  <si>
+    <t>Zamzar 在线格式转换</t>
+  </si>
+  <si>
+    <t>http://www.zamzar.com</t>
+  </si>
+  <si>
+    <t>打开是英文的，英语不是很好也能差不多能看懂</t>
+  </si>
+  <si>
+    <t>MockDrop在线样机</t>
+  </si>
+  <si>
+    <t>https://mockdrop.io</t>
+  </si>
+  <si>
+    <t>MockDrop | 在线生成免费样机模型界面</t>
+  </si>
+  <si>
+    <t>Xmind</t>
+  </si>
+  <si>
+    <t>https://www.kelongwo.com/pc-xmind/</t>
+  </si>
+  <si>
+    <t>https://api.iowen.cn/favicon/xmind.cn/.png</t>
+  </si>
+  <si>
+    <t>XMind是一种著名的思维导图软件，可以帮助用户快速构建并整理思路，</t>
+  </si>
+  <si>
+    <t>设计师网站导航</t>
+  </si>
+  <si>
+    <t>http://hao.shijuechuanda.com</t>
+  </si>
+  <si>
+    <t>设计网址导航 | 视觉传达</t>
+  </si>
+  <si>
+    <t>http://dribbble.com</t>
+  </si>
+  <si>
+    <t>设计作品的交流平台,UI设计师推荐必去网站</t>
+  </si>
+  <si>
+    <t>干的库Pr插件</t>
+  </si>
+  <si>
+    <t>https://gan.cool</t>
+  </si>
+  <si>
+    <t>国人自主研发的第一款Adobe Premiere Pro全功能插件</t>
+  </si>
+  <si>
+    <t>亿破姐</t>
+  </si>
+  <si>
+    <t>http://www.ypojie.com</t>
+  </si>
+  <si>
+    <t>精选互联网优秀软件分享、电脑技术、经验教程、SEO网站优化教程</t>
+  </si>
+  <si>
+    <t>PS2019教程（全80讲）</t>
+  </si>
+  <si>
+    <t>http://www.bilibili.com/video/BV12x411f7Gp?p=9</t>
+  </si>
+  <si>
+    <t>PS2019教程(PhotoShop从入门到入土 零基础入门80集)</t>
+  </si>
+  <si>
+    <t>文档格式在线转换</t>
+  </si>
+  <si>
+    <t>http://smallpdf.com</t>
+  </si>
+  <si>
     <t>云米素材（部分免费）</t>
   </si>
   <si>
@@ -1264,91 +1429,64 @@
     <t>云米创意,素材,原创设计,创意平台,psd素材,贴图素材,高清素材</t>
   </si>
   <si>
-    <t>免费论文查重-4</t>
-  </si>
-  <si>
-    <t>http://www.paperfree.cn/freeActivity/index.html</t>
-  </si>
-  <si>
-    <t>文件传输网页(免注册)</t>
-  </si>
-  <si>
-    <t>https://wormhole.app</t>
-  </si>
-  <si>
-    <t>单文件传输最大10G，不限速(免注册)</t>
-  </si>
-  <si>
-    <t>配色集</t>
-  </si>
-  <si>
-    <t>https://space.bilibili.com/485723138</t>
-  </si>
-  <si>
-    <t>https://3o.hk/images/2023/04/17/o92x.png</t>
-  </si>
-  <si>
-    <t>老师推荐的B站分享配色的up主</t>
-  </si>
-  <si>
-    <t>创造狮 创意工作者导航</t>
-  </si>
-  <si>
-    <t>http://www.chuangzaoshi.com</t>
-  </si>
-  <si>
-    <t>创造狮，一个创意工作者的导航，专注分享正版优质设计、前端、产品、运营的书签导航</t>
-  </si>
-  <si>
-    <t>动效设计学习网-Motion Great</t>
-  </si>
-  <si>
-    <t>http://www.motiongreat.com</t>
-  </si>
-  <si>
-    <t>https://3o.hk/images/2023/04/18/image.png</t>
-  </si>
-  <si>
-    <t>动效设计,动效教程,UI动效,MG教程,MG动画,3D动效教程,AE教程</t>
-  </si>
-  <si>
-    <t>Infinity新标签页</t>
-  </si>
-  <si>
-    <t>http://cn.infinitynewtab.com</t>
-  </si>
-  <si>
-    <t>👍浏览器的新标签页 快速高效的管理你的常用网站</t>
-  </si>
-  <si>
-    <t>adobe全家桶（不限速下载）</t>
-  </si>
-  <si>
-    <t>https://flowus.cn/share/ab4b6b86-34a6-4aa0-a679-b4a221b8e41d</t>
-  </si>
-  <si>
-    <t>转载阿虚大佬的</t>
-  </si>
-  <si>
-    <t>AE光效制作（全81讲）</t>
-  </si>
-  <si>
-    <t>http://www.bilibili.com/video/BV1J4411C7am?p=5/</t>
-  </si>
-  <si>
-    <t>https://3o.hk/images/2023/04/17/26.png</t>
-  </si>
-  <si>
-    <t>我要自学网【AE软件】AE光效制作（全81讲）</t>
-  </si>
-  <si>
-    <t>Zamzar 在线格式转换</t>
-  </si>
-  <si>
-    <t>http://www.zamzar.com</t>
-  </si>
-  <si>
-    <t>打开是英文的，英语不是很好也能差不多能看懂</t>
+    <t>Spline (中文版前+cn.)</t>
+  </si>
+  <si>
+    <t>https://spline.design</t>
+  </si>
+  <si>
+    <t>Spline是一款轻量化3D在线协作设计工具，集建模，材质，交互，动画，代码交付于一身。</t>
+  </si>
+  <si>
+    <t>奶牛导航</t>
+  </si>
+  <si>
+    <t>http://ebook.name/nav.html</t>
+  </si>
+  <si>
+    <t>一个极简的网址导航，聚合了多种搜索引擎，收录了各种常用网站。</t>
+  </si>
+  <si>
+    <t>Behance</t>
+  </si>
+  <si>
+    <t>http://www.behance.net</t>
+  </si>
+  <si>
+    <t>系列设计作品开放平台</t>
+  </si>
+  <si>
+    <t>滚动截屏</t>
+  </si>
+  <si>
+    <t>http://snip.qq.com</t>
+  </si>
+  <si>
+    <t>https://3o.hk/images/2023/04/17/4.png</t>
+  </si>
+  <si>
+    <t>腾讯qq出品-滚动截屏</t>
+  </si>
+  <si>
+    <t>Pr教程(全57集)</t>
+  </si>
+  <si>
+    <t>http://www.bilibili.com/video/BV1bb411F7Sh/</t>
+  </si>
+  <si>
+    <t>https://3o.hk/images/2023/04/17/27.png</t>
+  </si>
+  <si>
+    <t>Pr2015教程全57集</t>
+  </si>
+  <si>
+    <t>png→svg</t>
+  </si>
+  <si>
+    <t>http://www.pngtosvg.com</t>
+  </si>
+  <si>
+    <t>https://3o.hk/images/2023/04/17/o80.png</t>
   </si>
   <si>
     <t>模库网</t>
@@ -1363,64 +1501,31 @@
     <t>免费设计素材模板下载图库共享网站</t>
   </si>
   <si>
-    <t>Xmind</t>
-  </si>
-  <si>
-    <t>https://www.kelongwo.com/pc-xmind/</t>
-  </si>
-  <si>
-    <t>https://api.iowen.cn/favicon/xmind.cn/.png</t>
-  </si>
-  <si>
-    <t>XMind是一种著名的思维导图软件，可以帮助用户快速构建并整理思路，</t>
-  </si>
-  <si>
-    <t>设计师网站导航</t>
-  </si>
-  <si>
-    <t>http://hao.shijuechuanda.com</t>
-  </si>
-  <si>
-    <t>设计网址导航 | 视觉传达</t>
-  </si>
-  <si>
-    <t>http://dribbble.com</t>
-  </si>
-  <si>
-    <t>设计作品的交流平台,UI设计师推荐必去网站</t>
-  </si>
-  <si>
-    <t>干的库Pr插件</t>
-  </si>
-  <si>
-    <t>https://gan.cool</t>
-  </si>
-  <si>
-    <t>国人自主研发的第一款Adobe Premiere Pro全功能插件</t>
-  </si>
-  <si>
-    <t>亿破姐</t>
-  </si>
-  <si>
-    <t>http://www.ypojie.com</t>
-  </si>
-  <si>
-    <t>精选互联网优秀软件分享、电脑技术、经验教程、SEO网站优化教程</t>
-  </si>
-  <si>
-    <t>PS2019教程（全80讲）</t>
-  </si>
-  <si>
-    <t>http://www.bilibili.com/video/BV12x411f7Gp?p=9</t>
-  </si>
-  <si>
-    <t>PS2019教程(PhotoShop从入门到入土 零基础入门80集)</t>
-  </si>
-  <si>
-    <t>文档格式在线转换</t>
-  </si>
-  <si>
-    <t>http://smallpdf.com</t>
+    <t>Pinterest (花瓣它爹)</t>
+  </si>
+  <si>
+    <t>http://www.pinterest.com</t>
+  </si>
+  <si>
+    <t>设计灵感收集地，图片分享类的社交网站</t>
+  </si>
+  <si>
+    <t>小熊软件助手</t>
+  </si>
+  <si>
+    <t>https://www.xxrjzs.com</t>
+  </si>
+  <si>
+    <t>自建网盘下载速度快</t>
+  </si>
+  <si>
+    <t>在线抠图</t>
+  </si>
+  <si>
+    <t>http://www.remove.bg/zh</t>
+  </si>
+  <si>
+    <t>只需单击一下，即可在5秒钟内自动删除图像背景。</t>
   </si>
   <si>
     <t>魔酷网</t>
@@ -1432,55 +1537,25 @@
     <t>Blender插件-Blender模型Blender贴图魔酷网模型一站式下载</t>
   </si>
   <si>
-    <t>奶牛导航</t>
-  </si>
-  <si>
-    <t>http://ebook.name/nav.html</t>
-  </si>
-  <si>
-    <t>一个极简的网址导航，聚合了多种搜索引擎，收录了各种常用网站。</t>
-  </si>
-  <si>
-    <t>Behance</t>
-  </si>
-  <si>
-    <t>http://www.behance.net</t>
-  </si>
-  <si>
-    <t>系列设计作品开放平台</t>
-  </si>
-  <si>
-    <t>滚动截屏</t>
-  </si>
-  <si>
-    <t>http://snip.qq.com</t>
-  </si>
-  <si>
-    <t>https://3o.hk/images/2023/04/17/4.png</t>
-  </si>
-  <si>
-    <t>腾讯qq出品-滚动截屏</t>
-  </si>
-  <si>
-    <t>Pr教程(全57集)</t>
-  </si>
-  <si>
-    <t>http://www.bilibili.com/video/BV1bb411F7Sh/</t>
-  </si>
-  <si>
-    <t>https://3o.hk/images/2023/04/17/27.png</t>
-  </si>
-  <si>
-    <t>Pr2015教程全57集</t>
-  </si>
-  <si>
-    <t>png→svg</t>
-  </si>
-  <si>
-    <t>http://www.pngtosvg.com</t>
-  </si>
-  <si>
-    <t>https://3o.hk/images/2023/04/17/o80.png</t>
+    <t>Boss设计</t>
+  </si>
+  <si>
+    <t>http://www.bossdesign.cn</t>
+  </si>
+  <si>
+    <t>收集国外设计素材网站的资源平台。</t>
+  </si>
+  <si>
+    <t>UI尺寸规范</t>
+  </si>
+  <si>
+    <t>http://tool.lanrentuku.com/guifan/ui.html</t>
+  </si>
+  <si>
+    <t>https://3o.hk/images/2023/04/17/28.png</t>
+  </si>
+  <si>
+    <t>iPhone/iPad/Android UI尺寸规范</t>
   </si>
   <si>
     <t>魔顿网</t>
@@ -1495,31 +1570,25 @@
     <t>免费C4D资源下载设计,高效,3d模型,c4d模型 ,魔顿,C4D插件,纹理贴图贴图</t>
   </si>
   <si>
-    <t>Pinterest (花瓣它爹)</t>
-  </si>
-  <si>
-    <t>http://www.pinterest.com</t>
-  </si>
-  <si>
-    <t>设计灵感收集地，图片分享类的社交网站</t>
-  </si>
-  <si>
-    <t>小熊软件助手</t>
-  </si>
-  <si>
-    <t>https://www.xxrjzs.com</t>
-  </si>
-  <si>
-    <t>自建网盘下载速度快</t>
-  </si>
-  <si>
-    <t>在线抠图</t>
-  </si>
-  <si>
-    <t>http://www.remove.bg/zh</t>
-  </si>
-  <si>
-    <t>只需单击一下，即可在5秒钟内自动删除图像背景。</t>
+    <t>像素画</t>
+  </si>
+  <si>
+    <t>http://hello.eboy.com/pool/~Pixorama/1?q=project</t>
+  </si>
+  <si>
+    <t>https://eboy.s3.us-west-1.amazonaws.com/bubble/projects/2005/Future%20Publishing/FTP-pixartcov-newst-15k.png</t>
+  </si>
+  <si>
+    <t>一个分享好看的像素画的网站</t>
+  </si>
+  <si>
+    <t>Screen Sizes</t>
+  </si>
+  <si>
+    <t>http://screensiz.es/</t>
+  </si>
+  <si>
+    <t>在线查询不同设备的屏幕尺寸</t>
   </si>
   <si>
     <t>3D溜溜网</t>
@@ -1531,25 +1600,22 @@
     <t>【3D模型免费下载】打造一流的3DMax模型库_3D溜溜网 3d66.com</t>
   </si>
   <si>
-    <t>Boss设计</t>
-  </si>
-  <si>
-    <t>http://www.bossdesign.cn</t>
-  </si>
-  <si>
-    <t>收集国外设计素材网站的资源平台。</t>
-  </si>
-  <si>
-    <t>UI尺寸规范</t>
-  </si>
-  <si>
-    <t>http://tool.lanrentuku.com/guifan/ui.html</t>
-  </si>
-  <si>
-    <t>https://3o.hk/images/2023/04/17/28.png</t>
-  </si>
-  <si>
-    <t>iPhone/iPad/Android UI尺寸规范</t>
+    <t>Instagram（需魔法）</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com</t>
+  </si>
+  <si>
+    <t>类似于国内小红书</t>
+  </si>
+  <si>
+    <t>IPhone屏幕尺寸</t>
+  </si>
+  <si>
+    <t>http://www.paintcodeapp.com/news/ultimate-guide-to-iphone-resolutions</t>
+  </si>
+  <si>
+    <t>IPhone各设备屏幕尺寸信息参数</t>
   </si>
   <si>
     <t>CG模型网</t>
@@ -1561,25 +1627,13 @@
     <t>专注多品类3D模型下载、原创作品分享、软件学习</t>
   </si>
   <si>
-    <t>像素画</t>
-  </si>
-  <si>
-    <t>http://hello.eboy.com/pool/~Pixorama/1?q=project</t>
-  </si>
-  <si>
-    <t>https://eboy.s3.us-west-1.amazonaws.com/bubble/projects/2005/Future%20Publishing/FTP-pixartcov-newst-15k.png</t>
-  </si>
-  <si>
-    <t>一个分享好看的像素画的网站</t>
-  </si>
-  <si>
-    <t>Screen Sizes</t>
-  </si>
-  <si>
-    <t>http://screensiz.es/</t>
-  </si>
-  <si>
-    <t>在线查询不同设备的屏幕尺寸</t>
+    <t>安卓尺寸</t>
+  </si>
+  <si>
+    <t>http://material.io/blog/device-metrics</t>
+  </si>
+  <si>
+    <t>Google安卓主流设备尺寸</t>
   </si>
   <si>
     <t>51PPT</t>
@@ -1591,22 +1645,13 @@
     <t>51PPT模板网 - 幻灯片演示模板及素材下载</t>
   </si>
   <si>
-    <t>Instagram（需魔法）</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com</t>
-  </si>
-  <si>
-    <t>类似于国内小红书</t>
-  </si>
-  <si>
-    <t>IPhone屏幕尺寸</t>
-  </si>
-  <si>
-    <t>http://www.paintcodeapp.com/news/ultimate-guide-to-iphone-resolutions</t>
-  </si>
-  <si>
-    <t>IPhone各设备屏幕尺寸信息参数</t>
+    <t>草料二维码</t>
+  </si>
+  <si>
+    <t>http://cli.im/deqr</t>
+  </si>
+  <si>
+    <t>免费在线二维码解码器</t>
   </si>
   <si>
     <t>第一PPT</t>
@@ -1618,13 +1663,13 @@
     <t>免费ppt下载网站，广告超多，注意甄别！！</t>
   </si>
   <si>
-    <t>安卓尺寸</t>
-  </si>
-  <si>
-    <t>http://material.io/blog/device-metrics</t>
-  </si>
-  <si>
-    <t>Google安卓主流设备尺寸</t>
+    <t>png压缩</t>
+  </si>
+  <si>
+    <t>http://tinify.cn</t>
+  </si>
+  <si>
+    <t>TinyPNG使用智能有损压缩技术将WebP, PNG and JPEG图片的文件大小降低</t>
   </si>
   <si>
     <t>爱给网</t>
@@ -1639,13 +1684,13 @@
     <t>免费提供免费的音效配乐|3D模型|视频|游戏素材资源下载</t>
   </si>
   <si>
-    <t>草料二维码</t>
-  </si>
-  <si>
-    <t>http://cli.im/deqr</t>
-  </si>
-  <si>
-    <t>免费在线二维码解码器</t>
+    <t>图片压缩</t>
+  </si>
+  <si>
+    <t>http://www.yasuotu.com</t>
+  </si>
+  <si>
+    <t>在线图片压缩工具，支持GIF压缩、PNG压缩、JPG压缩</t>
   </si>
   <si>
     <t>5素材</t>
@@ -1657,13 +1702,13 @@
     <t>免费设计素材下载,免抠PNG图片素材,免抠PS素材模板,PSD免抠设计背景图片,平面广告海报图片模板素材，psd艺术字免抠图片等免费设计素材图片下载，电商淘宝素材模板，平面广告模板素材等在线素材下载，免费素材共享。</t>
   </si>
   <si>
-    <t>png压缩</t>
-  </si>
-  <si>
-    <t>http://tinify.cn</t>
-  </si>
-  <si>
-    <t>TinyPNG使用智能有损压缩技术将WebP, PNG and JPEG图片的文件大小降低</t>
+    <t>ProcessOn -思维导图</t>
+  </si>
+  <si>
+    <t>http://www.processon.com</t>
+  </si>
+  <si>
+    <t>思维导图,流程图,免费在线作图工具,在线流程图...</t>
   </si>
   <si>
     <t>设计部落</t>
@@ -1678,13 +1723,13 @@
     <t>素材,图库,图片,图片下载,设计素材,PSD,矢量,AI,CDR,EPS,设计,免费素材网,素材天下,PS素材</t>
   </si>
   <si>
-    <t>图片压缩</t>
-  </si>
-  <si>
-    <t>http://www.yasuotu.com</t>
-  </si>
-  <si>
-    <t>在线图片压缩工具，支持GIF压缩、PNG压缩、JPG压缩</t>
+    <t>千图抠图工具</t>
+  </si>
+  <si>
+    <t>http://koutu.58pic.com</t>
+  </si>
+  <si>
+    <t>AI自动抠图-千图抠图工具</t>
   </si>
   <si>
     <t>觅元素</t>
@@ -1696,13 +1741,13 @@
     <t>免抠素材,位图,透明背景素材,透明背景图片,免抠png,高清png</t>
   </si>
   <si>
-    <t>ProcessOn -思维导图</t>
-  </si>
-  <si>
-    <t>http://www.processon.com</t>
-  </si>
-  <si>
-    <t>思维导图,流程图,免费在线作图工具,在线流程图...</t>
+    <t>去除gif背景</t>
+  </si>
+  <si>
+    <t>http://www.unscreen.com/upload</t>
+  </si>
+  <si>
+    <t>AI自动抠图去除gif背景</t>
   </si>
   <si>
     <t>矢量插画下载</t>
@@ -1714,13 +1759,13 @@
     <t>免抠矢量插画下载</t>
   </si>
   <si>
-    <t>千图抠图工具</t>
-  </si>
-  <si>
-    <t>http://koutu.58pic.com</t>
-  </si>
-  <si>
-    <t>AI自动抠图-千图抠图工具</t>
+    <t>在线文件转换</t>
+  </si>
+  <si>
+    <t>https://products.groupdocs.app/zh/conversion/total</t>
+  </si>
+  <si>
+    <t>使用 Chrome 和 Firefox 等现代浏览器从任何设备在线转换文档。</t>
   </si>
   <si>
     <t>绘艺素材-音效网</t>
@@ -1735,13 +1780,13 @@
     <t>绘艺素材音效网提供各类音效下载</t>
   </si>
   <si>
-    <t>去除gif背景</t>
-  </si>
-  <si>
-    <t>http://www.unscreen.com/upload</t>
-  </si>
-  <si>
-    <t>AI自动抠图去除gif背景</t>
+    <t>在线矢量设计</t>
+  </si>
+  <si>
+    <t>https://vectordad.com</t>
+  </si>
+  <si>
+    <t>图像艺术矢量化</t>
   </si>
   <si>
     <t>免费商用字体</t>
@@ -1753,15 +1798,6 @@
     <t>字风华-最全最新的免费可商用中英文字体下载网站！</t>
   </si>
   <si>
-    <t>在线文件转换</t>
-  </si>
-  <si>
-    <t>https://products.groupdocs.app/zh/conversion/total</t>
-  </si>
-  <si>
-    <t>使用 Chrome 和 Firefox 等现代浏览器从任何设备在线转换文档。</t>
-  </si>
-  <si>
     <t>猫啃网(免费字体)</t>
   </si>
   <si>
@@ -1772,15 +1808,6 @@
   </si>
   <si>
     <t>免费下载无版权可商用字体-英文中文字体</t>
-  </si>
-  <si>
-    <t>在线矢量设计</t>
-  </si>
-  <si>
-    <t>https://vectordad.com</t>
-  </si>
-  <si>
-    <t>图像艺术矢量化</t>
   </si>
   <si>
     <t>字体仓库</t>
@@ -1834,10 +1861,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1903,6 +1930,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -1910,14 +1944,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1932,46 +1966,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1993,15 +1988,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2015,9 +2027,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2038,7 +2065,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2050,121 +2101,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2182,7 +2125,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2194,31 +2245,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2232,11 +2259,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2245,7 +2278,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2261,21 +2294,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2299,7 +2317,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2311,6 +2329,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2337,10 +2364,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2349,16 +2376,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2370,73 +2397,88 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2445,37 +2487,22 @@
     <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2871,10 +2898,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:CQ31"/>
+  <dimension ref="A1:CQ33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" topLeftCell="AQ1" workbookViewId="0">
-      <selection activeCell="AU8" sqref="AU8"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4539,7 +4566,7 @@
       <c r="CA10" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="CB10" s="14" t="s">
+      <c r="CB10" s="15" t="s">
         <v>382</v>
       </c>
       <c r="CD10" s="1" t="s">
@@ -4650,17 +4677,14 @@
       <c r="CB11" s="14" t="s">
         <v>413</v>
       </c>
-      <c r="CC11" s="14" t="s">
+      <c r="CD11" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="CD11" s="1" t="s">
+      <c r="CG11" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="CG11" s="1" t="s">
+      <c r="CH11" s="15" t="s">
         <v>416</v>
-      </c>
-      <c r="CH11" s="15" t="s">
-        <v>417</v>
       </c>
       <c r="CJ11" s="1" t="s">
         <v>287</v>
@@ -4668,352 +4692,364 @@
     </row>
     <row r="12" spans="1:82">
       <c r="A12" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B12" s="14" t="s">
         <v>418</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="D12" s="1" t="s">
         <v>419</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>420</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>76</v>
       </c>
       <c r="G12" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="H12" s="14" t="s">
         <v>421</v>
       </c>
-      <c r="H12" s="14" t="s">
+      <c r="I12" s="15" t="s">
         <v>422</v>
       </c>
-      <c r="I12" s="15" t="s">
+      <c r="J12" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="M12" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="N12" s="14" t="s">
         <v>425</v>
       </c>
-      <c r="N12" s="14" t="s">
+      <c r="P12" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="P12" s="1" t="s">
+      <c r="S12" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="S12" s="1" t="s">
+      <c r="T12" s="14" t="s">
         <v>428</v>
       </c>
-      <c r="T12" s="14" t="s">
+      <c r="U12" s="15" t="s">
         <v>429</v>
       </c>
-      <c r="U12" s="15" t="s">
+      <c r="V12" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="V12" s="1" t="s">
+      <c r="AE12" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="AE12" s="1" t="s">
+      <c r="AF12" s="14" t="s">
         <v>432</v>
       </c>
-      <c r="AF12" s="14" t="s">
+      <c r="AH12" s="1" t="s">
         <v>433</v>
-      </c>
-      <c r="AH12" s="1" t="s">
-        <v>434</v>
       </c>
       <c r="AJ12" s="3"/>
       <c r="AP12" s="3"/>
       <c r="AV12" s="3"/>
       <c r="AW12" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="AX12" s="14" t="s">
         <v>435</v>
       </c>
-      <c r="AX12" s="14" t="s">
+      <c r="AZ12" s="1" t="s">
         <v>436</v>
-      </c>
-      <c r="AZ12" s="1" t="s">
-        <v>437</v>
       </c>
       <c r="BB12" s="3"/>
       <c r="BC12" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="BD12" s="14" t="s">
         <v>438</v>
       </c>
-      <c r="BD12" s="14" t="s">
+      <c r="BE12" s="14" t="s">
         <v>439</v>
       </c>
-      <c r="BE12" s="14" t="s">
+      <c r="BF12" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="BF12" s="1" t="s">
+      <c r="BU12" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="BU12" s="1" t="s">
+      <c r="BV12" s="14" t="s">
         <v>442</v>
       </c>
-      <c r="BV12" s="14" t="s">
+      <c r="BX12" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="BX12" s="1" t="s">
+      <c r="CA12" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="CA12" s="1" t="s">
+      <c r="CB12" s="14" t="s">
         <v>445</v>
       </c>
-      <c r="CB12" s="14" t="s">
+      <c r="CD12" s="1" t="s">
         <v>446</v>
-      </c>
-      <c r="CC12" s="15" t="s">
-        <v>447</v>
-      </c>
-      <c r="CD12" s="1" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="13" spans="7:82">
       <c r="G13" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>448</v>
+      </c>
+      <c r="I13" s="15" t="s">
         <v>449</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="J13" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="I13" s="15" t="s">
+      <c r="M13" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="N13" s="14" t="s">
         <v>452</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="P13" s="1" t="s">
         <v>453</v>
-      </c>
-      <c r="N13" s="14" t="s">
-        <v>454</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>455</v>
       </c>
       <c r="S13" s="1" t="s">
         <v>103</v>
       </c>
       <c r="T13" s="14" t="s">
+        <v>454</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="AE13" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="V13" s="1" t="s">
+      <c r="AF13" s="14" t="s">
         <v>457</v>
       </c>
-      <c r="AE13" s="1" t="s">
+      <c r="AH13" s="1" t="s">
         <v>458</v>
-      </c>
-      <c r="AF13" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="AH13" s="1" t="s">
-        <v>460</v>
       </c>
       <c r="AJ13" s="3"/>
       <c r="AP13" s="3"/>
       <c r="AV13" s="3"/>
       <c r="AW13" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="AX13" s="19" t="s">
+        <v>460</v>
+      </c>
+      <c r="AZ13" s="1" t="s">
         <v>461</v>
-      </c>
-      <c r="AX13" s="19" t="s">
-        <v>462</v>
-      </c>
-      <c r="AZ13" s="1" t="s">
-        <v>463</v>
       </c>
       <c r="BB13" s="3"/>
       <c r="BC13" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="BD13" s="14" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="BE13" s="14" t="s">
         <v>376</v>
       </c>
       <c r="BF13" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="BU13" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="BV13" s="14" t="s">
         <v>466</v>
       </c>
-      <c r="BU13" s="1" t="s">
+      <c r="BX13" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="CA13" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="BV13" s="14" t="s">
+      <c r="CB13" s="14" t="s">
         <v>468</v>
       </c>
-      <c r="BX13" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="CA13" s="1" t="s">
+      <c r="CC13" s="14" t="s">
         <v>469</v>
       </c>
-      <c r="CB13" s="14" t="s">
+      <c r="CD13" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="CD13" s="1" t="s">
+    </row>
+    <row r="14" spans="7:82">
+      <c r="G14" s="1" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="14" spans="13:82">
+      <c r="H14" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="M14" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="N14" s="14" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="T14" s="14" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="AJ14" s="3"/>
       <c r="AP14" s="3"/>
       <c r="AV14" s="3"/>
       <c r="AW14" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="AX14" s="14" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="AY14" s="14" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AZ14" s="1" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="BB14" s="3"/>
       <c r="BC14" s="1" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="BD14" s="14" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="BE14" s="14" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="BF14" s="1" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="BU14" s="1" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="BV14" s="14" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="BW14" s="14" t="s">
+        <v>490</v>
+      </c>
+      <c r="BX14" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="BX14" s="1" t="s">
-        <v>486</v>
-      </c>
       <c r="CA14" s="1" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="CB14" s="14" t="s">
-        <v>490</v>
-      </c>
-      <c r="CC14" s="14" t="s">
-        <v>491</v>
+        <v>492</v>
+      </c>
+      <c r="CC14" s="15" t="s">
+        <v>493</v>
       </c>
       <c r="CD14" s="1" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="15" spans="19:82">
       <c r="S15" s="1" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="T15" s="15" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="AJ15" s="3"/>
       <c r="AP15" s="3"/>
       <c r="AV15" s="3"/>
       <c r="AW15" s="1" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="AX15" s="14" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="AZ15" s="1" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="BB15" s="3"/>
       <c r="BU15" s="1" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="BV15" s="14" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="BX15" s="1" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="CA15" s="1" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="CB15" s="14" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="CD15" s="1" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
     </row>
     <row r="16" spans="19:82">
       <c r="S16" s="1" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="T16" s="14" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="AJ16" s="3"/>
       <c r="AP16" s="3"/>
       <c r="AV16" s="3"/>
       <c r="BB16" s="3"/>
       <c r="BU16" s="1" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="BV16" s="14" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="BW16" s="14" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="BX16" s="1" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="CA16" s="1" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="CB16" s="14" t="s">
-        <v>513</v>
+        <v>515</v>
+      </c>
+      <c r="CC16" s="14" t="s">
+        <v>516</v>
       </c>
       <c r="CD16" s="1" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
     </row>
     <row r="17" spans="19:82">
       <c r="S17" s="1" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="T17" s="14" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="U17" s="14" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="AJ17" s="3"/>
       <c r="AP17" s="3"/>
@@ -5021,55 +5057,55 @@
       <c r="AX17" s="21"/>
       <c r="BB17" s="3"/>
       <c r="BU17" s="1" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="BV17" s="14" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="BX17" s="1" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="CA17" s="1" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="CB17" s="14" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="CD17" s="1" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
     </row>
     <row r="18" spans="19:82">
       <c r="S18" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="T18" s="14" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="AJ18" s="3"/>
       <c r="AP18" s="3"/>
       <c r="AV18" s="3"/>
       <c r="BB18" s="3"/>
       <c r="BU18" s="1" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="BV18" s="14" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="BX18" s="1" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="CA18" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="CB18" s="15" t="s">
-        <v>532</v>
+        <v>534</v>
+      </c>
+      <c r="CB18" s="14" t="s">
+        <v>535</v>
       </c>
       <c r="CD18" s="1" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
     </row>
     <row r="19" spans="36:82">
@@ -5078,25 +5114,22 @@
       <c r="AV19" s="3"/>
       <c r="BB19" s="3"/>
       <c r="BU19" s="23" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="BV19" s="14" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="BX19" s="1" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="CA19" s="1" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="CB19" s="14" t="s">
-        <v>538</v>
-      </c>
-      <c r="CC19" s="14" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="CD19" s="1" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="20" spans="36:82">
@@ -5105,22 +5138,22 @@
       <c r="AV20" s="3"/>
       <c r="BB20" s="3"/>
       <c r="BU20" s="1" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="BV20" s="14" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="BX20" s="1" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="CA20" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="CB20" s="14" t="s">
-        <v>545</v>
+        <v>546</v>
+      </c>
+      <c r="CB20" s="15" t="s">
+        <v>547</v>
       </c>
       <c r="CD20" s="1" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="21" spans="36:82">
@@ -5129,25 +5162,25 @@
       <c r="AV21" s="3"/>
       <c r="BB21" s="3"/>
       <c r="BU21" s="1" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="BV21" s="14" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="BX21" s="1" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="CA21" s="1" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="CB21" s="14" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="CC21" s="14" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="CD21" s="1" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="22" spans="36:82">
@@ -5156,22 +5189,22 @@
       <c r="AV22" s="3"/>
       <c r="BB22" s="3"/>
       <c r="BU22" s="1" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="BV22" s="14" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="BX22" s="1" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="CA22" s="1" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="CB22" s="14" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="CD22" s="1" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="23" spans="36:82">
@@ -5180,22 +5213,25 @@
       <c r="AV23" s="3"/>
       <c r="BB23" s="3"/>
       <c r="BU23" s="1" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="BV23" s="14" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="BX23" s="1" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="CA23" s="1" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="CB23" s="14" t="s">
-        <v>564</v>
+        <v>566</v>
+      </c>
+      <c r="CC23" s="14" t="s">
+        <v>567</v>
       </c>
       <c r="CD23" s="1" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="24" spans="36:82">
@@ -5204,25 +5240,22 @@
       <c r="AV24" s="3"/>
       <c r="BB24" s="3"/>
       <c r="BU24" s="1" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="BV24" s="14" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="BX24" s="1" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="CA24" s="1" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="CB24" s="14" t="s">
-        <v>570</v>
-      </c>
-      <c r="CC24" s="14" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="CD24" s="1" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="25" spans="36:82">
@@ -5231,65 +5264,65 @@
       <c r="AV25" s="3"/>
       <c r="BB25" s="3"/>
       <c r="BU25" s="1" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="BV25" s="19" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="BX25" s="1" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="CA25" s="1" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="CB25" s="14" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="CD25" s="1" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="26" spans="73:82">
       <c r="BU26" s="1" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="BV26" s="14" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="BX26" s="1" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="CA26" s="1" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="CB26" s="14" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="CC26" s="14" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="CD26" s="1" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="27" spans="73:83">
       <c r="BU27" s="1" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="BV27" s="14" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="BX27" s="1" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="CA27" s="1" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="CB27" s="14" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="CD27" s="1" t="s">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="CE27" s="1" t="s">
         <v>71</v>
@@ -5297,49 +5330,74 @@
     </row>
     <row r="28" spans="79:82">
       <c r="CA28" s="1" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="CB28" s="14" t="s">
-        <v>592</v>
+        <v>595</v>
+      </c>
+      <c r="CC28" s="14" t="s">
+        <v>596</v>
       </c>
       <c r="CD28" s="1" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
     </row>
     <row r="29" spans="79:82">
       <c r="CA29" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="CB29" s="12" t="s">
-        <v>594</v>
+        <v>598</v>
+      </c>
+      <c r="CB29" s="14" t="s">
+        <v>599</v>
       </c>
       <c r="CD29" s="1" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="30" spans="79:82">
       <c r="CA30" s="1" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="CB30" s="14" t="s">
+        <v>601</v>
+      </c>
+      <c r="CD30" s="1" t="s">
         <v>597</v>
-      </c>
-      <c r="CD30" s="1" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="31" spans="79:82">
       <c r="CA31" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="CB31" s="15" t="s">
-        <v>600</v>
-      </c>
-      <c r="CC31" s="14" t="s">
-        <v>601</v>
+        <v>602</v>
+      </c>
+      <c r="CB31" s="12" t="s">
+        <v>603</v>
       </c>
       <c r="CD31" s="1" t="s">
-        <v>602</v>
+        <v>604</v>
+      </c>
+    </row>
+    <row r="32" spans="79:82">
+      <c r="CA32" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="CB32" s="14" t="s">
+        <v>606</v>
+      </c>
+      <c r="CD32" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="33" spans="79:82">
+      <c r="CA33" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="CB33" s="15" t="s">
+        <v>609</v>
+      </c>
+      <c r="CC33" s="14" t="s">
+        <v>610</v>
+      </c>
+      <c r="CD33" s="1" t="s">
+        <v>611</v>
       </c>
     </row>
   </sheetData>
@@ -5496,26 +5554,26 @@
     <hyperlink ref="CB6" r:id="rId145" display="https://www.kelongwo.com/Resource_function/yuanjx/C/?aff=1799"/>
     <hyperlink ref="CB8" r:id="rId146" display="http://www.ls.graphics"/>
     <hyperlink ref="CB9" r:id="rId147" display="https://www.freepik.com"/>
-    <hyperlink ref="CB11" r:id="rId148" display="http://www.yunmiss.com/list/1.html"/>
-    <hyperlink ref="CB12" r:id="rId149" display="http://www.mcool.com/free.php"/>
-    <hyperlink ref="CB13" r:id="rId150" display="https://blender.kim"/>
-    <hyperlink ref="CB14" r:id="rId151" display="http://www.modown.cn/?aff=70874"/>
-    <hyperlink ref="CB15" r:id="rId152" display="https://www.3d66.com"/>
-    <hyperlink ref="CB16" r:id="rId153" display="https://www.cgmodel.com"/>
-    <hyperlink ref="CB17" r:id="rId154" display="http://www.51pptmoban.com"/>
-    <hyperlink ref="CB19" r:id="rId155" display="http://aigei.com/design/?m=b_4425938"/>
-    <hyperlink ref="CB18" r:id="rId156" display="http://www.1ppt.com"/>
-    <hyperlink ref="CB20" r:id="rId157" display="http://www.5sucai.com"/>
-    <hyperlink ref="CB21" r:id="rId158" display="http://www.sheji567.com"/>
-    <hyperlink ref="CB22" r:id="rId159" display="http://www.51yuansu.com"/>
-    <hyperlink ref="CB23" r:id="rId160" display="http://undraw.co/illustrations"/>
-    <hyperlink ref="CB24" r:id="rId161" display="http://www.huiyi8.com/yinxiao"/>
-    <hyperlink ref="CB25" r:id="rId162" display="http://www.zifh.com"/>
-    <hyperlink ref="CB26" r:id="rId163" display="http://www.maoken.com"/>
-    <hyperlink ref="CB27" r:id="rId164" display="http://www.ziticangku.com"/>
-    <hyperlink ref="CB28" r:id="rId165" display="http://www.100font.com"/>
-    <hyperlink ref="CB29" r:id="rId166" display="http://zh.fonts2u.com" tooltip="http://zh.fonts2u.com"/>
-    <hyperlink ref="CB30" r:id="rId167" display="http://www.pptfans.cn/pptcourse"/>
+    <hyperlink ref="CB13" r:id="rId148" display="http://www.yunmiss.com/list/1.html"/>
+    <hyperlink ref="CB14" r:id="rId149" display="http://www.mcool.com/free.php"/>
+    <hyperlink ref="CB15" r:id="rId150" display="https://blender.kim"/>
+    <hyperlink ref="CB16" r:id="rId151" display="http://www.modown.cn/?aff=70874"/>
+    <hyperlink ref="CB17" r:id="rId152" display="https://www.3d66.com"/>
+    <hyperlink ref="CB18" r:id="rId153" display="https://www.cgmodel.com"/>
+    <hyperlink ref="CB19" r:id="rId154" display="http://www.51pptmoban.com"/>
+    <hyperlink ref="CB21" r:id="rId155" display="http://aigei.com/design/?m=b_4425938"/>
+    <hyperlink ref="CB20" r:id="rId156" display="http://www.1ppt.com"/>
+    <hyperlink ref="CB22" r:id="rId157" display="http://www.5sucai.com"/>
+    <hyperlink ref="CB23" r:id="rId158" display="http://www.sheji567.com"/>
+    <hyperlink ref="CB24" r:id="rId159" display="http://www.51yuansu.com"/>
+    <hyperlink ref="CB25" r:id="rId160" display="http://undraw.co/illustrations"/>
+    <hyperlink ref="CB26" r:id="rId161" display="http://www.huiyi8.com/yinxiao"/>
+    <hyperlink ref="CB27" r:id="rId162" display="http://www.zifh.com"/>
+    <hyperlink ref="CB28" r:id="rId163" display="http://www.maoken.com"/>
+    <hyperlink ref="CB29" r:id="rId164" display="http://www.ziticangku.com"/>
+    <hyperlink ref="CB30" r:id="rId165" display="http://www.100font.com"/>
+    <hyperlink ref="CB31" r:id="rId166" display="http://zh.fonts2u.com" tooltip="http://zh.fonts2u.com"/>
+    <hyperlink ref="CB32" r:id="rId167" display="http://www.pptfans.cn/pptcourse"/>
     <hyperlink ref="CH3" r:id="rId168" display="http://by.360xueke.com"/>
     <hyperlink ref="CH4" r:id="rId169" display="http://www.cnki.net"/>
     <hyperlink ref="CH5" r:id="rId170" display="http://www.wanfangdata.com.cn"/>
@@ -5558,13 +5616,13 @@
     <hyperlink ref="CC3" r:id="rId23" display="https://pic.zhaotu.me/2023/04/16/12x69a97f65a24ebf1a.png"/>
     <hyperlink ref="CC5" r:id="rId23" display="https://pic.zhaotu.me/2023/04/16/12x69a97f65a24ebf1a.png"/>
     <hyperlink ref="CC6" r:id="rId18" display="https://img.quankexia.com/kelongwo/wp-content/uploads/2021/07/2021071214094981.png"/>
-    <hyperlink ref="CC14" r:id="rId204" display="https://api.iowen.cn/favicon/www.modown.cn.png"/>
+    <hyperlink ref="CC16" r:id="rId204" display="https://api.iowen.cn/favicon/www.modown.cn.png"/>
     <hyperlink ref="CI8" r:id="rId22" display="https://gpt.1nav.ml/favicon.ico"/>
-    <hyperlink ref="CC11" r:id="rId205" display="https://3o.hk/images/2023/04/17/o66.png"/>
-    <hyperlink ref="CC26" r:id="rId206" display="https://3o.hk/images/2023/04/17/o1.png"/>
-    <hyperlink ref="CC19" r:id="rId207" display="https://3o.hk/images/2023/04/17/o63.png"/>
-    <hyperlink ref="CC24" r:id="rId208" display="https://3o.hk/images/2023/04/17/o69.png"/>
-    <hyperlink ref="CC21" r:id="rId209" display="https://3o.hk/images/2023/04/17/o78.png"/>
+    <hyperlink ref="CC13" r:id="rId205" display="https://3o.hk/images/2023/04/17/o66.png"/>
+    <hyperlink ref="CC28" r:id="rId206" display="https://3o.hk/images/2023/04/17/o1.png"/>
+    <hyperlink ref="CC21" r:id="rId207" display="https://3o.hk/images/2023/04/17/o63.png"/>
+    <hyperlink ref="CC26" r:id="rId208" display="https://3o.hk/images/2023/04/17/o69.png"/>
+    <hyperlink ref="CC23" r:id="rId209" display="https://3o.hk/images/2023/04/17/o78.png"/>
     <hyperlink ref="BW16" r:id="rId210" display="https://3o.hk/images/2023/04/17/28.png"/>
     <hyperlink ref="AF13" r:id="rId211" display="https://gan.cool" tooltip="https://gan.cool"/>
     <hyperlink ref="BV8" r:id="rId212" display="https://www.flexclip.com/cn/tools/compress-video/"/>
@@ -5574,17 +5632,20 @@
     <hyperlink ref="AX14" r:id="rId216" display="http://snip.qq.com"/>
     <hyperlink ref="AX15" r:id="rId217" display="https://www.xxrjzs.com"/>
     <hyperlink ref="AY14" r:id="rId218" display="https://3o.hk/images/2023/04/17/4.png"/>
-    <hyperlink ref="CC12" r:id="rId219" display="https://www.mcool.com/favicon.ico"/>
+    <hyperlink ref="CC14" r:id="rId219" display="https://www.mcool.com/favicon.ico"/>
     <hyperlink ref="T18" r:id="rId220" display="https://www.instagram.com"/>
     <hyperlink ref="CB7" r:id="rId221" display="https://mockupplanet.com" tooltip="https://mockupplanet.com"/>
     <hyperlink ref="H13" r:id="rId222" display="https://www.kelongwo.com/pc-xmind/"/>
     <hyperlink ref="I13" r:id="rId223" display="https://api.iowen.cn/favicon/xmind.cn/.png"/>
     <hyperlink ref="B11" r:id="rId224" display="https://rightbrain.art"/>
-    <hyperlink ref="CB31" r:id="rId225" display="https://www.thosefree.com/design"/>
-    <hyperlink ref="CC31" r:id="rId226" display="https://img.thosefree.com/static/logo.png"/>
+    <hyperlink ref="CB33" r:id="rId225" display="https://www.thosefree.com/design"/>
+    <hyperlink ref="CC33" r:id="rId226" display="https://img.thosefree.com/static/logo.png"/>
     <hyperlink ref="B12" r:id="rId227" display="https://wormhole.app"/>
     <hyperlink ref="CB10" r:id="rId228" display="https://resourceboy.com"/>
     <hyperlink ref="Z7" r:id="rId229" display="https://color.adobe.com"/>
+    <hyperlink ref="CB12" r:id="rId230" display="https://mockdrop.io"/>
+    <hyperlink ref="CB11" r:id="rId231" display="https://www.anthonyboyd.graphics"/>
+    <hyperlink ref="H14" r:id="rId232" display="https://spline.design" tooltip="https://spline.design"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/2.xlsx
+++ b/2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="615">
   <si>
     <t>✨ 推荐网站</t>
   </si>
@@ -1854,6 +1854,15 @@
 免费商用字体
 免费商用视频
 免费商用音频</t>
+  </si>
+  <si>
+    <t>免费 Icon</t>
+  </si>
+  <si>
+    <t>https://www.mingcute.com</t>
+  </si>
+  <si>
+    <t>MingCute 一套极简风格的开源图标库，这套图标目前包含线性和填充 2 种图标形式</t>
   </si>
 </sst>
 </file>
@@ -1863,8 +1872,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1922,15 +1931,39 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1944,7 +1977,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1958,8 +2013,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1974,41 +2030,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2021,30 +2053,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2065,78 +2074,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2149,7 +2086,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2161,55 +2218,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2221,25 +2248,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2256,6 +2265,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2277,23 +2310,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2315,29 +2342,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2364,10 +2373,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2376,16 +2385,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2397,112 +2406,112 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2898,10 +2907,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:CQ33"/>
+  <dimension ref="A1:CQ34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" topLeftCell="BU19" workbookViewId="0">
+      <selection activeCell="CB37" sqref="CB37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5398,6 +5407,17 @@
       </c>
       <c r="CD33" s="1" t="s">
         <v>611</v>
+      </c>
+    </row>
+    <row r="34" spans="79:82">
+      <c r="CA34" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="CB34" s="14" t="s">
+        <v>613</v>
+      </c>
+      <c r="CD34" s="1" t="s">
+        <v>614</v>
       </c>
     </row>
   </sheetData>
@@ -5646,6 +5666,7 @@
     <hyperlink ref="CB12" r:id="rId230" display="https://mockdrop.io"/>
     <hyperlink ref="CB11" r:id="rId231" display="https://www.anthonyboyd.graphics"/>
     <hyperlink ref="H14" r:id="rId232" display="https://spline.design" tooltip="https://spline.design"/>
+    <hyperlink ref="CB34" r:id="rId233" display="https://www.mingcute.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/2.xlsx
+++ b/2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="624">
   <si>
     <t>✨ 推荐网站</t>
   </si>
@@ -544,6 +544,15 @@
     <t>千秋书在-专注分享精品电子书，精校kindle电子书,外刊杂志下载,PDF漫画下载</t>
   </si>
   <si>
+    <t>一酷C4D</t>
+  </si>
+  <si>
+    <t>https://c4dco.com</t>
+  </si>
+  <si>
+    <t>一酷C4D - 一酷让设计更酷一下，免费C4D资源网站下载！ (c4dco.com)</t>
+  </si>
+  <si>
     <t>万兴喵影</t>
   </si>
   <si>
@@ -679,6 +688,15 @@
     <t>图书 西边云（多维度搜索）</t>
   </si>
   <si>
+    <t>CG咖</t>
+  </si>
+  <si>
+    <t>http://cgka3d.com</t>
+  </si>
+  <si>
+    <t>CG咖 - 精选全网 Blender插件 | 3D模型 | 预设等优质CG资源 (cgka3d.com)</t>
+  </si>
+  <si>
     <t>【虚幻4】</t>
   </si>
   <si>
@@ -806,6 +824,15 @@
   </si>
   <si>
     <t>一款电子书搜索引擎</t>
+  </si>
+  <si>
+    <t>书生CG资源站</t>
+  </si>
+  <si>
+    <t>https://c4dsky.com</t>
+  </si>
+  <si>
+    <t>C4DSKY|书生 AE模板 FCPX插件 CG教程 CG插件 CG软件 CG素材 CG论坛 免费下载</t>
   </si>
   <si>
     <t>Adobe全家桶（不限速下载）</t>
@@ -1871,9 +1898,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1931,44 +1958,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -1983,21 +1972,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -2014,8 +2003,69 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2028,32 +2078,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2074,132 +2101,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2212,7 +2113,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2224,7 +2131,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2236,13 +2227,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2254,7 +2281,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2265,6 +2292,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2292,35 +2343,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2342,11 +2371,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2373,10 +2400,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2385,16 +2412,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2406,112 +2433,112 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2909,8 +2936,8 @@
   <sheetPr/>
   <dimension ref="A1:CQ34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" topLeftCell="BU19" workbookViewId="0">
-      <selection activeCell="CB37" sqref="CB37"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" topLeftCell="AN1" workbookViewId="0">
+      <selection activeCell="AR10" sqref="AR10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3831,86 +3858,95 @@
         <v>175</v>
       </c>
       <c r="AP5" s="3"/>
+      <c r="AQ5" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="AR5" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>178</v>
+      </c>
       <c r="AV5" s="3"/>
       <c r="AW5" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="AX5" s="14" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="AZ5" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="BB5" s="3"/>
       <c r="BC5" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="BD5" s="14" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="BE5" s="14" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="BF5" s="1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="BG5" s="1" t="s">
         <v>71</v>
       </c>
       <c r="BI5" s="1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="BJ5" s="14" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="BK5" s="14"/>
       <c r="BL5" s="1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="BO5" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="BP5" s="14" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="BR5" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="BU5" s="1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="BV5" s="14" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="BX5" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="CA5" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="CB5" s="14" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="CC5" s="14" t="s">
         <v>90</v>
       </c>
       <c r="CD5" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="CG5" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="CH5" s="14" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="CJ5" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="CM5" s="1" t="s">
         <v>153</v>
       </c>
       <c r="CN5" s="14" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="CP5" s="1" t="s">
         <v>155</v>
@@ -3930,79 +3966,88 @@
         <v>91</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="K6" s="10"/>
       <c r="M6" s="8" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="N6" s="11" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="O6" s="11" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q6" s="10"/>
       <c r="S6" s="8" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="T6" s="9" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="U6" s="9"/>
       <c r="V6" s="8" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="W6" s="10" t="s">
         <v>50</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Z6" s="14" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="AE6" s="1" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="AF6" s="14" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="AG6" s="14" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="AH6" s="1" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="AJ6" s="3"/>
       <c r="AK6" s="1" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="AL6" s="14" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AN6" s="1" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="AP6" s="3"/>
+      <c r="AQ6" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="AR6" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>226</v>
+      </c>
       <c r="AV6" s="3"/>
       <c r="AW6" s="1" t="s">
         <v>88</v>
@@ -4018,380 +4063,389 @@
       </c>
       <c r="BB6" s="3"/>
       <c r="BC6" s="1" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="BD6" s="14" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="BE6" s="14" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="BF6" s="1" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="BI6" s="1" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="BJ6" s="14" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="BK6" s="14" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="BL6" s="1" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="BO6" s="1" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="BP6" s="15" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="BR6" s="1" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="BU6" s="1" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="BV6" s="14" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="BX6" s="1" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="CA6" s="1" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="CB6" s="14" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="CC6" s="14" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="CD6" s="1" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="CG6" s="1" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="CH6" s="14" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="CJ6" s="1" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:88">
       <c r="A7" s="8" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="B7" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>236</v>
-      </c>
       <c r="D7" s="6" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>41</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="K7" s="10"/>
       <c r="M7" s="1" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="N7" s="14" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="O7" s="11" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="Q7" s="10"/>
       <c r="S7" s="8" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="T7" s="9" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="U7" s="11"/>
       <c r="V7" s="8" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="W7" s="11"/>
       <c r="Y7" s="1" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="Z7" s="14" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="AE7" s="1" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="AF7" s="14" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="AH7" s="1" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="AJ7" s="3"/>
       <c r="AK7" s="1" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="AL7" s="14" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="AN7" s="1" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="AP7" s="3"/>
+      <c r="AQ7" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="AR7" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>272</v>
+      </c>
       <c r="AV7" s="3"/>
       <c r="AW7" s="1" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="AX7" s="14" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="AY7" s="14" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="AZ7" s="1" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="BB7" s="3"/>
       <c r="BC7" s="1" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="BD7" s="14" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="BE7" s="14" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="BF7" s="1" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="BG7" s="1" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="BI7" s="1" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="BJ7" s="14" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="BK7" s="14" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="BL7" s="1" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="BO7" s="1" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="BP7" s="14" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="BR7" s="1" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="BU7" s="1" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="BV7" s="14" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="BX7" s="1" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="CA7" s="1" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="CB7" s="15" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="CD7" s="1" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="CG7" s="1" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="CH7" s="14" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="CJ7" s="1" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
     </row>
     <row r="8" spans="1:89">
       <c r="A8" s="1" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="N8" s="11" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="O8" s="11" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="P8" s="6" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="Q8" s="10"/>
       <c r="S8" s="1" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="T8" s="15" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="AE8" s="1" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="AF8" s="14" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="AH8" s="1" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="AJ8" s="3"/>
       <c r="AP8" s="3"/>
       <c r="AV8" s="3"/>
       <c r="AW8" s="1" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="AX8" s="14" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="AY8" s="14" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="AZ8" s="1" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="BB8" s="3"/>
       <c r="BC8" s="1" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="BD8" s="14" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="BE8" s="14" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="BF8" s="1" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="BU8" s="1" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="BV8" s="15" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="BW8" s="14" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="BX8" s="1" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="CA8" s="1" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="CB8" s="14" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="CD8" s="1" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="CG8" s="1" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="CH8" s="14" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="CI8" s="14" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="CJ8" s="1" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="CK8" s="1" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
     </row>
     <row r="9" ht="18.75" spans="1:88">
       <c r="A9" s="1" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>88</v>
@@ -4407,241 +4461,241 @@
       </c>
       <c r="Q9" s="10"/>
       <c r="S9" s="1" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="T9" s="15" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="U9" s="15" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="AE9" s="1" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="AF9" s="14" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="AH9" s="1" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="AJ9" s="3"/>
       <c r="AP9" s="3"/>
       <c r="AV9" s="3"/>
       <c r="AW9" s="1" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="AX9" s="14" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="AY9" s="14" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="AZ9" s="1" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="BB9" s="3"/>
       <c r="BC9" s="1" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="BD9" s="14" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="BE9" s="14" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="BF9" s="1" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="BU9" s="1" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="BV9" s="14" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="BX9" s="1" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="CA9" s="1" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="CB9" s="14" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="CD9" s="1" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="CG9" s="1" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="CH9" s="14" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="CJ9" s="1" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
     </row>
     <row r="10" spans="1:88">
       <c r="A10" s="1" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="N10" s="14" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="T10" s="14" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="U10" s="14" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="AE10" s="1" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="AF10" s="14" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="AH10" s="1" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="AJ10" s="3"/>
       <c r="AP10" s="3"/>
       <c r="AV10" s="3"/>
       <c r="AW10" s="1" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="AX10" s="14" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="AZ10" s="1" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="BB10" s="3"/>
       <c r="BC10" s="1" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="BD10" s="14" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="BE10" s="14" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="BF10" s="1" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="BG10" s="1" t="s">
         <v>71</v>
       </c>
       <c r="BU10" s="1" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="BV10" s="14" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="BX10" s="1" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="CA10" s="1" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="CB10" s="15" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="CD10" s="1" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="CG10" s="1" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="CH10" s="14" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="CJ10" s="1" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
     </row>
     <row r="11" spans="1:88">
       <c r="A11" s="1" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>71</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="N11" s="14" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="T11" s="14" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="AE11" s="1" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="AF11" s="14" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="AH11" s="1" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="AI11" s="1" t="s">
         <v>71</v>
@@ -4650,415 +4704,415 @@
       <c r="AP11" s="3"/>
       <c r="AV11" s="3"/>
       <c r="AW11" s="1" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="AX11" s="14" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="AZ11" s="1" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="BB11" s="3"/>
       <c r="BC11" s="1" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="BD11" s="14" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="BE11" s="14" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="BF11" s="1" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="BU11" s="1" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="BV11" s="14" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="BX11" s="1" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="CA11" s="1" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="CB11" s="14" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="CD11" s="1" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="CG11" s="1" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="CH11" s="15" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="CJ11" s="1" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
     </row>
     <row r="12" spans="1:82">
       <c r="A12" s="1" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>76</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="N12" s="14" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="T12" s="14" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="U12" s="15" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="AE12" s="1" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="AF12" s="14" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="AH12" s="1" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="AJ12" s="3"/>
       <c r="AP12" s="3"/>
       <c r="AV12" s="3"/>
       <c r="AW12" s="1" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="AX12" s="14" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="AZ12" s="1" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="BB12" s="3"/>
       <c r="BC12" s="1" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="BD12" s="14" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="BE12" s="14" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="BF12" s="1" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="BU12" s="1" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="BV12" s="14" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="BX12" s="1" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="CA12" s="1" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="CB12" s="14" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="CD12" s="1" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
     </row>
     <row r="13" spans="7:82">
       <c r="G13" s="1" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="N13" s="14" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="S13" s="1" t="s">
         <v>103</v>
       </c>
       <c r="T13" s="14" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="AE13" s="1" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="AF13" s="14" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="AH13" s="1" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="AJ13" s="3"/>
       <c r="AP13" s="3"/>
       <c r="AV13" s="3"/>
       <c r="AW13" s="1" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="AX13" s="19" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="AZ13" s="1" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="BB13" s="3"/>
       <c r="BC13" s="1" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="BD13" s="14" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="BE13" s="14" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="BF13" s="1" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="BU13" s="1" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="BV13" s="14" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="BX13" s="1" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="CA13" s="1" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="CB13" s="14" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="CC13" s="14" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="CD13" s="1" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
     </row>
     <row r="14" spans="7:82">
       <c r="G14" s="1" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="N14" s="14" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="T14" s="14" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="AJ14" s="3"/>
       <c r="AP14" s="3"/>
       <c r="AV14" s="3"/>
       <c r="AW14" s="1" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="AX14" s="14" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="AY14" s="14" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="AZ14" s="1" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="BB14" s="3"/>
       <c r="BC14" s="1" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="BD14" s="14" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="BE14" s="14" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="BF14" s="1" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="BU14" s="1" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="BV14" s="14" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="BW14" s="14" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="BX14" s="1" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="CA14" s="1" t="s">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="CB14" s="14" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="CC14" s="15" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="CD14" s="1" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
     </row>
     <row r="15" spans="19:82">
       <c r="S15" s="1" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="T15" s="15" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="AJ15" s="3"/>
       <c r="AP15" s="3"/>
       <c r="AV15" s="3"/>
       <c r="AW15" s="1" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="AX15" s="14" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="AZ15" s="1" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="BB15" s="3"/>
       <c r="BU15" s="1" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="BV15" s="14" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="BX15" s="1" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="CA15" s="1" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="CB15" s="14" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="CD15" s="1" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
     </row>
     <row r="16" spans="19:82">
       <c r="S16" s="1" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="T16" s="14" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="AJ16" s="3"/>
       <c r="AP16" s="3"/>
       <c r="AV16" s="3"/>
       <c r="BB16" s="3"/>
       <c r="BU16" s="1" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="BV16" s="14" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="BW16" s="14" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="BX16" s="1" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="CA16" s="1" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="CB16" s="14" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="CC16" s="14" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="CD16" s="1" t="s">
-        <v>517</v>
+        <v>526</v>
       </c>
     </row>
     <row r="17" spans="19:82">
       <c r="S17" s="1" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="T17" s="14" t="s">
-        <v>519</v>
+        <v>528</v>
       </c>
       <c r="U17" s="14" t="s">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="AJ17" s="3"/>
       <c r="AP17" s="3"/>
@@ -5066,55 +5120,55 @@
       <c r="AX17" s="21"/>
       <c r="BB17" s="3"/>
       <c r="BU17" s="1" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="BV17" s="14" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
       <c r="BX17" s="1" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="CA17" s="1" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="CB17" s="14" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="CD17" s="1" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
     </row>
     <row r="18" spans="19:82">
       <c r="S18" s="1" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
       <c r="T18" s="14" t="s">
-        <v>529</v>
+        <v>538</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="AJ18" s="3"/>
       <c r="AP18" s="3"/>
       <c r="AV18" s="3"/>
       <c r="BB18" s="3"/>
       <c r="BU18" s="1" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="BV18" s="14" t="s">
-        <v>532</v>
+        <v>541</v>
       </c>
       <c r="BX18" s="1" t="s">
-        <v>533</v>
+        <v>542</v>
       </c>
       <c r="CA18" s="1" t="s">
-        <v>534</v>
+        <v>543</v>
       </c>
       <c r="CB18" s="14" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="CD18" s="1" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
     </row>
     <row r="19" spans="36:82">
@@ -5123,22 +5177,22 @@
       <c r="AV19" s="3"/>
       <c r="BB19" s="3"/>
       <c r="BU19" s="23" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="BV19" s="14" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="BX19" s="1" t="s">
-        <v>539</v>
+        <v>548</v>
       </c>
       <c r="CA19" s="1" t="s">
-        <v>540</v>
+        <v>549</v>
       </c>
       <c r="CB19" s="14" t="s">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="CD19" s="1" t="s">
-        <v>542</v>
+        <v>551</v>
       </c>
     </row>
     <row r="20" spans="36:82">
@@ -5147,22 +5201,22 @@
       <c r="AV20" s="3"/>
       <c r="BB20" s="3"/>
       <c r="BU20" s="1" t="s">
-        <v>543</v>
+        <v>552</v>
       </c>
       <c r="BV20" s="14" t="s">
-        <v>544</v>
+        <v>553</v>
       </c>
       <c r="BX20" s="1" t="s">
-        <v>545</v>
+        <v>554</v>
       </c>
       <c r="CA20" s="1" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="CB20" s="15" t="s">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="CD20" s="1" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
     </row>
     <row r="21" spans="36:82">
@@ -5171,25 +5225,25 @@
       <c r="AV21" s="3"/>
       <c r="BB21" s="3"/>
       <c r="BU21" s="1" t="s">
-        <v>549</v>
+        <v>558</v>
       </c>
       <c r="BV21" s="14" t="s">
-        <v>550</v>
+        <v>559</v>
       </c>
       <c r="BX21" s="1" t="s">
-        <v>551</v>
+        <v>560</v>
       </c>
       <c r="CA21" s="1" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="CB21" s="14" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="CC21" s="14" t="s">
-        <v>554</v>
+        <v>563</v>
       </c>
       <c r="CD21" s="1" t="s">
-        <v>555</v>
+        <v>564</v>
       </c>
     </row>
     <row r="22" spans="36:82">
@@ -5198,22 +5252,22 @@
       <c r="AV22" s="3"/>
       <c r="BB22" s="3"/>
       <c r="BU22" s="1" t="s">
-        <v>556</v>
+        <v>565</v>
       </c>
       <c r="BV22" s="14" t="s">
-        <v>557</v>
+        <v>566</v>
       </c>
       <c r="BX22" s="1" t="s">
-        <v>558</v>
+        <v>567</v>
       </c>
       <c r="CA22" s="1" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
       <c r="CB22" s="14" t="s">
-        <v>560</v>
+        <v>569</v>
       </c>
       <c r="CD22" s="1" t="s">
-        <v>561</v>
+        <v>570</v>
       </c>
     </row>
     <row r="23" spans="36:82">
@@ -5222,25 +5276,25 @@
       <c r="AV23" s="3"/>
       <c r="BB23" s="3"/>
       <c r="BU23" s="1" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="BV23" s="14" t="s">
-        <v>563</v>
+        <v>572</v>
       </c>
       <c r="BX23" s="1" t="s">
-        <v>564</v>
+        <v>573</v>
       </c>
       <c r="CA23" s="1" t="s">
-        <v>565</v>
+        <v>574</v>
       </c>
       <c r="CB23" s="14" t="s">
-        <v>566</v>
+        <v>575</v>
       </c>
       <c r="CC23" s="14" t="s">
-        <v>567</v>
+        <v>576</v>
       </c>
       <c r="CD23" s="1" t="s">
-        <v>568</v>
+        <v>577</v>
       </c>
     </row>
     <row r="24" spans="36:82">
@@ -5249,22 +5303,22 @@
       <c r="AV24" s="3"/>
       <c r="BB24" s="3"/>
       <c r="BU24" s="1" t="s">
-        <v>569</v>
+        <v>578</v>
       </c>
       <c r="BV24" s="14" t="s">
-        <v>570</v>
+        <v>579</v>
       </c>
       <c r="BX24" s="1" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="CA24" s="1" t="s">
-        <v>572</v>
+        <v>581</v>
       </c>
       <c r="CB24" s="14" t="s">
-        <v>573</v>
+        <v>582</v>
       </c>
       <c r="CD24" s="1" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
     </row>
     <row r="25" spans="36:82">
@@ -5273,65 +5327,65 @@
       <c r="AV25" s="3"/>
       <c r="BB25" s="3"/>
       <c r="BU25" s="1" t="s">
-        <v>575</v>
+        <v>584</v>
       </c>
       <c r="BV25" s="19" t="s">
-        <v>576</v>
+        <v>585</v>
       </c>
       <c r="BX25" s="1" t="s">
-        <v>577</v>
+        <v>586</v>
       </c>
       <c r="CA25" s="1" t="s">
-        <v>578</v>
+        <v>587</v>
       </c>
       <c r="CB25" s="14" t="s">
-        <v>579</v>
+        <v>588</v>
       </c>
       <c r="CD25" s="1" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
     </row>
     <row r="26" spans="73:82">
       <c r="BU26" s="1" t="s">
-        <v>581</v>
+        <v>590</v>
       </c>
       <c r="BV26" s="14" t="s">
-        <v>582</v>
+        <v>591</v>
       </c>
       <c r="BX26" s="1" t="s">
-        <v>583</v>
+        <v>592</v>
       </c>
       <c r="CA26" s="1" t="s">
-        <v>584</v>
+        <v>593</v>
       </c>
       <c r="CB26" s="14" t="s">
-        <v>585</v>
+        <v>594</v>
       </c>
       <c r="CC26" s="14" t="s">
-        <v>586</v>
+        <v>595</v>
       </c>
       <c r="CD26" s="1" t="s">
-        <v>587</v>
+        <v>596</v>
       </c>
     </row>
     <row r="27" spans="73:83">
       <c r="BU27" s="1" t="s">
-        <v>588</v>
+        <v>597</v>
       </c>
       <c r="BV27" s="14" t="s">
-        <v>589</v>
+        <v>598</v>
       </c>
       <c r="BX27" s="1" t="s">
-        <v>590</v>
+        <v>599</v>
       </c>
       <c r="CA27" s="1" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
       <c r="CB27" s="14" t="s">
-        <v>592</v>
+        <v>601</v>
       </c>
       <c r="CD27" s="1" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
       <c r="CE27" s="1" t="s">
         <v>71</v>
@@ -5339,85 +5393,85 @@
     </row>
     <row r="28" spans="79:82">
       <c r="CA28" s="1" t="s">
-        <v>594</v>
+        <v>603</v>
       </c>
       <c r="CB28" s="14" t="s">
-        <v>595</v>
+        <v>604</v>
       </c>
       <c r="CC28" s="14" t="s">
-        <v>596</v>
+        <v>605</v>
       </c>
       <c r="CD28" s="1" t="s">
-        <v>597</v>
+        <v>606</v>
       </c>
     </row>
     <row r="29" spans="79:82">
       <c r="CA29" s="1" t="s">
-        <v>598</v>
+        <v>607</v>
       </c>
       <c r="CB29" s="14" t="s">
-        <v>599</v>
+        <v>608</v>
       </c>
       <c r="CD29" s="1" t="s">
-        <v>597</v>
+        <v>606</v>
       </c>
     </row>
     <row r="30" spans="79:82">
       <c r="CA30" s="1" t="s">
-        <v>600</v>
+        <v>609</v>
       </c>
       <c r="CB30" s="14" t="s">
-        <v>601</v>
+        <v>610</v>
       </c>
       <c r="CD30" s="1" t="s">
-        <v>597</v>
+        <v>606</v>
       </c>
     </row>
     <row r="31" spans="79:82">
       <c r="CA31" s="1" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
       <c r="CB31" s="12" t="s">
-        <v>603</v>
+        <v>612</v>
       </c>
       <c r="CD31" s="1" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="32" spans="79:82">
       <c r="CA32" s="1" t="s">
-        <v>605</v>
+        <v>614</v>
       </c>
       <c r="CB32" s="14" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
       <c r="CD32" s="1" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
     </row>
     <row r="33" spans="79:82">
       <c r="CA33" s="1" t="s">
-        <v>608</v>
+        <v>617</v>
       </c>
       <c r="CB33" s="15" t="s">
-        <v>609</v>
+        <v>618</v>
       </c>
       <c r="CC33" s="14" t="s">
-        <v>610</v>
+        <v>619</v>
       </c>
       <c r="CD33" s="1" t="s">
-        <v>611</v>
+        <v>620</v>
       </c>
     </row>
     <row r="34" spans="79:82">
       <c r="CA34" s="1" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
       <c r="CB34" s="14" t="s">
-        <v>613</v>
+        <v>622</v>
       </c>
       <c r="CD34" s="1" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
     </row>
   </sheetData>
@@ -5667,6 +5721,12 @@
     <hyperlink ref="CB11" r:id="rId231" display="https://www.anthonyboyd.graphics"/>
     <hyperlink ref="H14" r:id="rId232" display="https://spline.design" tooltip="https://spline.design"/>
     <hyperlink ref="CB34" r:id="rId233" display="https://www.mingcute.com"/>
+    <hyperlink ref="AR5" r:id="rId234" display="https://c4dco.com"/>
+    <hyperlink ref="AT5" r:id="rId235" display="一酷C4D - 一酷让设计更酷一下，免费C4D资源网站下载！ (c4dco.com)" tooltip="https://c4dco.com/"/>
+    <hyperlink ref="AR6" r:id="rId236" display="http://cgka3d.com" tooltip="http://cgka3d.com"/>
+    <hyperlink ref="AT6" r:id="rId237" display="CG咖 - 精选全网 Blender插件 | 3D模型 | 预设等优质CG资源 (cgka3d.com)" tooltip="http://cgka3d.com/"/>
+    <hyperlink ref="AR7" r:id="rId238" display="https://c4dsky.com"/>
+    <hyperlink ref="AT7" r:id="rId239" display="C4DSKY|书生 AE模板 FCPX插件 CG教程 CG插件 CG软件 CG素材 CG论坛 免费下载" tooltip="https://c4dsky.com/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/2.xlsx
+++ b/2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="630">
   <si>
     <t>✨ 推荐网站</t>
   </si>
@@ -955,6 +955,15 @@
     <t>设宝网-设计师轻分享交流平台，设计素材分享，作品点评，插画、UI、字体设计师</t>
   </si>
   <si>
+    <t>Ai配色</t>
+  </si>
+  <si>
+    <t>https://aicolors.co</t>
+  </si>
+  <si>
+    <t>AI Color Palette Generator - Browse, Edit, Visualize and Generate Unique Palettes (aicolors.co)</t>
+  </si>
+  <si>
     <t>浏览器扩展插件商店</t>
   </si>
   <si>
@@ -1823,6 +1832,15 @@
   </si>
   <si>
     <t>字风华-最全最新的免费可商用中英文字体下载网站！</t>
+  </si>
+  <si>
+    <t>即时工具</t>
+  </si>
+  <si>
+    <t>https://www.67tool.com</t>
+  </si>
+  <si>
+    <t>即时工具-致力打造即用即走型在线工具箱 (67tool.com)</t>
   </si>
   <si>
     <t>猫啃网(免费字体)</t>
@@ -1897,10 +1915,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1959,7 +1977,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1972,15 +2034,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1988,7 +2059,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2011,68 +2082,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2081,6 +2092,13 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2101,19 +2119,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2125,13 +2161,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2149,7 +2185,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2161,97 +2221,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2269,19 +2245,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2292,6 +2310,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2312,17 +2348,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2339,17 +2368,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2372,8 +2390,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2400,10 +2418,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2412,16 +2430,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2433,112 +2451,112 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2936,8 +2954,8 @@
   <sheetPr/>
   <dimension ref="A1:CQ34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" topLeftCell="AN1" workbookViewId="0">
-      <selection activeCell="AR10" sqref="AR10"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AA9" sqref="AA9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4345,107 +4363,116 @@
       <c r="V8" s="1" t="s">
         <v>312</v>
       </c>
+      <c r="Y8" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="Z8" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>315</v>
+      </c>
       <c r="AE8" s="1" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="AF8" s="14" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="AH8" s="1" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="AJ8" s="3"/>
       <c r="AP8" s="3"/>
       <c r="AV8" s="3"/>
       <c r="AW8" s="1" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="AX8" s="14" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="AY8" s="14" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="AZ8" s="1" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="BB8" s="3"/>
       <c r="BC8" s="1" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="BD8" s="14" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="BE8" s="14" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="BF8" s="1" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="BU8" s="1" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="BV8" s="15" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="BW8" s="14" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="BX8" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="CA8" s="1" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="CB8" s="14" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="CD8" s="1" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="CG8" s="1" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="CH8" s="14" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="CI8" s="14" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="CJ8" s="1" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="CK8" s="1" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="9" ht="18.75" spans="1:88">
       <c r="A9" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>335</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>332</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>333</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>88</v>
@@ -4461,77 +4488,77 @@
       </c>
       <c r="Q9" s="10"/>
       <c r="S9" s="1" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="T9" s="15" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="U9" s="15" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="AE9" s="1" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="AF9" s="14" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="AH9" s="1" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="AJ9" s="3"/>
       <c r="AP9" s="3"/>
       <c r="AV9" s="3"/>
       <c r="AW9" s="1" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="AX9" s="14" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="AY9" s="14" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="AZ9" s="1" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="BB9" s="3"/>
       <c r="BC9" s="1" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="BD9" s="14" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="BE9" s="14" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="BF9" s="1" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="BU9" s="1" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="BV9" s="14" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="BX9" s="1" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="CA9" s="1" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="CB9" s="14" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="CD9" s="1" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="CG9" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="CH9" s="14" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="CJ9" s="1" t="s">
         <v>296</v>
@@ -4542,104 +4569,104 @@
         <v>254</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="N10" s="14" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="T10" s="14" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="U10" s="14" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="AE10" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="AF10" s="14" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="AH10" s="1" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="AJ10" s="3"/>
       <c r="AP10" s="3"/>
       <c r="AV10" s="3"/>
       <c r="AW10" s="1" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="AX10" s="14" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="AZ10" s="1" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="BB10" s="3"/>
       <c r="BC10" s="1" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="BD10" s="14" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="BE10" s="14" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="BF10" s="1" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="BG10" s="1" t="s">
         <v>71</v>
       </c>
       <c r="BU10" s="1" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="BV10" s="14" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="BX10" s="1" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="CA10" s="1" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="CB10" s="15" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="CD10" s="1" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="CG10" s="1" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="CH10" s="14" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="CJ10" s="1" t="s">
         <v>296</v>
@@ -4647,55 +4674,55 @@
     </row>
     <row r="11" spans="1:88">
       <c r="A11" s="1" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>71</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="N11" s="14" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="T11" s="14" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="AE11" s="1" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="AF11" s="14" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="AH11" s="1" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="AI11" s="1" t="s">
         <v>71</v>
@@ -4704,50 +4731,50 @@
       <c r="AP11" s="3"/>
       <c r="AV11" s="3"/>
       <c r="AW11" s="1" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="AX11" s="14" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="AZ11" s="1" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="BB11" s="3"/>
       <c r="BC11" s="1" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="BD11" s="14" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="BE11" s="14" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="BF11" s="1" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="BU11" s="1" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="BV11" s="14" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="BX11" s="1" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="CA11" s="1" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="CB11" s="14" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="CD11" s="1" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="CG11" s="1" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="CH11" s="15" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="CJ11" s="1" t="s">
         <v>296</v>
@@ -4755,364 +4782,364 @@
     </row>
     <row r="12" spans="1:82">
       <c r="A12" s="1" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>76</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="N12" s="14" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="T12" s="14" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="U12" s="15" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="AE12" s="1" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="AF12" s="14" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="AH12" s="1" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="AJ12" s="3"/>
       <c r="AP12" s="3"/>
       <c r="AV12" s="3"/>
       <c r="AW12" s="1" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="AX12" s="14" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="AZ12" s="1" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="BB12" s="3"/>
       <c r="BC12" s="1" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="BD12" s="14" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="BE12" s="14" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="BF12" s="1" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="BU12" s="1" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="BV12" s="14" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="BX12" s="1" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="CA12" s="1" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="CB12" s="14" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="CD12" s="1" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
     </row>
     <row r="13" spans="7:82">
       <c r="G13" s="1" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="N13" s="14" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="S13" s="1" t="s">
         <v>103</v>
       </c>
       <c r="T13" s="14" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="AE13" s="1" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="AF13" s="14" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="AH13" s="1" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="AJ13" s="3"/>
       <c r="AP13" s="3"/>
       <c r="AV13" s="3"/>
       <c r="AW13" s="1" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="AX13" s="19" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="AZ13" s="1" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="BB13" s="3"/>
       <c r="BC13" s="1" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="BD13" s="14" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="BE13" s="14" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="BF13" s="1" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="BU13" s="1" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="BV13" s="14" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="BX13" s="1" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="CA13" s="1" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="CB13" s="14" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="CC13" s="14" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="CD13" s="1" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
     </row>
     <row r="14" spans="7:82">
       <c r="G14" s="1" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="N14" s="14" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="T14" s="14" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="AJ14" s="3"/>
       <c r="AP14" s="3"/>
       <c r="AV14" s="3"/>
       <c r="AW14" s="1" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="AX14" s="14" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="AY14" s="14" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="AZ14" s="1" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="BB14" s="3"/>
       <c r="BC14" s="1" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="BD14" s="14" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="BE14" s="14" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="BF14" s="1" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="BU14" s="1" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="BV14" s="14" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="BW14" s="14" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="BX14" s="1" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="CA14" s="1" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="CB14" s="14" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="CC14" s="15" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="CD14" s="1" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
     </row>
     <row r="15" spans="19:82">
       <c r="S15" s="1" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="T15" s="15" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="AJ15" s="3"/>
       <c r="AP15" s="3"/>
       <c r="AV15" s="3"/>
       <c r="AW15" s="1" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="AX15" s="14" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="AZ15" s="1" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="BB15" s="3"/>
       <c r="BU15" s="1" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="BV15" s="14" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="BX15" s="1" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="CA15" s="1" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="CB15" s="14" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="CD15" s="1" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
     </row>
     <row r="16" spans="19:82">
       <c r="S16" s="1" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="T16" s="14" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="AJ16" s="3"/>
       <c r="AP16" s="3"/>
       <c r="AV16" s="3"/>
       <c r="BB16" s="3"/>
       <c r="BU16" s="1" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="BV16" s="14" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="BW16" s="14" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="BX16" s="1" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="CA16" s="1" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="CB16" s="14" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="CC16" s="14" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="CD16" s="1" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
     </row>
     <row r="17" spans="19:82">
       <c r="S17" s="1" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="T17" s="14" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="U17" s="14" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="AJ17" s="3"/>
       <c r="AP17" s="3"/>
@@ -5120,55 +5147,55 @@
       <c r="AX17" s="21"/>
       <c r="BB17" s="3"/>
       <c r="BU17" s="1" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="BV17" s="14" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="BX17" s="1" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="CA17" s="1" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="CB17" s="14" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="CD17" s="1" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
     </row>
     <row r="18" spans="19:82">
       <c r="S18" s="1" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="T18" s="14" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="AJ18" s="3"/>
       <c r="AP18" s="3"/>
       <c r="AV18" s="3"/>
       <c r="BB18" s="3"/>
       <c r="BU18" s="1" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="BV18" s="14" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="BX18" s="1" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="CA18" s="1" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="CB18" s="14" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="CD18" s="1" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
     </row>
     <row r="19" spans="36:82">
@@ -5177,22 +5204,22 @@
       <c r="AV19" s="3"/>
       <c r="BB19" s="3"/>
       <c r="BU19" s="23" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="BV19" s="14" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="BX19" s="1" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="CA19" s="1" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="CB19" s="14" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="CD19" s="1" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="20" spans="36:82">
@@ -5201,22 +5228,22 @@
       <c r="AV20" s="3"/>
       <c r="BB20" s="3"/>
       <c r="BU20" s="1" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="BV20" s="14" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="BX20" s="1" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="CA20" s="1" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="CB20" s="15" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="CD20" s="1" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="21" spans="36:82">
@@ -5225,25 +5252,25 @@
       <c r="AV21" s="3"/>
       <c r="BB21" s="3"/>
       <c r="BU21" s="1" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="BV21" s="14" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="BX21" s="1" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="CA21" s="1" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="CB21" s="14" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="CC21" s="14" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="CD21" s="1" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="22" spans="36:82">
@@ -5252,22 +5279,22 @@
       <c r="AV22" s="3"/>
       <c r="BB22" s="3"/>
       <c r="BU22" s="1" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="BV22" s="14" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="BX22" s="1" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="CA22" s="1" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="CB22" s="14" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="CD22" s="1" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="23" spans="36:82">
@@ -5276,25 +5303,25 @@
       <c r="AV23" s="3"/>
       <c r="BB23" s="3"/>
       <c r="BU23" s="1" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="BV23" s="14" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="BX23" s="1" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="CA23" s="1" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="CB23" s="14" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="CC23" s="14" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="CD23" s="1" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="24" spans="36:82">
@@ -5303,22 +5330,22 @@
       <c r="AV24" s="3"/>
       <c r="BB24" s="3"/>
       <c r="BU24" s="1" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="BV24" s="14" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="BX24" s="1" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="CA24" s="1" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="CB24" s="14" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="CD24" s="1" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
     </row>
     <row r="25" spans="36:82">
@@ -5327,151 +5354,160 @@
       <c r="AV25" s="3"/>
       <c r="BB25" s="3"/>
       <c r="BU25" s="1" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="BV25" s="19" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="BX25" s="1" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="CA25" s="1" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="CB25" s="14" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="CD25" s="1" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
     </row>
     <row r="26" spans="73:82">
       <c r="BU26" s="1" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="BV26" s="14" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="BX26" s="1" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="CA26" s="1" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="CB26" s="14" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="CC26" s="14" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="CD26" s="1" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="27" spans="73:83">
       <c r="BU27" s="1" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="BV27" s="14" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="BX27" s="1" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="CA27" s="1" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="CB27" s="14" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="CD27" s="1" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="CE27" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="79:82">
+    <row r="28" spans="73:82">
+      <c r="BU28" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="BV28" s="14" t="s">
+        <v>607</v>
+      </c>
+      <c r="BX28" t="s">
+        <v>608</v>
+      </c>
       <c r="CA28" s="1" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="CB28" s="14" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="CC28" s="14" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="CD28" s="1" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
     </row>
     <row r="29" spans="79:82">
       <c r="CA29" s="1" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="CB29" s="14" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="CD29" s="1" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
     </row>
     <row r="30" spans="79:82">
       <c r="CA30" s="1" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="CB30" s="14" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="CD30" s="1" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
     </row>
     <row r="31" spans="79:82">
       <c r="CA31" s="1" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="CB31" s="12" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="CD31" s="1" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
     </row>
     <row r="32" spans="79:82">
       <c r="CA32" s="1" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="CB32" s="14" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="CD32" s="1" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
     </row>
     <row r="33" spans="79:82">
       <c r="CA33" s="1" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="CB33" s="15" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="CC33" s="14" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="CD33" s="1" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
     </row>
     <row r="34" spans="79:82">
       <c r="CA34" s="1" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="CB34" s="14" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="CD34" s="1" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
   </sheetData>
@@ -5727,6 +5763,10 @@
     <hyperlink ref="AT6" r:id="rId237" display="CG咖 - 精选全网 Blender插件 | 3D模型 | 预设等优质CG资源 (cgka3d.com)" tooltip="http://cgka3d.com/"/>
     <hyperlink ref="AR7" r:id="rId238" display="https://c4dsky.com"/>
     <hyperlink ref="AT7" r:id="rId239" display="C4DSKY|书生 AE模板 FCPX插件 CG教程 CG插件 CG软件 CG素材 CG论坛 免费下载" tooltip="https://c4dsky.com/"/>
+    <hyperlink ref="BV28" r:id="rId240" display="https://www.67tool.com"/>
+    <hyperlink ref="BX28" r:id="rId241" display="即时工具-致力打造即用即走型在线工具箱 (67tool.com)" tooltip="https://www.67tool.com/"/>
+    <hyperlink ref="Z8" r:id="rId242" display="https://aicolors.co"/>
+    <hyperlink ref="AB8" r:id="rId243" display="AI Color Palette Generator - Browse, Edit, Visualize and Generate Unique Palettes (aicolors.co)" tooltip="https://aicolors.co/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/2.xlsx
+++ b/2.xlsx
@@ -961,7 +961,7 @@
     <t>https://aicolors.co</t>
   </si>
   <si>
-    <t>AI Color Palette Generator - Browse, Edit, Visualize and Generate Unique Palettes (aicolors.co)</t>
+    <t>👍ai配色，UI手机app配色，pc软件配色</t>
   </si>
   <si>
     <t>浏览器扩展插件商店</t>
@@ -1915,10 +1915,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1977,35 +1977,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -2013,22 +1984,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2050,8 +2006,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2059,7 +2030,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2073,11 +2052,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2089,16 +2081,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2119,7 +2119,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2131,13 +2143,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2149,43 +2245,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2197,7 +2263,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2209,91 +2287,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2313,24 +2313,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2342,6 +2324,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2372,26 +2363,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2410,6 +2386,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2418,10 +2418,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2430,133 +2430,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2955,7 +2955,7 @@
   <dimension ref="A1:CQ34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AA9" sqref="AA9"/>
+      <selection activeCell="Y11" sqref="Y11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5766,7 +5766,7 @@
     <hyperlink ref="BV28" r:id="rId240" display="https://www.67tool.com"/>
     <hyperlink ref="BX28" r:id="rId241" display="即时工具-致力打造即用即走型在线工具箱 (67tool.com)" tooltip="https://www.67tool.com/"/>
     <hyperlink ref="Z8" r:id="rId242" display="https://aicolors.co"/>
-    <hyperlink ref="AB8" r:id="rId243" display="AI Color Palette Generator - Browse, Edit, Visualize and Generate Unique Palettes (aicolors.co)" tooltip="https://aicolors.co/"/>
+    <hyperlink ref="AB8" r:id="rId243" display="👍ai配色，UI手机app配色，pc软件配色" tooltip="https://aicolors.co/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/2.xlsx
+++ b/2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="13725" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="633">
   <si>
     <t>✨ 推荐网站</t>
   </si>
@@ -1391,6 +1391,15 @@
   </si>
   <si>
     <t>MockDrop | 在线生成免费样机模型界面</t>
+  </si>
+  <si>
+    <t>万方查重✨</t>
+  </si>
+  <si>
+    <t>https://chsi.wanfangtech.net</t>
+  </si>
+  <si>
+    <t>应届毕业生享万方免费查重一次</t>
   </si>
   <si>
     <t>Xmind</t>
@@ -1915,8 +1924,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -1983,8 +1992,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1992,17 +2025,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2022,38 +2047,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2066,6 +2060,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -2082,16 +2092,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2119,13 +2128,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2143,7 +2152,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2155,25 +2206,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2185,13 +2218,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2203,13 +2230,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2227,25 +2272,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2257,7 +2284,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2269,37 +2308,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2310,6 +2319,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2324,26 +2366,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2389,24 +2411,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2418,10 +2427,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2430,133 +2439,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2954,8 +2963,8 @@
   <sheetPr/>
   <dimension ref="A1:CQ34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="Y11" sqref="Y11"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="CG1" workbookViewId="0">
+      <selection activeCell="CI14" sqref="CI14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4780,7 +4789,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="12" spans="1:82">
+    <row r="12" spans="1:88">
       <c r="A12" s="1" t="s">
         <v>429</v>
       </c>
@@ -4878,268 +4887,277 @@
       <c r="CD12" s="1" t="s">
         <v>458</v>
       </c>
+      <c r="CG12" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="CH12" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="CJ12" s="1" t="s">
+        <v>461</v>
+      </c>
     </row>
     <row r="13" spans="7:82">
       <c r="G13" s="1" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="N13" s="14" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="S13" s="1" t="s">
         <v>103</v>
       </c>
       <c r="T13" s="14" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="AE13" s="1" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="AF13" s="14" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="AH13" s="1" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="AJ13" s="3"/>
       <c r="AP13" s="3"/>
       <c r="AV13" s="3"/>
       <c r="AW13" s="1" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="AX13" s="19" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="AZ13" s="1" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="BB13" s="3"/>
       <c r="BC13" s="1" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="BD13" s="14" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="BE13" s="14" t="s">
         <v>388</v>
       </c>
       <c r="BF13" s="1" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="BU13" s="1" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="BV13" s="14" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="BX13" s="1" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="CA13" s="1" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="CB13" s="14" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="CC13" s="14" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="CD13" s="1" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
     </row>
     <row r="14" spans="7:82">
       <c r="G14" s="1" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="N14" s="14" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="T14" s="14" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="AJ14" s="3"/>
       <c r="AP14" s="3"/>
       <c r="AV14" s="3"/>
       <c r="AW14" s="1" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="AX14" s="14" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="AY14" s="14" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="AZ14" s="1" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="BB14" s="3"/>
       <c r="BC14" s="1" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="BD14" s="14" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="BE14" s="14" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="BF14" s="1" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="BU14" s="1" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="BV14" s="14" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="BW14" s="14" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="BX14" s="1" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="CA14" s="1" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="CB14" s="14" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="CC14" s="15" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="CD14" s="1" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
     </row>
     <row r="15" spans="19:82">
       <c r="S15" s="1" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="T15" s="15" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="AJ15" s="3"/>
       <c r="AP15" s="3"/>
       <c r="AV15" s="3"/>
       <c r="AW15" s="1" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="AX15" s="14" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="AZ15" s="1" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="BB15" s="3"/>
       <c r="BU15" s="1" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="BV15" s="14" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="BX15" s="1" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="CA15" s="1" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="CB15" s="14" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="CD15" s="1" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
     </row>
     <row r="16" spans="19:82">
       <c r="S16" s="1" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="T16" s="14" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="AJ16" s="3"/>
       <c r="AP16" s="3"/>
       <c r="AV16" s="3"/>
       <c r="BB16" s="3"/>
       <c r="BU16" s="1" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="BV16" s="14" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="BW16" s="14" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="BX16" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="CA16" s="1" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="CB16" s="14" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="CC16" s="14" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="CD16" s="1" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
     </row>
     <row r="17" spans="19:82">
       <c r="S17" s="1" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="T17" s="14" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="U17" s="14" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="AJ17" s="3"/>
       <c r="AP17" s="3"/>
@@ -5147,55 +5165,55 @@
       <c r="AX17" s="21"/>
       <c r="BB17" s="3"/>
       <c r="BU17" s="1" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="BV17" s="14" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="BX17" s="1" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="CA17" s="1" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="CB17" s="14" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="CD17" s="1" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
     </row>
     <row r="18" spans="19:82">
       <c r="S18" s="1" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="T18" s="14" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="AJ18" s="3"/>
       <c r="AP18" s="3"/>
       <c r="AV18" s="3"/>
       <c r="BB18" s="3"/>
       <c r="BU18" s="1" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="BV18" s="14" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="BX18" s="1" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="CA18" s="1" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="CB18" s="14" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="CD18" s="1" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="19" spans="36:82">
@@ -5204,22 +5222,22 @@
       <c r="AV19" s="3"/>
       <c r="BB19" s="3"/>
       <c r="BU19" s="23" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="BV19" s="14" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="BX19" s="1" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="CA19" s="1" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="CB19" s="14" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="CD19" s="1" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="20" spans="36:82">
@@ -5228,22 +5246,22 @@
       <c r="AV20" s="3"/>
       <c r="BB20" s="3"/>
       <c r="BU20" s="1" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="BV20" s="14" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="BX20" s="1" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="CA20" s="1" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="CB20" s="15" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="CD20" s="1" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="21" spans="36:82">
@@ -5252,25 +5270,25 @@
       <c r="AV21" s="3"/>
       <c r="BB21" s="3"/>
       <c r="BU21" s="1" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="BV21" s="14" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="BX21" s="1" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="CA21" s="1" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="CB21" s="14" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="CC21" s="14" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="CD21" s="1" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="22" spans="36:82">
@@ -5279,22 +5297,22 @@
       <c r="AV22" s="3"/>
       <c r="BB22" s="3"/>
       <c r="BU22" s="1" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="BV22" s="14" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="BX22" s="1" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="CA22" s="1" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="CB22" s="14" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="CD22" s="1" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="23" spans="36:82">
@@ -5303,25 +5321,25 @@
       <c r="AV23" s="3"/>
       <c r="BB23" s="3"/>
       <c r="BU23" s="1" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="BV23" s="14" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="BX23" s="1" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="CA23" s="1" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="CB23" s="14" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="CC23" s="14" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="CD23" s="1" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="24" spans="36:82">
@@ -5330,22 +5348,22 @@
       <c r="AV24" s="3"/>
       <c r="BB24" s="3"/>
       <c r="BU24" s="1" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="BV24" s="14" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="BX24" s="1" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="CA24" s="1" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="CB24" s="14" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="CD24" s="1" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
     </row>
     <row r="25" spans="36:82">
@@ -5354,65 +5372,65 @@
       <c r="AV25" s="3"/>
       <c r="BB25" s="3"/>
       <c r="BU25" s="1" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="BV25" s="19" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="BX25" s="1" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="CA25" s="1" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="CB25" s="14" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="CD25" s="1" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
     </row>
     <row r="26" spans="73:82">
       <c r="BU26" s="1" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="BV26" s="14" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="BX26" s="1" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="CA26" s="1" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="CB26" s="14" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="CC26" s="14" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="CD26" s="1" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="27" spans="73:83">
       <c r="BU27" s="1" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="BV27" s="14" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="BX27" s="1" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="CA27" s="1" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="CB27" s="14" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="CD27" s="1" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="CE27" s="1" t="s">
         <v>71</v>
@@ -5420,94 +5438,94 @@
     </row>
     <row r="28" spans="73:82">
       <c r="BU28" s="1" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="BV28" s="14" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="BX28" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="CA28" s="1" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="CB28" s="14" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="CC28" s="14" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="CD28" s="1" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="29" spans="79:82">
       <c r="CA29" s="1" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="CB29" s="14" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="CD29" s="1" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="30" spans="79:82">
       <c r="CA30" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="CB30" s="14" t="s">
+        <v>619</v>
+      </c>
+      <c r="CD30" s="1" t="s">
         <v>615</v>
-      </c>
-      <c r="CB30" s="14" t="s">
-        <v>616</v>
-      </c>
-      <c r="CD30" s="1" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="31" spans="79:82">
       <c r="CA31" s="1" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="CB31" s="12" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="CD31" s="1" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="32" spans="79:82">
       <c r="CA32" s="1" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="CB32" s="14" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="CD32" s="1" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
     </row>
     <row r="33" spans="79:82">
       <c r="CA33" s="1" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="CB33" s="15" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="CC33" s="14" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="CD33" s="1" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
     </row>
     <row r="34" spans="79:82">
       <c r="CA34" s="1" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="CB34" s="14" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="CD34" s="1" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
     </row>
   </sheetData>
@@ -5767,6 +5785,7 @@
     <hyperlink ref="BX28" r:id="rId241" display="即时工具-致力打造即用即走型在线工具箱 (67tool.com)" tooltip="https://www.67tool.com/"/>
     <hyperlink ref="Z8" r:id="rId242" display="https://aicolors.co"/>
     <hyperlink ref="AB8" r:id="rId243" display="👍ai配色，UI手机app配色，pc软件配色" tooltip="https://aicolors.co/"/>
+    <hyperlink ref="CH12" r:id="rId244" display="https://chsi.wanfangtech.net"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/2.xlsx
+++ b/2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13725" windowHeight="12390"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="642">
   <si>
     <t>✨ 推荐网站</t>
   </si>
@@ -1300,7 +1300,7 @@
     <t>免费论文查重-4</t>
   </si>
   <si>
-    <t>http://www.paperfree.cn/freeActivity/index.html</t>
+    <t>http://www.paperfree.cn</t>
   </si>
   <si>
     <t>文件传输网页(免注册)</t>
@@ -1402,6 +1402,15 @@
     <t>应届毕业生享万方免费查重一次</t>
   </si>
   <si>
+    <t>本站AI导航</t>
+  </si>
+  <si>
+    <t>https://ai.1nav.ml</t>
+  </si>
+  <si>
+    <t>AI绘画爱好者制作，方便自己和朋友而存在的一个ai绘画导航网站</t>
+  </si>
+  <si>
     <t>Xmind</t>
   </si>
   <si>
@@ -1474,6 +1483,15 @@
     <t>云米创意,素材,原创设计,创意平台,psd素材,贴图素材,高清素材</t>
   </si>
   <si>
+    <t>PaperOK</t>
+  </si>
+  <si>
+    <t>https://www.paperok.com</t>
+  </si>
+  <si>
+    <t>PaperOK论文查重 - 专注免费论文查重，论文查重免费，不限类型</t>
+  </si>
+  <si>
     <t>Spline (中文版前+cn.)</t>
   </si>
   <si>
@@ -1499,6 +1517,15 @@
   </si>
   <si>
     <t>系列设计作品开放平台</t>
+  </si>
+  <si>
+    <t>新CG儿</t>
+  </si>
+  <si>
+    <t>https://www.newcger.com</t>
+  </si>
+  <si>
+    <t>新CG儿 - 数字视觉分享平台 | AE模板_视频素材_免费下载 (newcger.com)</t>
   </si>
   <si>
     <t>滚动截屏</t>
@@ -1924,9 +1951,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -1986,7 +2013,75 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2008,6 +2103,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -2017,15 +2119,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2040,74 +2134,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2128,7 +2155,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2140,13 +2185,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2158,13 +2215,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2176,43 +2251,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2230,13 +2281,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2254,37 +2305,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2296,19 +2329,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2322,15 +2349,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2341,6 +2359,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -2370,6 +2403,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2393,32 +2446,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2427,10 +2454,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2439,16 +2466,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2460,112 +2487,112 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2963,8 +2990,8 @@
   <sheetPr/>
   <dimension ref="A1:CQ34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="CG1" workbookViewId="0">
-      <selection activeCell="CI14" sqref="CI14"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4897,267 +4924,294 @@
         <v>461</v>
       </c>
     </row>
-    <row r="13" spans="7:82">
+    <row r="13" spans="1:88">
+      <c r="A13" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>463</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>464</v>
+      </c>
       <c r="G13" s="1" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="N13" s="14" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="S13" s="1" t="s">
         <v>103</v>
       </c>
       <c r="T13" s="14" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="AE13" s="1" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="AF13" s="14" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="AH13" s="1" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="AJ13" s="3"/>
       <c r="AP13" s="3"/>
       <c r="AV13" s="3"/>
       <c r="AW13" s="1" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="AX13" s="19" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="AZ13" s="1" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="BB13" s="3"/>
       <c r="BC13" s="1" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="BD13" s="14" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="BE13" s="14" t="s">
         <v>388</v>
       </c>
       <c r="BF13" s="1" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="BU13" s="1" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="BV13" s="14" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="BX13" s="1" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="CA13" s="1" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="CB13" s="14" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="CC13" s="14" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="CD13" s="1" t="s">
-        <v>485</v>
+        <v>488</v>
+      </c>
+      <c r="CG13" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="CH13" s="14" t="s">
+        <v>490</v>
+      </c>
+      <c r="CJ13" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="14" spans="7:82">
       <c r="G14" s="1" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="N14" s="14" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="T14" s="14" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>494</v>
+        <v>500</v>
+      </c>
+      <c r="AE14" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="AF14" s="14" t="s">
+        <v>502</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>503</v>
       </c>
       <c r="AJ14" s="3"/>
       <c r="AP14" s="3"/>
       <c r="AV14" s="3"/>
       <c r="AW14" s="1" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="AX14" s="14" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="AY14" s="14" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="AZ14" s="1" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="BB14" s="3"/>
       <c r="BC14" s="1" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="BD14" s="14" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="BE14" s="14" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="BF14" s="1" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="BU14" s="1" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="BV14" s="14" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="BW14" s="14" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="BX14" s="1" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="CA14" s="1" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="CB14" s="14" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="CC14" s="15" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="CD14" s="1" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
     </row>
     <row r="15" spans="19:82">
       <c r="S15" s="1" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="T15" s="15" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="AJ15" s="3"/>
       <c r="AP15" s="3"/>
       <c r="AV15" s="3"/>
       <c r="AW15" s="1" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="AX15" s="14" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="AZ15" s="1" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="BB15" s="3"/>
       <c r="BU15" s="1" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="BV15" s="14" t="s">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="BX15" s="1" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="CA15" s="1" t="s">
-        <v>519</v>
+        <v>528</v>
       </c>
       <c r="CB15" s="14" t="s">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="CD15" s="1" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
     </row>
     <row r="16" spans="19:82">
       <c r="S16" s="1" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="T16" s="14" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="AJ16" s="3"/>
       <c r="AP16" s="3"/>
       <c r="AV16" s="3"/>
       <c r="BB16" s="3"/>
       <c r="BU16" s="1" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="BV16" s="14" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="BW16" s="14" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="BX16" s="1" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
       <c r="CA16" s="1" t="s">
-        <v>529</v>
+        <v>538</v>
       </c>
       <c r="CB16" s="14" t="s">
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="CC16" s="14" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="CD16" s="1" t="s">
-        <v>532</v>
+        <v>541</v>
       </c>
     </row>
     <row r="17" spans="19:82">
       <c r="S17" s="1" t="s">
-        <v>533</v>
+        <v>542</v>
       </c>
       <c r="T17" s="14" t="s">
-        <v>534</v>
+        <v>543</v>
       </c>
       <c r="U17" s="14" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="AJ17" s="3"/>
       <c r="AP17" s="3"/>
@@ -5165,55 +5219,55 @@
       <c r="AX17" s="21"/>
       <c r="BB17" s="3"/>
       <c r="BU17" s="1" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="BV17" s="14" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="BX17" s="1" t="s">
-        <v>539</v>
+        <v>548</v>
       </c>
       <c r="CA17" s="1" t="s">
-        <v>540</v>
+        <v>549</v>
       </c>
       <c r="CB17" s="14" t="s">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="CD17" s="1" t="s">
-        <v>542</v>
+        <v>551</v>
       </c>
     </row>
     <row r="18" spans="19:82">
       <c r="S18" s="1" t="s">
-        <v>543</v>
+        <v>552</v>
       </c>
       <c r="T18" s="14" t="s">
-        <v>544</v>
+        <v>553</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>545</v>
+        <v>554</v>
       </c>
       <c r="AJ18" s="3"/>
       <c r="AP18" s="3"/>
       <c r="AV18" s="3"/>
       <c r="BB18" s="3"/>
       <c r="BU18" s="1" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="BV18" s="14" t="s">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="BX18" s="1" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="CA18" s="1" t="s">
-        <v>549</v>
+        <v>558</v>
       </c>
       <c r="CB18" s="14" t="s">
-        <v>550</v>
+        <v>559</v>
       </c>
       <c r="CD18" s="1" t="s">
-        <v>551</v>
+        <v>560</v>
       </c>
     </row>
     <row r="19" spans="36:82">
@@ -5222,22 +5276,22 @@
       <c r="AV19" s="3"/>
       <c r="BB19" s="3"/>
       <c r="BU19" s="23" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="BV19" s="14" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="BX19" s="1" t="s">
-        <v>554</v>
+        <v>563</v>
       </c>
       <c r="CA19" s="1" t="s">
-        <v>555</v>
+        <v>564</v>
       </c>
       <c r="CB19" s="14" t="s">
-        <v>556</v>
+        <v>565</v>
       </c>
       <c r="CD19" s="1" t="s">
-        <v>557</v>
+        <v>566</v>
       </c>
     </row>
     <row r="20" spans="36:82">
@@ -5246,22 +5300,22 @@
       <c r="AV20" s="3"/>
       <c r="BB20" s="3"/>
       <c r="BU20" s="1" t="s">
-        <v>558</v>
+        <v>567</v>
       </c>
       <c r="BV20" s="14" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
       <c r="BX20" s="1" t="s">
-        <v>560</v>
+        <v>569</v>
       </c>
       <c r="CA20" s="1" t="s">
-        <v>561</v>
+        <v>570</v>
       </c>
       <c r="CB20" s="15" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="CD20" s="1" t="s">
-        <v>563</v>
+        <v>572</v>
       </c>
     </row>
     <row r="21" spans="36:82">
@@ -5270,25 +5324,25 @@
       <c r="AV21" s="3"/>
       <c r="BB21" s="3"/>
       <c r="BU21" s="1" t="s">
-        <v>564</v>
+        <v>573</v>
       </c>
       <c r="BV21" s="14" t="s">
-        <v>565</v>
+        <v>574</v>
       </c>
       <c r="BX21" s="1" t="s">
-        <v>566</v>
+        <v>575</v>
       </c>
       <c r="CA21" s="1" t="s">
-        <v>567</v>
+        <v>576</v>
       </c>
       <c r="CB21" s="14" t="s">
-        <v>568</v>
+        <v>577</v>
       </c>
       <c r="CC21" s="14" t="s">
-        <v>569</v>
+        <v>578</v>
       </c>
       <c r="CD21" s="1" t="s">
-        <v>570</v>
+        <v>579</v>
       </c>
     </row>
     <row r="22" spans="36:82">
@@ -5297,22 +5351,22 @@
       <c r="AV22" s="3"/>
       <c r="BB22" s="3"/>
       <c r="BU22" s="1" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="BV22" s="14" t="s">
-        <v>572</v>
+        <v>581</v>
       </c>
       <c r="BX22" s="1" t="s">
-        <v>573</v>
+        <v>582</v>
       </c>
       <c r="CA22" s="1" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
       <c r="CB22" s="14" t="s">
-        <v>575</v>
+        <v>584</v>
       </c>
       <c r="CD22" s="1" t="s">
-        <v>576</v>
+        <v>585</v>
       </c>
     </row>
     <row r="23" spans="36:82">
@@ -5321,25 +5375,25 @@
       <c r="AV23" s="3"/>
       <c r="BB23" s="3"/>
       <c r="BU23" s="1" t="s">
-        <v>577</v>
+        <v>586</v>
       </c>
       <c r="BV23" s="14" t="s">
-        <v>578</v>
+        <v>587</v>
       </c>
       <c r="BX23" s="1" t="s">
-        <v>579</v>
+        <v>588</v>
       </c>
       <c r="CA23" s="1" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="CB23" s="14" t="s">
-        <v>581</v>
+        <v>590</v>
       </c>
       <c r="CC23" s="14" t="s">
-        <v>582</v>
+        <v>591</v>
       </c>
       <c r="CD23" s="1" t="s">
-        <v>583</v>
+        <v>592</v>
       </c>
     </row>
     <row r="24" spans="36:82">
@@ -5348,22 +5402,22 @@
       <c r="AV24" s="3"/>
       <c r="BB24" s="3"/>
       <c r="BU24" s="1" t="s">
-        <v>584</v>
+        <v>593</v>
       </c>
       <c r="BV24" s="14" t="s">
-        <v>585</v>
+        <v>594</v>
       </c>
       <c r="BX24" s="1" t="s">
-        <v>586</v>
+        <v>595</v>
       </c>
       <c r="CA24" s="1" t="s">
-        <v>587</v>
+        <v>596</v>
       </c>
       <c r="CB24" s="14" t="s">
-        <v>588</v>
+        <v>597</v>
       </c>
       <c r="CD24" s="1" t="s">
-        <v>589</v>
+        <v>598</v>
       </c>
     </row>
     <row r="25" spans="36:82">
@@ -5372,65 +5426,65 @@
       <c r="AV25" s="3"/>
       <c r="BB25" s="3"/>
       <c r="BU25" s="1" t="s">
-        <v>590</v>
+        <v>599</v>
       </c>
       <c r="BV25" s="19" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
       <c r="BX25" s="1" t="s">
-        <v>592</v>
+        <v>601</v>
       </c>
       <c r="CA25" s="1" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
       <c r="CB25" s="14" t="s">
-        <v>594</v>
+        <v>603</v>
       </c>
       <c r="CD25" s="1" t="s">
-        <v>595</v>
+        <v>604</v>
       </c>
     </row>
     <row r="26" spans="73:82">
       <c r="BU26" s="1" t="s">
-        <v>596</v>
+        <v>605</v>
       </c>
       <c r="BV26" s="14" t="s">
-        <v>597</v>
+        <v>606</v>
       </c>
       <c r="BX26" s="1" t="s">
-        <v>598</v>
+        <v>607</v>
       </c>
       <c r="CA26" s="1" t="s">
-        <v>599</v>
+        <v>608</v>
       </c>
       <c r="CB26" s="14" t="s">
-        <v>600</v>
+        <v>609</v>
       </c>
       <c r="CC26" s="14" t="s">
-        <v>601</v>
+        <v>610</v>
       </c>
       <c r="CD26" s="1" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
     </row>
     <row r="27" spans="73:83">
       <c r="BU27" s="1" t="s">
-        <v>603</v>
+        <v>612</v>
       </c>
       <c r="BV27" s="14" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
       <c r="BX27" s="1" t="s">
-        <v>605</v>
+        <v>614</v>
       </c>
       <c r="CA27" s="1" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
       <c r="CB27" s="14" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="CD27" s="1" t="s">
-        <v>608</v>
+        <v>617</v>
       </c>
       <c r="CE27" s="1" t="s">
         <v>71</v>
@@ -5438,94 +5492,94 @@
     </row>
     <row r="28" spans="73:82">
       <c r="BU28" s="1" t="s">
-        <v>609</v>
+        <v>618</v>
       </c>
       <c r="BV28" s="14" t="s">
-        <v>610</v>
+        <v>619</v>
       </c>
       <c r="BX28" t="s">
-        <v>611</v>
+        <v>620</v>
       </c>
       <c r="CA28" s="1" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
       <c r="CB28" s="14" t="s">
-        <v>613</v>
+        <v>622</v>
       </c>
       <c r="CC28" s="14" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
       <c r="CD28" s="1" t="s">
-        <v>615</v>
+        <v>624</v>
       </c>
     </row>
     <row r="29" spans="79:82">
       <c r="CA29" s="1" t="s">
-        <v>616</v>
+        <v>625</v>
       </c>
       <c r="CB29" s="14" t="s">
-        <v>617</v>
+        <v>626</v>
       </c>
       <c r="CD29" s="1" t="s">
-        <v>615</v>
+        <v>624</v>
       </c>
     </row>
     <row r="30" spans="79:82">
       <c r="CA30" s="1" t="s">
-        <v>618</v>
+        <v>627</v>
       </c>
       <c r="CB30" s="14" t="s">
-        <v>619</v>
+        <v>628</v>
       </c>
       <c r="CD30" s="1" t="s">
-        <v>615</v>
+        <v>624</v>
       </c>
     </row>
     <row r="31" spans="79:82">
       <c r="CA31" s="1" t="s">
-        <v>620</v>
+        <v>629</v>
       </c>
       <c r="CB31" s="12" t="s">
-        <v>621</v>
+        <v>630</v>
       </c>
       <c r="CD31" s="1" t="s">
-        <v>622</v>
+        <v>631</v>
       </c>
     </row>
     <row r="32" spans="79:82">
       <c r="CA32" s="1" t="s">
-        <v>623</v>
+        <v>632</v>
       </c>
       <c r="CB32" s="14" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
       <c r="CD32" s="1" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="33" spans="79:82">
       <c r="CA33" s="1" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
       <c r="CB33" s="15" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="CC33" s="14" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
       <c r="CD33" s="1" t="s">
-        <v>629</v>
+        <v>638</v>
       </c>
     </row>
     <row r="34" spans="79:82">
       <c r="CA34" s="1" t="s">
-        <v>630</v>
+        <v>639</v>
       </c>
       <c r="CB34" s="14" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
       <c r="CD34" s="1" t="s">
-        <v>632</v>
+        <v>641</v>
       </c>
     </row>
   </sheetData>
@@ -5710,7 +5764,7 @@
     <hyperlink ref="CH8" r:id="rId21" display="https://gpt.1nav.ml"/>
     <hyperlink ref="CH9" r:id="rId173" display="http://www.paperray.com"/>
     <hyperlink ref="CH10" r:id="rId174" display="http://www.paperdatas.com"/>
-    <hyperlink ref="CH11" r:id="rId175" display="http://www.paperfree.cn/freeActivity/index.html"/>
+    <hyperlink ref="CH11" r:id="rId175" display="http://www.paperfree.cn" tooltip="http://www.paperfree.cn"/>
     <hyperlink ref="AM3" r:id="rId176" display="https://3o.hk/images/2023/04/17/1.png"/>
     <hyperlink ref="AM4" r:id="rId177" display="https://3o.hk/images/2023/04/17/19.png"/>
     <hyperlink ref="AS3" r:id="rId178" display="https://pic.zhaotu.me/2023/04/17/1735b6021f0c714c3.png"/>
@@ -5786,6 +5840,11 @@
     <hyperlink ref="Z8" r:id="rId242" display="https://aicolors.co"/>
     <hyperlink ref="AB8" r:id="rId243" display="👍ai配色，UI手机app配色，pc软件配色" tooltip="https://aicolors.co/"/>
     <hyperlink ref="CH12" r:id="rId244" display="https://chsi.wanfangtech.net"/>
+    <hyperlink ref="CH13" r:id="rId245" display="https://www.paperok.com"/>
+    <hyperlink ref="CJ13" r:id="rId246" display="PaperOK论文查重 - 专注免费论文查重，论文查重免费，不限类型" tooltip="https://www.paperok.com/"/>
+    <hyperlink ref="AF14" r:id="rId247" display="https://www.newcger.com"/>
+    <hyperlink ref="AH14" r:id="rId248" display="新CG儿 - 数字视觉分享平台 | AE模板_视频素材_免费下载 (newcger.com)" tooltip="https://www.newcger.com/"/>
+    <hyperlink ref="B13" r:id="rId249" display="https://ai.1nav.ml"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/2.xlsx
+++ b/2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="646">
   <si>
     <t>✨ 推荐网站</t>
   </si>
@@ -1889,6 +1889,18 @@
   </si>
   <si>
     <t>免费下载无版权可商用字体-英文中文字体</t>
+  </si>
+  <si>
+    <t>像素转换器</t>
+  </si>
+  <si>
+    <t>https://www.pixelconverter.com/zh/</t>
+  </si>
+  <si>
+    <t>https://www.pixelconverter.com/wp-content/uploads/2020/11/cropped-favicon-180x180.png</t>
+  </si>
+  <si>
+    <t>在线像素转换工具，厘米&lt;-&gt;像素</t>
   </si>
   <si>
     <t>字体仓库</t>
@@ -1951,10 +1963,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -2013,22 +2025,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2050,6 +2054,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -2057,31 +2076,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2095,14 +2091,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
@@ -2110,16 +2098,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2133,8 +2113,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2155,7 +2167,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2167,7 +2269,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2179,7 +2299,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2191,121 +2323,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2317,25 +2341,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2350,40 +2362,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2417,23 +2405,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2441,8 +2444,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2454,10 +2466,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2466,16 +2478,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2487,112 +2499,112 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2990,8 +3002,8 @@
   <sheetPr/>
   <dimension ref="A1:CQ34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" topLeftCell="BR19" workbookViewId="0">
+      <selection activeCell="BW31" sqref="BW31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5513,12 +5525,24 @@
         <v>624</v>
       </c>
     </row>
-    <row r="29" spans="79:82">
+    <row r="29" spans="73:82">
+      <c r="BU29" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="BV29" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="BW29" s="14" t="s">
+        <v>627</v>
+      </c>
+      <c r="BX29" s="1" t="s">
+        <v>628</v>
+      </c>
       <c r="CA29" s="1" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="CB29" s="14" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="CD29" s="1" t="s">
         <v>624</v>
@@ -5526,10 +5550,10 @@
     </row>
     <row r="30" spans="79:82">
       <c r="CA30" s="1" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="CB30" s="14" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="CD30" s="1" t="s">
         <v>624</v>
@@ -5537,49 +5561,49 @@
     </row>
     <row r="31" spans="79:82">
       <c r="CA31" s="1" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="CB31" s="12" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="CD31" s="1" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
     </row>
     <row r="32" spans="79:82">
       <c r="CA32" s="1" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="CB32" s="14" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="CD32" s="1" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="33" spans="79:82">
       <c r="CA33" s="1" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="CB33" s="15" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="CC33" s="14" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="CD33" s="1" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
     </row>
     <row r="34" spans="79:82">
       <c r="CA34" s="1" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="CB34" s="14" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="CD34" s="1" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
     </row>
   </sheetData>
@@ -5845,6 +5869,8 @@
     <hyperlink ref="AF14" r:id="rId247" display="https://www.newcger.com"/>
     <hyperlink ref="AH14" r:id="rId248" display="新CG儿 - 数字视觉分享平台 | AE模板_视频素材_免费下载 (newcger.com)" tooltip="https://www.newcger.com/"/>
     <hyperlink ref="B13" r:id="rId249" display="https://ai.1nav.ml"/>
+    <hyperlink ref="BV29" r:id="rId250" display="https://www.pixelconverter.com/zh/"/>
+    <hyperlink ref="BW29" r:id="rId251" display="https://www.pixelconverter.com/wp-content/uploads/2020/11/cropped-favicon-180x180.png"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/2.xlsx
+++ b/2.xlsx
@@ -739,7 +739,7 @@
     <t>克隆窝素材解析</t>
   </si>
   <si>
-    <t>https://www.kelongwo.com/Resource_function/yuanjx/C/?aff=1799</t>
+    <t>https://www.uy5.net/Resource_function/yuanjx/C/?aff=1799</t>
   </si>
   <si>
     <t>https://img.quankexia.com/kelongwo/wp-content/uploads/2021/07/2021071214094981.png</t>
@@ -757,10 +757,10 @@
     <t>（付费）校内IP范围内免费 提供各类学术论文等文献下载</t>
   </si>
   <si>
-    <t>克隆窝</t>
-  </si>
-  <si>
-    <t>https://www.kelongwo.com/?aff=7168</t>
+    <t>克隆窝(临时域名)</t>
+  </si>
+  <si>
+    <t>https://www.uy5.net/?aff=7168</t>
   </si>
   <si>
     <t>yyds 都很推荐的一个网站</t>
@@ -838,7 +838,7 @@
     <t>Adobe全家桶（不限速下载）</t>
   </si>
   <si>
-    <t>https://www.kelongwo.com/category/download_zy/adobe/?aff=7168</t>
+    <t>https://www.uy5.net/category/download_zy/adobe/?aff=7168</t>
   </si>
   <si>
     <t>https://pic.zhaotu.me/2023/04/17/221f88baea1af3207d.png</t>
@@ -1414,7 +1414,7 @@
     <t>Xmind</t>
   </si>
   <si>
-    <t>https://www.kelongwo.com/pc-xmind/</t>
+    <t>https://www.uy5.net/pc-xmind/</t>
   </si>
   <si>
     <t>https://api.iowen.cn/favicon/xmind.cn/.png</t>
@@ -1964,9 +1964,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -2025,14 +2025,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2046,7 +2069,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2067,17 +2113,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2098,31 +2136,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2133,22 +2149,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2167,7 +2167,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2179,7 +2245,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2191,13 +2263,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2209,43 +2317,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2257,97 +2341,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2362,16 +2362,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2387,6 +2396,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2426,21 +2450,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -2449,15 +2458,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2466,10 +2466,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2478,16 +2478,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2499,112 +2499,112 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3002,8 +3002,8 @@
   <sheetPr/>
   <dimension ref="A1:CQ34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" topLeftCell="BR19" workbookViewId="0">
-      <selection activeCell="BW31" sqref="BW31"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4196,10 +4196,10 @@
       <c r="A7" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="9" t="s">
         <v>242</v>
       </c>
       <c r="D7" s="6" t="s">
@@ -5624,7 +5624,7 @@
     <hyperlink ref="I3" r:id="rId14" display="https://pic.zhaotu.me/2023/04/16/302x9bb9a661e29e98f7.png" tooltip="https://pic.zhaotu.me/2023/04/16/302x9bb9a661e29e98f7.png"/>
     <hyperlink ref="C5" r:id="rId15" display="https://17yongai.com/wp-content/uploads/2023/02/logo.png"/>
     <hyperlink ref="B6" r:id="rId16" display="http://ziyuanhuishequ.ys168.com"/>
-    <hyperlink ref="B7" r:id="rId17" display="https://www.kelongwo.com/?aff=7168"/>
+    <hyperlink ref="B7" r:id="rId17" display="https://www.uy5.net/?aff=7168" tooltip="https://www.uy5.net/?aff=7168"/>
     <hyperlink ref="C7" r:id="rId18" display="https://img.quankexia.com/kelongwo/wp-content/uploads/2021/07/2021071214094981.png"/>
     <hyperlink ref="B8" r:id="rId19" display="https://airtap.io/w/xiadj"/>
     <hyperlink ref="C8" r:id="rId20" display="/favicon.ico"/>
@@ -5700,7 +5700,7 @@
     <hyperlink ref="AX4" r:id="rId87" display="https://lv.ulikecam.com/mobile_portal?_s=4"/>
     <hyperlink ref="AX5" r:id="rId88" display="http://miao.wondershare.cn"/>
     <hyperlink ref="AX6" r:id="rId16" display="http://ziyuanhuishequ.ys168.com"/>
-    <hyperlink ref="AX7" r:id="rId89" display="https://www.kelongwo.com/category/download_zy/adobe/?aff=7168"/>
+    <hyperlink ref="AX7" r:id="rId89" display="https://www.uy5.net/category/download_zy/adobe/?aff=7168" tooltip="https://www.uy5.net/category/download_zy/adobe/?aff=7168"/>
     <hyperlink ref="AX8" r:id="rId90" display="http://pan.baidu.com/s/1eYDWh0J9E_Z9FaO2H-A96g#list/path=%2F&amp;vmode=list"/>
     <hyperlink ref="AX9" r:id="rId91" display="http://zh.snipaste.com"/>
     <hyperlink ref="AX10" r:id="rId92" display="http://www.lanzoux.com/s/wp"/>
@@ -5757,7 +5757,7 @@
     <hyperlink ref="CB3" r:id="rId16" display="http://ziyuanhuishequ.ys168.com"/>
     <hyperlink ref="CB4" r:id="rId143" display="https://brandingstyleguides.com/guide"/>
     <hyperlink ref="CB5" r:id="rId144" display="http://zymf.ys168.com"/>
-    <hyperlink ref="CB6" r:id="rId145" display="https://www.kelongwo.com/Resource_function/yuanjx/C/?aff=1799"/>
+    <hyperlink ref="CB6" r:id="rId145" display="https://www.uy5.net/Resource_function/yuanjx/C/?aff=1799" tooltip="https://www.uy5.net/Resource_function/yuanjx/C/?aff=1799"/>
     <hyperlink ref="CB8" r:id="rId146" display="http://www.ls.graphics"/>
     <hyperlink ref="CB9" r:id="rId147" display="https://www.freepik.com"/>
     <hyperlink ref="CB13" r:id="rId148" display="http://www.yunmiss.com/list/1.html"/>
@@ -5841,7 +5841,7 @@
     <hyperlink ref="CC14" r:id="rId219" display="https://www.mcool.com/favicon.ico"/>
     <hyperlink ref="T18" r:id="rId220" display="https://www.instagram.com"/>
     <hyperlink ref="CB7" r:id="rId221" display="https://mockupplanet.com" tooltip="https://mockupplanet.com"/>
-    <hyperlink ref="H13" r:id="rId222" display="https://www.kelongwo.com/pc-xmind/"/>
+    <hyperlink ref="H13" r:id="rId222" display="https://www.uy5.net/pc-xmind/" tooltip="https://www.uy5.net/pc-xmind/"/>
     <hyperlink ref="I13" r:id="rId223" display="https://api.iowen.cn/favicon/xmind.cn/.png"/>
     <hyperlink ref="B11" r:id="rId224" display="https://rightbrain.art"/>
     <hyperlink ref="CB33" r:id="rId225" display="https://www.thosefree.com/design"/>

--- a/2.xlsx
+++ b/2.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\桌面\坚果云相册\public\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1500D1BC-6E5B-436E-9BE5-5E6A4DD1E0EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -220,13 +226,7 @@
     <t>AE插件 汉化插件 转场插件 AE教程 C4D教程 AE模板 PR模板 视频素材 FCPX插件</t>
   </si>
   <si>
-    <t>指尖工具箱-强烈安利</t>
-  </si>
-  <si>
     <t>http://getquicker.net</t>
-  </si>
-  <si>
-    <t>它是一款效率软件，放双手</t>
   </si>
   <si>
     <t>xztj</t>
@@ -1957,18 +1957,20 @@
   <si>
     <t>MingCute 一套极简风格的开源图标库，这套图标目前包含线性和填充 2 种图标形式</t>
   </si>
+  <si>
+    <t>quicker它是一款效率软件，放双手</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>quicker-强烈安利</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1988,14 +1990,14 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2003,20 +2005,20 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FFCE9178"/>
       <name val="Consolas"/>
-      <charset val="134"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Courier New"/>
-      <charset val="134"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -2024,135 +2026,22 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2161,198 +2050,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.05"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -2360,255 +2063,16 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2624,55 +2088,46 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2681,62 +2136,22 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2994,19 +2409,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CQ34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="AO1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="AZ5" sqref="AZ5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="5" width="9" style="1"/>
     <col min="6" max="6" width="9" style="3"/>
@@ -3033,2846 +2448,2790 @@
     <col min="91" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="28" customHeight="1" spans="1:95">
+    <row r="1" spans="1:95" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="3"/>
       <c r="G1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="18" t="s">
+      <c r="M1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="3"/>
       <c r="S1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="T1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="3"/>
       <c r="Y1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="Z1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="6"/>
-      <c r="AC1" s="6"/>
-      <c r="AD1" s="3"/>
       <c r="AE1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AF1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AG1" s="6"/>
-      <c r="AH1" s="6"/>
-      <c r="AI1" s="6"/>
       <c r="AJ1" s="3"/>
       <c r="AK1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="AL1" s="6" t="s">
+      <c r="AL1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="AM1" s="6"/>
-      <c r="AN1" s="6"/>
-      <c r="AO1" s="6"/>
       <c r="AP1" s="3"/>
       <c r="AQ1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="AR1" s="6" t="s">
+      <c r="AR1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="AS1" s="6"/>
-      <c r="AT1" s="6"/>
-      <c r="AU1" s="6"/>
       <c r="AV1" s="3"/>
       <c r="AW1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AX1" s="6" t="s">
+      <c r="AX1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AY1" s="6" t="s">
+      <c r="AY1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AZ1" s="6"/>
-      <c r="BA1" s="6"/>
       <c r="BB1" s="3"/>
       <c r="BC1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="BD1" s="6" t="s">
+      <c r="BD1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="BE1" s="6"/>
-      <c r="BF1" s="6"/>
-      <c r="BG1" s="6"/>
-      <c r="BH1" s="4"/>
       <c r="BI1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="BJ1" s="6" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="BK1" s="6"/>
-      <c r="BL1" s="6"/>
-      <c r="BM1" s="6"/>
       <c r="BN1" s="4"/>
       <c r="BO1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="BP1" s="6" t="s">
+      <c r="BP1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="BQ1" s="6"/>
-      <c r="BR1" s="6"/>
-      <c r="BS1" s="6"/>
-      <c r="BT1" s="3"/>
       <c r="BU1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="BV1" s="6" t="s">
+      <c r="BV1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="BW1" s="6"/>
-      <c r="BX1" s="6"/>
-      <c r="BY1" s="6"/>
-      <c r="BZ1" s="3"/>
       <c r="CA1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="CB1" s="6" t="s">
+      <c r="CB1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="CC1" s="6"/>
-      <c r="CD1" s="6"/>
-      <c r="CE1" s="6"/>
-      <c r="CF1" s="3"/>
       <c r="CG1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="CH1" s="6" t="s">
+      <c r="CH1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="CI1" s="6"/>
-      <c r="CJ1" s="6"/>
-      <c r="CK1" s="6"/>
-      <c r="CL1" s="3"/>
       <c r="CM1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="CN1" s="6" t="s">
+      <c r="CN1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="CO1" s="6"/>
-      <c r="CP1" s="6"/>
-      <c r="CQ1" s="6"/>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:95">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:95" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>36</v>
       </c>
       <c r="F2" s="3"/>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="6" t="s">
         <v>36</v>
       </c>
       <c r="L2" s="3"/>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="Q2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="R2" s="20"/>
-      <c r="S2" s="7" t="s">
+      <c r="R2" s="17"/>
+      <c r="S2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="T2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="U2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="V2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="W2" s="7" t="s">
+      <c r="W2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="7" t="s">
+      <c r="X2" s="17"/>
+      <c r="Y2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="Z2" s="7" t="s">
+      <c r="Z2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="AA2" s="7" t="s">
+      <c r="AA2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="AB2" s="7" t="s">
+      <c r="AB2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AC2" s="7" t="s">
+      <c r="AC2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="AD2" s="20"/>
-      <c r="AE2" s="7" t="s">
+      <c r="AD2" s="17"/>
+      <c r="AE2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AF2" s="7" t="s">
+      <c r="AF2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="AG2" s="7" t="s">
+      <c r="AG2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="AH2" s="7" t="s">
+      <c r="AH2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AI2" s="7" t="s">
+      <c r="AI2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="AJ2" s="20"/>
-      <c r="AK2" s="7" t="s">
+      <c r="AJ2" s="17"/>
+      <c r="AK2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AL2" s="7" t="s">
+      <c r="AL2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="AM2" s="7" t="s">
+      <c r="AM2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="AN2" s="7" t="s">
+      <c r="AN2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AO2" s="7" t="s">
+      <c r="AO2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="AP2" s="20"/>
-      <c r="AQ2" s="7" t="s">
+      <c r="AP2" s="17"/>
+      <c r="AQ2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AR2" s="7" t="s">
+      <c r="AR2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="AS2" s="7" t="s">
+      <c r="AS2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="AT2" s="7" t="s">
+      <c r="AT2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AU2" s="7" t="s">
+      <c r="AU2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="AV2" s="20"/>
-      <c r="AW2" s="7" t="s">
+      <c r="AV2" s="17"/>
+      <c r="AW2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AX2" s="7" t="s">
+      <c r="AX2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="AY2" s="7" t="s">
+      <c r="AY2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="AZ2" s="7" t="s">
+      <c r="AZ2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="BA2" s="7" t="s">
+      <c r="BA2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="BB2" s="20"/>
-      <c r="BC2" s="7" t="s">
+      <c r="BB2" s="17"/>
+      <c r="BC2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="BD2" s="7" t="s">
+      <c r="BD2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="BE2" s="7" t="s">
+      <c r="BE2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="BF2" s="7" t="s">
+      <c r="BF2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="BG2" s="7" t="s">
+      <c r="BG2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="BH2" s="22"/>
-      <c r="BI2" s="7" t="s">
+      <c r="BH2" s="19"/>
+      <c r="BI2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="BJ2" s="7" t="s">
+      <c r="BJ2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="BK2" s="7" t="s">
+      <c r="BK2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="BL2" s="7" t="s">
+      <c r="BL2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="BM2" s="7" t="s">
+      <c r="BM2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="BN2" s="22"/>
-      <c r="BO2" s="7" t="s">
+      <c r="BN2" s="19"/>
+      <c r="BO2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="BP2" s="7" t="s">
+      <c r="BP2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="BQ2" s="7" t="s">
+      <c r="BQ2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="BR2" s="7" t="s">
+      <c r="BR2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="BS2" s="7" t="s">
+      <c r="BS2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="BT2" s="20"/>
-      <c r="BU2" s="7" t="s">
+      <c r="BT2" s="17"/>
+      <c r="BU2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="BV2" s="7" t="s">
+      <c r="BV2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="BW2" s="7" t="s">
+      <c r="BW2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="BX2" s="7" t="s">
+      <c r="BX2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="BY2" s="7" t="s">
+      <c r="BY2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="BZ2" s="20"/>
-      <c r="CA2" s="7" t="s">
+      <c r="BZ2" s="17"/>
+      <c r="CA2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="CB2" s="7" t="s">
+      <c r="CB2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="CC2" s="7" t="s">
+      <c r="CC2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="CD2" s="7" t="s">
+      <c r="CD2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="CE2" s="7" t="s">
+      <c r="CE2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="CF2" s="20"/>
-      <c r="CG2" s="7" t="s">
+      <c r="CF2" s="17"/>
+      <c r="CG2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="CH2" s="7" t="s">
+      <c r="CH2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="CI2" s="7" t="s">
+      <c r="CI2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="CJ2" s="7" t="s">
+      <c r="CJ2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="CK2" s="7" t="s">
+      <c r="CK2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="CL2" s="20"/>
-      <c r="CM2" s="7" t="s">
+      <c r="CL2" s="17"/>
+      <c r="CM2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="CN2" s="7" t="s">
+      <c r="CN2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="CO2" s="7" t="s">
+      <c r="CO2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="CP2" s="7" t="s">
+      <c r="CP2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="CQ2" s="7" t="s">
+      <c r="CQ2" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:95">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:95" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="10"/>
-      <c r="M3" s="8" t="s">
+      <c r="K3" s="8"/>
+      <c r="M3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="N3" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="O3" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="P3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="Q3" s="10" t="s">
+      <c r="Q3" s="8" t="s">
         <v>50</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="T3" s="14" t="s">
+      <c r="T3" s="12" t="s">
         <v>52</v>
       </c>
       <c r="V3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Y3" s="8" t="s">
+      <c r="Y3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="Z3" s="9" t="s">
+      <c r="Z3" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="AA3" s="9"/>
-      <c r="AB3" s="8" t="s">
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AC3" s="10" t="s">
+      <c r="AC3" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="AE3" s="8" t="s">
+      <c r="AE3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AF3" s="11" t="s">
+      <c r="AF3" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AG3" s="9"/>
-      <c r="AH3" s="8" t="s">
+      <c r="AG3" s="7"/>
+      <c r="AH3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AI3" s="10"/>
+      <c r="AI3" s="8"/>
       <c r="AJ3" s="3"/>
-      <c r="AK3" s="8" t="s">
+      <c r="AK3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AL3" s="11" t="s">
+      <c r="AL3" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="AM3" s="11" t="s">
+      <c r="AM3" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="AN3" s="8" t="s">
+      <c r="AN3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AO3" s="10"/>
+      <c r="AO3" s="8"/>
       <c r="AP3" s="3"/>
-      <c r="AQ3" s="8" t="s">
+      <c r="AQ3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AR3" s="11" t="s">
+      <c r="AR3" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="AS3" s="11" t="s">
+      <c r="AS3" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="AT3" s="8" t="s">
+      <c r="AT3" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AU3" s="10"/>
+      <c r="AU3" s="8"/>
       <c r="AV3" s="3"/>
-      <c r="AW3" s="8" t="s">
+      <c r="AW3" s="21" t="s">
+        <v>645</v>
+      </c>
+      <c r="AX3" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="AX3" s="11" t="s">
+      <c r="AY3" s="7"/>
+      <c r="AZ3" s="21" t="s">
+        <v>644</v>
+      </c>
+      <c r="BA3" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="AY3" s="9"/>
-      <c r="AZ3" s="8" t="s">
+      <c r="BB3" s="3"/>
+      <c r="BC3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="BA3" s="10" t="s">
+      <c r="BD3" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="BB3" s="3"/>
-      <c r="BC3" s="8" t="s">
+      <c r="BE3" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="BD3" s="11" t="s">
+      <c r="BF3" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="BE3" s="11" t="s">
+      <c r="BG3" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="BF3" s="8" t="s">
+      <c r="BI3" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="BG3" s="10" t="s">
+      <c r="BJ3" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="BI3" s="1" t="s">
+      <c r="BK3" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="BJ3" s="14" t="s">
+      <c r="BL3" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="BK3" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="BL3" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="BN3" s="4"/>
       <c r="BO3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BP3" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="BQ3" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="BP3" s="14" t="s">
+      <c r="BR3" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="BQ3" s="14" t="s">
+      <c r="BU3" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="BR3" s="1" t="s">
+      <c r="BV3" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="BU3" s="1" t="s">
+      <c r="BX3" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="BV3" s="14" t="s">
+      <c r="CA3" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BX3" s="1" t="s">
+      <c r="CB3" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="CA3" s="1" t="s">
+      <c r="CC3" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="CB3" s="14" t="s">
+      <c r="CD3" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="CC3" s="14" t="s">
+      <c r="CG3" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="CD3" s="1" t="s">
+      <c r="CH3" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="CG3" s="1" t="s">
+      <c r="CJ3" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="CH3" s="14" t="s">
+      <c r="CM3" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="CJ3" s="1" t="s">
+      <c r="CN3" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="CM3" s="1" t="s">
+      <c r="CP3" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="CN3" s="14" t="s">
+      <c r="CQ3" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="CP3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:95" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="CQ3" s="1" t="s">
+      <c r="B4" s="7" t="s">
         <v>98</v>
       </c>
+      <c r="C4" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K4" s="8"/>
+      <c r="M4" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q4" s="9"/>
+      <c r="S4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="T4" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z4" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA4" s="9"/>
+      <c r="AB4" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC4" s="9"/>
+      <c r="AE4" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF4" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG4" s="9"/>
+      <c r="AH4" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI4" s="9"/>
+      <c r="AJ4" s="3"/>
+      <c r="AK4" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AL4" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="AM4" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="AN4" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AO4" s="9"/>
+      <c r="AP4" s="3"/>
+      <c r="AQ4" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AR4" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="AS4" s="9"/>
+      <c r="AT4" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AU4" s="9"/>
+      <c r="AV4" s="3"/>
+      <c r="AW4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AX4" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="AY4" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="AZ4" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="BA4" s="9"/>
+      <c r="BB4" s="3"/>
+      <c r="BC4" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="BD4" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="BE4" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="BF4" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BG4" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="BI4" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BJ4" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="BK4" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="BL4" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BO4" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BP4" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="BR4" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="BU4" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="BV4" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="BX4" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="BY4" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="CA4" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="CB4" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="CD4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="CG4" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="CH4" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="CJ4" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="CM4" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="CN4" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="CP4" s="1" t="s">
+        <v>153</v>
+      </c>
     </row>
-    <row r="4" spans="1:94">
-      <c r="A4" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="E4" s="10" t="s">
+    <row r="5" spans="1:95" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="K4" s="10"/>
-      <c r="M4" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="O4" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="P4" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q4" s="11"/>
-      <c r="S4" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="T4" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y4" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z4" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA4" s="11"/>
-      <c r="AB4" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="AC4" s="11"/>
-      <c r="AE4" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="AF4" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="AG4" s="11"/>
-      <c r="AH4" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="AI4" s="11"/>
-      <c r="AJ4" s="3"/>
-      <c r="AK4" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="AL4" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="AM4" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="AN4" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="AO4" s="11"/>
-      <c r="AP4" s="3"/>
-      <c r="AQ4" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="AR4" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="AS4" s="11"/>
-      <c r="AT4" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="AU4" s="11"/>
-      <c r="AV4" s="3"/>
-      <c r="AW4" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="AX4" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="AY4" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="AZ4" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="BA4" s="11"/>
-      <c r="BB4" s="3"/>
-      <c r="BC4" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="BD4" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="BE4" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="BF4" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="BG4" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="BI4" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BJ4" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="BK4" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="BL4" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="BO4" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BP4" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="BR4" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="BU4" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="BV4" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="BX4" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="BY4" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="CA4" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="CB4" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="CD4" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="CG4" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="CH4" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="CJ4" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="CM4" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="CN4" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="CP4" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="5" spans="1:94">
-      <c r="A5" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="C5" s="9" t="s">
+      <c r="G5" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="H5" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="8" t="s">
+      <c r="I5" s="12"/>
+      <c r="J5" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="K5" s="8"/>
+      <c r="M5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="I5" s="14"/>
-      <c r="J5" s="1" t="s">
+      <c r="P5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q5" s="8"/>
+      <c r="S5" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="K5" s="10"/>
-      <c r="M5" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="N5" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="O5" s="11" t="s">
+      <c r="T5" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="P5" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q5" s="10"/>
-      <c r="S5" s="1" t="s">
+      <c r="V5" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="T5" s="14" t="s">
+      <c r="Y5" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="Z5" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="Y5" s="1" t="s">
+      <c r="AB5" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="Z5" s="14" t="s">
+      <c r="AE5" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="AB5" s="1" t="s">
+      <c r="AF5" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="AE5" s="1" t="s">
+      <c r="AH5" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="AF5" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="AH5" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="AJ5" s="3"/>
       <c r="AK5" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AL5" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="AN5" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="AL5" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="AN5" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="AP5" s="3"/>
       <c r="AQ5" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AR5" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="AT5" t="s">
         <v>176</v>
-      </c>
-      <c r="AR5" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="AT5" t="s">
-        <v>178</v>
       </c>
       <c r="AV5" s="3"/>
       <c r="AW5" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="AX5" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="AZ5" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="AX5" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="AZ5" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="BB5" s="3"/>
       <c r="BC5" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="BD5" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="BE5" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="BD5" s="14" t="s">
+      <c r="BF5" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="BE5" s="14" t="s">
+      <c r="BG5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BI5" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="BF5" s="1" t="s">
+      <c r="BJ5" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="BG5" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BI5" s="1" t="s">
+      <c r="BK5" s="12"/>
+      <c r="BL5" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="BJ5" s="14" t="s">
+      <c r="BO5" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="BK5" s="14"/>
-      <c r="BL5" s="1" t="s">
+      <c r="BP5" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="BO5" s="1" t="s">
+      <c r="BR5" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="BP5" s="14" t="s">
+      <c r="BU5" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="BR5" s="1" t="s">
+      <c r="BV5" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="BU5" s="1" t="s">
+      <c r="BX5" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="BV5" s="14" t="s">
+      <c r="CA5" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="BX5" s="1" t="s">
+      <c r="CB5" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="CA5" s="1" t="s">
+      <c r="CC5" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="CD5" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="CB5" s="14" t="s">
+      <c r="CG5" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CC5" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="CD5" s="1" t="s">
+      <c r="CH5" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="CG5" s="1" t="s">
+      <c r="CJ5" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="CH5" s="14" t="s">
+      <c r="CM5" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="CN5" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="CJ5" s="1" t="s">
+      <c r="CP5" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:95" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="CM5" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="CN5" s="14" t="s">
+      <c r="G6" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="CP5" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="6" spans="1:88">
-      <c r="A6" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E6" s="10" t="s">
+      <c r="H6" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="I6" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="J6" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="K6" s="8"/>
+      <c r="M6" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="N6" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="K6" s="10"/>
-      <c r="M6" s="8" t="s">
+      <c r="O6" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="N6" s="11" t="s">
+      <c r="P6" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="O6" s="11" t="s">
+      <c r="Q6" s="8"/>
+      <c r="S6" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="P6" s="8" t="s">
+      <c r="T6" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="Q6" s="10"/>
-      <c r="S6" s="8" t="s">
+      <c r="U6" s="7"/>
+      <c r="V6" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="T6" s="9" t="s">
+      <c r="W6" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y6" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="U6" s="9"/>
-      <c r="V6" s="8" t="s">
+      <c r="Z6" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="W6" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y6" s="1" t="s">
+      <c r="AB6" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="Z6" s="14" t="s">
+      <c r="AE6" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="AB6" s="1" t="s">
+      <c r="AF6" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="AE6" s="1" t="s">
+      <c r="AG6" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="AF6" s="14" t="s">
+      <c r="AH6" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="AG6" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="AH6" s="1" t="s">
-        <v>220</v>
       </c>
       <c r="AJ6" s="3"/>
       <c r="AK6" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AL6" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="AN6" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="AL6" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="AN6" s="1" t="s">
-        <v>223</v>
       </c>
       <c r="AP6" s="3"/>
       <c r="AQ6" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AR6" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="AT6" t="s">
         <v>224</v>
-      </c>
-      <c r="AR6" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="AT6" t="s">
-        <v>226</v>
       </c>
       <c r="AV6" s="3"/>
       <c r="AW6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AX6" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="AY6" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="AX6" s="14" t="s">
+      <c r="AZ6" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="AY6" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="AZ6" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="BB6" s="3"/>
       <c r="BC6" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="BD6" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="BE6" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="BD6" s="14" t="s">
+      <c r="BF6" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="BE6" s="14" t="s">
+      <c r="BI6" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="BF6" s="1" t="s">
+      <c r="BJ6" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="BI6" s="1" t="s">
+      <c r="BK6" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="BJ6" s="14" t="s">
+      <c r="BL6" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="BO6" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="BK6" s="14" t="s">
+      <c r="BP6" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="BL6" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="BO6" s="1" t="s">
+      <c r="BR6" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="BP6" s="15" t="s">
+      <c r="BU6" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="BR6" s="1" t="s">
+      <c r="BV6" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="BU6" s="1" t="s">
+      <c r="BX6" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="BV6" s="14" t="s">
+      <c r="CA6" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="BX6" s="1" t="s">
+      <c r="CB6" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="CA6" s="1" t="s">
+      <c r="CC6" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="CB6" s="14" t="s">
+      <c r="CD6" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="CC6" s="14" t="s">
+      <c r="CG6" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="CD6" s="1" t="s">
+      <c r="CH6" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="CG6" s="1" t="s">
+      <c r="CJ6" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="CH6" s="14" t="s">
+    </row>
+    <row r="7" spans="1:95" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="CJ6" s="1" t="s">
+      <c r="B7" s="7" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="7" spans="1:88">
-      <c r="A7" s="8" t="s">
+      <c r="C7" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="E7" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="H7" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="1" t="s">
+      <c r="I7" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="J7" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="K7" s="8"/>
+      <c r="M7" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="N7" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="K7" s="10"/>
-      <c r="M7" s="1" t="s">
+      <c r="O7" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="N7" s="14" t="s">
+      <c r="P7" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="O7" s="11" t="s">
+      <c r="Q7" s="8"/>
+      <c r="S7" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="P7" s="6" t="s">
+      <c r="T7" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="Q7" s="10"/>
-      <c r="S7" s="8" t="s">
+      <c r="U7" s="9"/>
+      <c r="V7" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="T7" s="9" t="s">
+      <c r="W7" s="9"/>
+      <c r="Y7" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="U7" s="11"/>
-      <c r="V7" s="8" t="s">
+      <c r="Z7" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="W7" s="11"/>
-      <c r="Y7" s="1" t="s">
+      <c r="AB7" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="Z7" s="14" t="s">
+      <c r="AE7" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="AB7" s="1" t="s">
+      <c r="AF7" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="AE7" s="1" t="s">
+      <c r="AH7" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="AF7" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="AH7" s="1" t="s">
-        <v>266</v>
       </c>
       <c r="AJ7" s="3"/>
       <c r="AK7" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="AL7" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="AN7" s="1" t="s">
         <v>267</v>
-      </c>
-      <c r="AL7" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="AN7" s="1" t="s">
-        <v>269</v>
       </c>
       <c r="AP7" s="3"/>
       <c r="AQ7" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="AR7" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="AT7" t="s">
         <v>270</v>
-      </c>
-      <c r="AR7" s="14" t="s">
-        <v>271</v>
-      </c>
-      <c r="AT7" t="s">
-        <v>272</v>
       </c>
       <c r="AV7" s="3"/>
       <c r="AW7" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="AX7" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="AY7" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="AX7" s="14" t="s">
+      <c r="AZ7" s="1" t="s">
         <v>274</v>
-      </c>
-      <c r="AY7" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="AZ7" s="1" t="s">
-        <v>276</v>
       </c>
       <c r="BB7" s="3"/>
       <c r="BC7" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="BD7" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="BE7" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="BD7" s="14" t="s">
+      <c r="BF7" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="BE7" s="14" t="s">
+      <c r="BG7" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="BF7" s="1" t="s">
+      <c r="BI7" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="BG7" s="1" t="s">
+      <c r="BJ7" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="BI7" s="1" t="s">
+      <c r="BK7" s="12" t="s">
         <v>282</v>
       </c>
-      <c r="BJ7" s="14" t="s">
+      <c r="BL7" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="BO7" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="BK7" s="14" t="s">
+      <c r="BP7" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="BL7" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="BO7" s="1" t="s">
+      <c r="BR7" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="BP7" s="14" t="s">
+      <c r="BU7" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="BR7" s="1" t="s">
+      <c r="BV7" s="12" t="s">
         <v>287</v>
       </c>
-      <c r="BU7" s="1" t="s">
+      <c r="BX7" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="BV7" s="14" t="s">
+      <c r="CA7" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="BX7" s="1" t="s">
+      <c r="CB7" s="13" t="s">
         <v>290</v>
       </c>
-      <c r="CA7" s="1" t="s">
+      <c r="CD7" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="CB7" s="15" t="s">
+      <c r="CG7" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="CD7" s="1" t="s">
+      <c r="CH7" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="CG7" s="1" t="s">
+      <c r="CJ7" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="CH7" s="14" t="s">
+    </row>
+    <row r="8" spans="1:95" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="CJ7" s="1" t="s">
+      <c r="B8" s="12" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="8" spans="1:89">
-      <c r="A8" s="1" t="s">
+      <c r="C8" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="D8" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="E8" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="G8" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="H8" s="12" t="s">
         <v>301</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="I8" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="J8" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="M8" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="N8" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="M8" s="8" t="s">
+      <c r="O8" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="N8" s="11" t="s">
+      <c r="P8" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="O8" s="11" t="s">
+      <c r="Q8" s="8"/>
+      <c r="S8" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="P8" s="6" t="s">
+      <c r="T8" s="13" t="s">
         <v>309</v>
       </c>
-      <c r="Q8" s="10"/>
-      <c r="S8" s="1" t="s">
+      <c r="V8" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="T8" s="15" t="s">
+      <c r="Y8" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="V8" s="1" t="s">
+      <c r="Z8" s="12" t="s">
         <v>312</v>
       </c>
-      <c r="Y8" s="1" t="s">
+      <c r="AB8" t="s">
         <v>313</v>
       </c>
-      <c r="Z8" s="14" t="s">
+      <c r="AE8" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AF8" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="AE8" s="1" t="s">
+      <c r="AH8" s="1" t="s">
         <v>316</v>
-      </c>
-      <c r="AF8" s="14" t="s">
-        <v>317</v>
-      </c>
-      <c r="AH8" s="1" t="s">
-        <v>318</v>
       </c>
       <c r="AJ8" s="3"/>
       <c r="AP8" s="3"/>
       <c r="AV8" s="3"/>
       <c r="AW8" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="AX8" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="AY8" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="AX8" s="14" t="s">
+      <c r="AZ8" s="1" t="s">
         <v>320</v>
-      </c>
-      <c r="AY8" s="14" t="s">
-        <v>321</v>
-      </c>
-      <c r="AZ8" s="1" t="s">
-        <v>322</v>
       </c>
       <c r="BB8" s="3"/>
       <c r="BC8" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="BD8" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="BE8" s="12" t="s">
         <v>323</v>
       </c>
-      <c r="BD8" s="14" t="s">
+      <c r="BF8" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="BE8" s="14" t="s">
+      <c r="BU8" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="BF8" s="1" t="s">
+      <c r="BV8" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="BU8" s="1" t="s">
+      <c r="BW8" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="BV8" s="15" t="s">
+      <c r="BX8" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="BW8" s="14" t="s">
+      <c r="CA8" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="BX8" s="1" t="s">
+      <c r="CB8" s="12" t="s">
         <v>330</v>
       </c>
-      <c r="CA8" s="1" t="s">
+      <c r="CD8" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="CB8" s="14" t="s">
+      <c r="CG8" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="CD8" s="1" t="s">
+      <c r="CH8" s="12" t="s">
         <v>333</v>
       </c>
-      <c r="CG8" s="1" t="s">
+      <c r="CI8" s="12" t="s">
         <v>334</v>
       </c>
-      <c r="CH8" s="14" t="s">
+      <c r="CJ8" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="CI8" s="14" t="s">
+      <c r="CK8" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="CJ8" s="1" t="s">
+    </row>
+    <row r="9" spans="1:95" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="CK8" s="1" t="s">
+      <c r="B9" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="9" ht="18.75" spans="1:88">
-      <c r="A9" s="1" t="s">
+      <c r="H9" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>335</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>336</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="G9" s="1" t="s">
+      <c r="I9" s="12" t="s">
         <v>340</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="J9" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="I9" s="14" t="s">
+      <c r="M9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="O9" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q9" s="8"/>
+      <c r="S9" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="T9" s="13" t="s">
         <v>343</v>
       </c>
-      <c r="M9" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="N9" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="O9" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q9" s="10"/>
-      <c r="S9" s="1" t="s">
+      <c r="U9" s="13" t="s">
         <v>344</v>
       </c>
-      <c r="T9" s="15" t="s">
+      <c r="V9" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="U9" s="15" t="s">
+      <c r="AE9" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="V9" s="1" t="s">
+      <c r="AF9" s="12" t="s">
         <v>347</v>
       </c>
-      <c r="AE9" s="1" t="s">
+      <c r="AH9" s="1" t="s">
         <v>348</v>
-      </c>
-      <c r="AF9" s="14" t="s">
-        <v>349</v>
-      </c>
-      <c r="AH9" s="1" t="s">
-        <v>350</v>
       </c>
       <c r="AJ9" s="3"/>
       <c r="AP9" s="3"/>
       <c r="AV9" s="3"/>
       <c r="AW9" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="AX9" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="AY9" s="12" t="s">
         <v>351</v>
       </c>
-      <c r="AX9" s="14" t="s">
+      <c r="AZ9" s="1" t="s">
         <v>352</v>
-      </c>
-      <c r="AY9" s="14" t="s">
-        <v>353</v>
-      </c>
-      <c r="AZ9" s="1" t="s">
-        <v>354</v>
       </c>
       <c r="BB9" s="3"/>
       <c r="BC9" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="BD9" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="BE9" s="12" t="s">
         <v>355</v>
       </c>
-      <c r="BD9" s="14" t="s">
+      <c r="BF9" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="BE9" s="14" t="s">
+      <c r="BU9" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="BF9" s="1" t="s">
+      <c r="BV9" s="12" t="s">
         <v>358</v>
       </c>
-      <c r="BU9" s="1" t="s">
+      <c r="BX9" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="BV9" s="14" t="s">
+      <c r="CA9" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="BX9" s="1" t="s">
+      <c r="CB9" s="12" t="s">
         <v>361</v>
       </c>
-      <c r="CA9" s="1" t="s">
+      <c r="CD9" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="CB9" s="14" t="s">
+      <c r="CG9" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="CD9" s="1" t="s">
+      <c r="CH9" s="12" t="s">
         <v>364</v>
       </c>
-      <c r="CG9" s="1" t="s">
+      <c r="CJ9" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="10" spans="1:95" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="CH9" s="14" t="s">
+      <c r="D10" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="CJ9" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="10" spans="1:88">
-      <c r="A10" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="H10" s="12" t="s">
         <v>368</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="I10" s="13" t="s">
         <v>369</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="J10" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="I10" s="15" t="s">
+      <c r="M10" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="N10" s="12" t="s">
         <v>372</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="P10" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="N10" s="14" t="s">
+      <c r="S10" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="P10" s="1" t="s">
+      <c r="T10" s="12" t="s">
         <v>375</v>
       </c>
-      <c r="S10" s="1" t="s">
+      <c r="U10" s="12" t="s">
         <v>376</v>
       </c>
-      <c r="T10" s="14" t="s">
+      <c r="V10" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="U10" s="14" t="s">
+      <c r="AE10" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="V10" s="1" t="s">
+      <c r="AF10" s="12" t="s">
         <v>379</v>
       </c>
-      <c r="AE10" s="1" t="s">
+      <c r="AH10" s="1" t="s">
         <v>380</v>
-      </c>
-      <c r="AF10" s="14" t="s">
-        <v>381</v>
-      </c>
-      <c r="AH10" s="1" t="s">
-        <v>382</v>
       </c>
       <c r="AJ10" s="3"/>
       <c r="AP10" s="3"/>
       <c r="AV10" s="3"/>
       <c r="AW10" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="AX10" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="AZ10" s="1" t="s">
         <v>383</v>
-      </c>
-      <c r="AX10" s="14" t="s">
-        <v>384</v>
-      </c>
-      <c r="AZ10" s="1" t="s">
-        <v>385</v>
       </c>
       <c r="BB10" s="3"/>
       <c r="BC10" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="BD10" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="BE10" s="12" t="s">
         <v>386</v>
       </c>
-      <c r="BD10" s="14" t="s">
+      <c r="BF10" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="BE10" s="14" t="s">
+      <c r="BG10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BU10" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="BF10" s="1" t="s">
+      <c r="BV10" s="12" t="s">
         <v>389</v>
       </c>
-      <c r="BG10" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BU10" s="1" t="s">
+      <c r="BX10" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="BV10" s="14" t="s">
+      <c r="CA10" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="BX10" s="1" t="s">
+      <c r="CB10" s="13" t="s">
         <v>392</v>
       </c>
-      <c r="CA10" s="1" t="s">
+      <c r="CD10" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="CB10" s="15" t="s">
+      <c r="CG10" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="CD10" s="1" t="s">
+      <c r="CH10" s="12" t="s">
         <v>395</v>
       </c>
-      <c r="CG10" s="1" t="s">
+      <c r="CJ10" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="11" spans="1:95" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="CH10" s="14" t="s">
+      <c r="B11" s="12" t="s">
         <v>397</v>
       </c>
-      <c r="CJ10" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="11" spans="1:88">
-      <c r="A11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="E11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="H11" s="12" t="s">
         <v>400</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G11" s="1" t="s">
+      <c r="I11" s="13" t="s">
         <v>401</v>
       </c>
-      <c r="H11" s="14" t="s">
+      <c r="J11" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="I11" s="15" t="s">
+      <c r="M11" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="N11" s="12" t="s">
         <v>404</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="P11" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="N11" s="14" t="s">
+      <c r="S11" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="P11" s="1" t="s">
+      <c r="T11" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="S11" s="1" t="s">
+      <c r="V11" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="T11" s="14" t="s">
+      <c r="AE11" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="V11" s="1" t="s">
+      <c r="AF11" s="12" t="s">
         <v>410</v>
       </c>
-      <c r="AE11" s="1" t="s">
+      <c r="AH11" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="AF11" s="14" t="s">
-        <v>412</v>
-      </c>
-      <c r="AH11" s="1" t="s">
-        <v>413</v>
-      </c>
       <c r="AI11" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AJ11" s="3"/>
       <c r="AP11" s="3"/>
       <c r="AV11" s="3"/>
       <c r="AW11" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="AX11" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="AZ11" s="1" t="s">
         <v>414</v>
-      </c>
-      <c r="AX11" s="14" t="s">
-        <v>415</v>
-      </c>
-      <c r="AZ11" s="1" t="s">
-        <v>416</v>
       </c>
       <c r="BB11" s="3"/>
       <c r="BC11" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="BD11" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="BE11" s="12" t="s">
         <v>417</v>
       </c>
-      <c r="BD11" s="14" t="s">
+      <c r="BF11" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="BE11" s="14" t="s">
+      <c r="BU11" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="BF11" s="1" t="s">
+      <c r="BV11" s="12" t="s">
         <v>420</v>
       </c>
-      <c r="BU11" s="1" t="s">
+      <c r="BX11" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="BV11" s="14" t="s">
+      <c r="CA11" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="BX11" s="1" t="s">
+      <c r="CB11" s="12" t="s">
         <v>423</v>
       </c>
-      <c r="CA11" s="1" t="s">
+      <c r="CD11" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="CB11" s="14" t="s">
+      <c r="CG11" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="CD11" s="1" t="s">
+      <c r="CH11" s="13" t="s">
         <v>426</v>
       </c>
-      <c r="CG11" s="1" t="s">
+      <c r="CJ11" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="12" spans="1:95" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="CH11" s="15" t="s">
+      <c r="B12" s="12" t="s">
         <v>428</v>
       </c>
-      <c r="CJ11" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="12" spans="1:88">
-      <c r="A12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="E12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="H12" s="12" t="s">
         <v>431</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G12" s="1" t="s">
+      <c r="I12" s="13" t="s">
         <v>432</v>
       </c>
-      <c r="H12" s="14" t="s">
+      <c r="J12" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="I12" s="15" t="s">
+      <c r="M12" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="N12" s="12" t="s">
         <v>435</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="P12" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="N12" s="14" t="s">
+      <c r="S12" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="P12" s="1" t="s">
+      <c r="T12" s="12" t="s">
         <v>438</v>
       </c>
-      <c r="S12" s="1" t="s">
+      <c r="U12" s="13" t="s">
         <v>439</v>
       </c>
-      <c r="T12" s="14" t="s">
+      <c r="V12" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="U12" s="15" t="s">
+      <c r="AE12" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="V12" s="1" t="s">
+      <c r="AF12" s="12" t="s">
         <v>442</v>
       </c>
-      <c r="AE12" s="1" t="s">
+      <c r="AH12" s="1" t="s">
         <v>443</v>
-      </c>
-      <c r="AF12" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="AH12" s="1" t="s">
-        <v>445</v>
       </c>
       <c r="AJ12" s="3"/>
       <c r="AP12" s="3"/>
       <c r="AV12" s="3"/>
       <c r="AW12" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="AX12" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="AZ12" s="1" t="s">
         <v>446</v>
-      </c>
-      <c r="AX12" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="AZ12" s="1" t="s">
-        <v>448</v>
       </c>
       <c r="BB12" s="3"/>
       <c r="BC12" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="BD12" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="BE12" s="12" t="s">
         <v>449</v>
       </c>
-      <c r="BD12" s="14" t="s">
+      <c r="BF12" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="BE12" s="14" t="s">
+      <c r="BU12" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="BF12" s="1" t="s">
+      <c r="BV12" s="12" t="s">
         <v>452</v>
       </c>
-      <c r="BU12" s="1" t="s">
+      <c r="BX12" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="BV12" s="14" t="s">
+      <c r="CA12" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="BX12" s="1" t="s">
+      <c r="CB12" s="12" t="s">
         <v>455</v>
       </c>
-      <c r="CA12" s="1" t="s">
+      <c r="CD12" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="CB12" s="14" t="s">
+      <c r="CG12" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="CD12" s="1" t="s">
+      <c r="CH12" s="12" t="s">
         <v>458</v>
       </c>
-      <c r="CG12" s="1" t="s">
+      <c r="CJ12" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="CH12" s="14" t="s">
+    </row>
+    <row r="13" spans="1:95" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="CJ12" s="1" t="s">
+      <c r="B13" s="12" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="13" spans="1:88">
-      <c r="A13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="G13" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="H13" s="13" t="s">
         <v>464</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="I13" s="13" t="s">
         <v>465</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="J13" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="I13" s="15" t="s">
+      <c r="M13" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="N13" s="12" t="s">
         <v>468</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="P13" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="N13" s="14" t="s">
+      <c r="S13" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="T13" s="12" t="s">
         <v>470</v>
       </c>
-      <c r="P13" s="1" t="s">
+      <c r="V13" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="S13" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="T13" s="14" t="s">
+      <c r="AE13" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="V13" s="1" t="s">
+      <c r="AF13" s="12" t="s">
         <v>473</v>
       </c>
-      <c r="AE13" s="1" t="s">
+      <c r="AH13" s="1" t="s">
         <v>474</v>
-      </c>
-      <c r="AF13" s="14" t="s">
-        <v>475</v>
-      </c>
-      <c r="AH13" s="1" t="s">
-        <v>476</v>
       </c>
       <c r="AJ13" s="3"/>
       <c r="AP13" s="3"/>
       <c r="AV13" s="3"/>
       <c r="AW13" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="AX13" s="16" t="s">
+        <v>476</v>
+      </c>
+      <c r="AZ13" s="1" t="s">
         <v>477</v>
-      </c>
-      <c r="AX13" s="19" t="s">
-        <v>478</v>
-      </c>
-      <c r="AZ13" s="1" t="s">
-        <v>479</v>
       </c>
       <c r="BB13" s="3"/>
       <c r="BC13" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="BD13" s="12" t="s">
+        <v>479</v>
+      </c>
+      <c r="BE13" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="BF13" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="BD13" s="14" t="s">
+      <c r="BU13" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="BE13" s="14" t="s">
-        <v>388</v>
-      </c>
-      <c r="BF13" s="1" t="s">
+      <c r="BV13" s="12" t="s">
         <v>482</v>
       </c>
-      <c r="BU13" s="1" t="s">
+      <c r="BX13" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="CA13" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="BV13" s="14" t="s">
+      <c r="CB13" s="12" t="s">
         <v>484</v>
       </c>
-      <c r="BX13" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="CA13" s="1" t="s">
+      <c r="CC13" s="12" t="s">
         <v>485</v>
       </c>
-      <c r="CB13" s="14" t="s">
+      <c r="CD13" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="CC13" s="14" t="s">
+      <c r="CG13" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="CD13" s="1" t="s">
+      <c r="CH13" s="12" t="s">
         <v>488</v>
       </c>
-      <c r="CG13" s="1" t="s">
+      <c r="CJ13" t="s">
         <v>489</v>
       </c>
-      <c r="CH13" s="14" t="s">
+    </row>
+    <row r="14" spans="1:95" x14ac:dyDescent="0.2">
+      <c r="G14" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="CJ13" t="s">
+      <c r="H14" s="12" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="14" spans="7:82">
-      <c r="G14" s="1" t="s">
+      <c r="J14" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="H14" s="14" t="s">
+      <c r="M14" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="N14" s="12" t="s">
         <v>494</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="P14" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="N14" s="14" t="s">
+      <c r="S14" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="P14" s="1" t="s">
+      <c r="T14" s="12" t="s">
         <v>497</v>
       </c>
-      <c r="S14" s="1" t="s">
+      <c r="V14" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="T14" s="14" t="s">
+      <c r="AE14" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="V14" s="1" t="s">
+      <c r="AF14" s="12" t="s">
         <v>500</v>
       </c>
-      <c r="AE14" s="1" t="s">
+      <c r="AH14" t="s">
         <v>501</v>
-      </c>
-      <c r="AF14" s="14" t="s">
-        <v>502</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>503</v>
       </c>
       <c r="AJ14" s="3"/>
       <c r="AP14" s="3"/>
       <c r="AV14" s="3"/>
       <c r="AW14" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="AX14" s="12" t="s">
+        <v>503</v>
+      </c>
+      <c r="AY14" s="12" t="s">
         <v>504</v>
       </c>
-      <c r="AX14" s="14" t="s">
+      <c r="AZ14" s="1" t="s">
         <v>505</v>
-      </c>
-      <c r="AY14" s="14" t="s">
-        <v>506</v>
-      </c>
-      <c r="AZ14" s="1" t="s">
-        <v>507</v>
       </c>
       <c r="BB14" s="3"/>
       <c r="BC14" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="BD14" s="12" t="s">
+        <v>507</v>
+      </c>
+      <c r="BE14" s="12" t="s">
         <v>508</v>
       </c>
-      <c r="BD14" s="14" t="s">
+      <c r="BF14" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="BE14" s="14" t="s">
+      <c r="BU14" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="BF14" s="1" t="s">
+      <c r="BV14" s="12" t="s">
         <v>511</v>
       </c>
-      <c r="BU14" s="1" t="s">
+      <c r="BW14" s="12" t="s">
         <v>512</v>
       </c>
-      <c r="BV14" s="14" t="s">
+      <c r="BX14" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="CA14" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="BW14" s="14" t="s">
+      <c r="CB14" s="12" t="s">
         <v>514</v>
       </c>
-      <c r="BX14" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="CA14" s="1" t="s">
+      <c r="CC14" s="13" t="s">
         <v>515</v>
       </c>
-      <c r="CB14" s="14" t="s">
+      <c r="CD14" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="CC14" s="15" t="s">
+    </row>
+    <row r="15" spans="1:95" x14ac:dyDescent="0.2">
+      <c r="S15" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="CD14" s="1" t="s">
+      <c r="T15" s="13" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="15" spans="19:82">
-      <c r="S15" s="1" t="s">
+      <c r="V15" s="1" t="s">
         <v>519</v>
-      </c>
-      <c r="T15" s="15" t="s">
-        <v>520</v>
-      </c>
-      <c r="V15" s="1" t="s">
-        <v>521</v>
       </c>
       <c r="AJ15" s="3"/>
       <c r="AP15" s="3"/>
       <c r="AV15" s="3"/>
       <c r="AW15" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="AX15" s="12" t="s">
+        <v>521</v>
+      </c>
+      <c r="AZ15" s="1" t="s">
         <v>522</v>
-      </c>
-      <c r="AX15" s="14" t="s">
-        <v>523</v>
-      </c>
-      <c r="AZ15" s="1" t="s">
-        <v>524</v>
       </c>
       <c r="BB15" s="3"/>
       <c r="BU15" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="BV15" s="12" t="s">
+        <v>524</v>
+      </c>
+      <c r="BX15" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="BV15" s="14" t="s">
+      <c r="CA15" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="BX15" s="1" t="s">
+      <c r="CB15" s="12" t="s">
         <v>527</v>
       </c>
-      <c r="CA15" s="1" t="s">
+      <c r="CD15" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="CB15" s="14" t="s">
+    </row>
+    <row r="16" spans="1:95" x14ac:dyDescent="0.2">
+      <c r="S16" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="CD15" s="1" t="s">
+      <c r="T16" s="12" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="16" spans="19:82">
-      <c r="S16" s="1" t="s">
+      <c r="V16" s="1" t="s">
         <v>531</v>
-      </c>
-      <c r="T16" s="14" t="s">
-        <v>532</v>
-      </c>
-      <c r="V16" s="1" t="s">
-        <v>533</v>
       </c>
       <c r="AJ16" s="3"/>
       <c r="AP16" s="3"/>
       <c r="AV16" s="3"/>
       <c r="BB16" s="3"/>
       <c r="BU16" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="BV16" s="12" t="s">
+        <v>533</v>
+      </c>
+      <c r="BW16" s="12" t="s">
         <v>534</v>
       </c>
-      <c r="BV16" s="14" t="s">
+      <c r="BX16" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="BW16" s="14" t="s">
+      <c r="CA16" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="BX16" s="1" t="s">
+      <c r="CB16" s="12" t="s">
         <v>537</v>
       </c>
-      <c r="CA16" s="1" t="s">
+      <c r="CC16" s="12" t="s">
         <v>538</v>
       </c>
-      <c r="CB16" s="14" t="s">
+      <c r="CD16" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="CC16" s="14" t="s">
+    </row>
+    <row r="17" spans="19:83" x14ac:dyDescent="0.2">
+      <c r="S17" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="CD16" s="1" t="s">
+      <c r="T17" s="12" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="17" spans="19:82">
-      <c r="S17" s="1" t="s">
+      <c r="U17" s="12" t="s">
         <v>542</v>
       </c>
-      <c r="T17" s="14" t="s">
+      <c r="V17" s="1" t="s">
         <v>543</v>
-      </c>
-      <c r="U17" s="14" t="s">
-        <v>544</v>
-      </c>
-      <c r="V17" s="1" t="s">
-        <v>545</v>
       </c>
       <c r="AJ17" s="3"/>
       <c r="AP17" s="3"/>
       <c r="AV17" s="3"/>
-      <c r="AX17" s="21"/>
+      <c r="AX17" s="18"/>
       <c r="BB17" s="3"/>
       <c r="BU17" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="BV17" s="12" t="s">
+        <v>545</v>
+      </c>
+      <c r="BX17" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="BV17" s="14" t="s">
+      <c r="CA17" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="BX17" s="1" t="s">
+      <c r="CB17" s="12" t="s">
         <v>548</v>
       </c>
-      <c r="CA17" s="1" t="s">
+      <c r="CD17" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="CB17" s="14" t="s">
+    </row>
+    <row r="18" spans="19:83" x14ac:dyDescent="0.2">
+      <c r="S18" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="CD17" s="1" t="s">
+      <c r="T18" s="12" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="18" spans="19:82">
-      <c r="S18" s="1" t="s">
+      <c r="V18" s="1" t="s">
         <v>552</v>
-      </c>
-      <c r="T18" s="14" t="s">
-        <v>553</v>
-      </c>
-      <c r="V18" s="1" t="s">
-        <v>554</v>
       </c>
       <c r="AJ18" s="3"/>
       <c r="AP18" s="3"/>
       <c r="AV18" s="3"/>
       <c r="BB18" s="3"/>
       <c r="BU18" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="BV18" s="12" t="s">
+        <v>554</v>
+      </c>
+      <c r="BX18" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="BV18" s="14" t="s">
+      <c r="CA18" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="BX18" s="1" t="s">
+      <c r="CB18" s="12" t="s">
         <v>557</v>
       </c>
-      <c r="CA18" s="1" t="s">
+      <c r="CD18" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="CB18" s="14" t="s">
-        <v>559</v>
-      </c>
-      <c r="CD18" s="1" t="s">
-        <v>560</v>
-      </c>
     </row>
-    <row r="19" spans="36:82">
+    <row r="19" spans="19:83" x14ac:dyDescent="0.2">
       <c r="AJ19" s="3"/>
       <c r="AP19" s="3"/>
       <c r="AV19" s="3"/>
       <c r="BB19" s="3"/>
-      <c r="BU19" s="23" t="s">
+      <c r="BU19" s="20" t="s">
+        <v>559</v>
+      </c>
+      <c r="BV19" s="12" t="s">
+        <v>560</v>
+      </c>
+      <c r="BX19" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="BV19" s="14" t="s">
+      <c r="CA19" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="BX19" s="1" t="s">
+      <c r="CB19" s="12" t="s">
         <v>563</v>
       </c>
-      <c r="CA19" s="1" t="s">
+      <c r="CD19" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="CB19" s="14" t="s">
-        <v>565</v>
-      </c>
-      <c r="CD19" s="1" t="s">
-        <v>566</v>
-      </c>
     </row>
-    <row r="20" spans="36:82">
+    <row r="20" spans="19:83" x14ac:dyDescent="0.2">
       <c r="AJ20" s="3"/>
       <c r="AP20" s="3"/>
       <c r="AV20" s="3"/>
       <c r="BB20" s="3"/>
       <c r="BU20" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="BV20" s="12" t="s">
+        <v>566</v>
+      </c>
+      <c r="BX20" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="BV20" s="14" t="s">
+      <c r="CA20" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="BX20" s="1" t="s">
+      <c r="CB20" s="13" t="s">
         <v>569</v>
       </c>
-      <c r="CA20" s="1" t="s">
+      <c r="CD20" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="CB20" s="15" t="s">
-        <v>571</v>
-      </c>
-      <c r="CD20" s="1" t="s">
-        <v>572</v>
-      </c>
     </row>
-    <row r="21" spans="36:82">
+    <row r="21" spans="19:83" x14ac:dyDescent="0.2">
       <c r="AJ21" s="3"/>
       <c r="AP21" s="3"/>
       <c r="AV21" s="3"/>
       <c r="BB21" s="3"/>
       <c r="BU21" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="BV21" s="12" t="s">
+        <v>572</v>
+      </c>
+      <c r="BX21" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="BV21" s="14" t="s">
+      <c r="CA21" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="BX21" s="1" t="s">
+      <c r="CB21" s="12" t="s">
         <v>575</v>
       </c>
-      <c r="CA21" s="1" t="s">
+      <c r="CC21" s="12" t="s">
         <v>576</v>
       </c>
-      <c r="CB21" s="14" t="s">
+      <c r="CD21" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="CC21" s="14" t="s">
-        <v>578</v>
-      </c>
-      <c r="CD21" s="1" t="s">
-        <v>579</v>
-      </c>
     </row>
-    <row r="22" spans="36:82">
+    <row r="22" spans="19:83" x14ac:dyDescent="0.2">
       <c r="AJ22" s="3"/>
       <c r="AP22" s="3"/>
       <c r="AV22" s="3"/>
       <c r="BB22" s="3"/>
       <c r="BU22" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="BV22" s="12" t="s">
+        <v>579</v>
+      </c>
+      <c r="BX22" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="BV22" s="14" t="s">
+      <c r="CA22" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="BX22" s="1" t="s">
+      <c r="CB22" s="12" t="s">
         <v>582</v>
       </c>
-      <c r="CA22" s="1" t="s">
+      <c r="CD22" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="CB22" s="14" t="s">
-        <v>584</v>
-      </c>
-      <c r="CD22" s="1" t="s">
-        <v>585</v>
-      </c>
     </row>
-    <row r="23" spans="36:82">
+    <row r="23" spans="19:83" x14ac:dyDescent="0.2">
       <c r="AJ23" s="3"/>
       <c r="AP23" s="3"/>
       <c r="AV23" s="3"/>
       <c r="BB23" s="3"/>
       <c r="BU23" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="BV23" s="12" t="s">
+        <v>585</v>
+      </c>
+      <c r="BX23" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="BV23" s="14" t="s">
+      <c r="CA23" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="BX23" s="1" t="s">
+      <c r="CB23" s="12" t="s">
         <v>588</v>
       </c>
-      <c r="CA23" s="1" t="s">
+      <c r="CC23" s="12" t="s">
         <v>589</v>
       </c>
-      <c r="CB23" s="14" t="s">
+      <c r="CD23" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="CC23" s="14" t="s">
-        <v>591</v>
-      </c>
-      <c r="CD23" s="1" t="s">
-        <v>592</v>
-      </c>
     </row>
-    <row r="24" spans="36:82">
+    <row r="24" spans="19:83" x14ac:dyDescent="0.2">
       <c r="AJ24" s="3"/>
       <c r="AP24" s="3"/>
       <c r="AV24" s="3"/>
       <c r="BB24" s="3"/>
       <c r="BU24" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="BV24" s="12" t="s">
+        <v>592</v>
+      </c>
+      <c r="BX24" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="BV24" s="14" t="s">
+      <c r="CA24" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="BX24" s="1" t="s">
+      <c r="CB24" s="12" t="s">
         <v>595</v>
       </c>
-      <c r="CA24" s="1" t="s">
+      <c r="CD24" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="CB24" s="14" t="s">
-        <v>597</v>
-      </c>
-      <c r="CD24" s="1" t="s">
-        <v>598</v>
-      </c>
     </row>
-    <row r="25" spans="36:82">
+    <row r="25" spans="19:83" x14ac:dyDescent="0.2">
       <c r="AJ25" s="3"/>
       <c r="AP25" s="3"/>
       <c r="AV25" s="3"/>
       <c r="BB25" s="3"/>
       <c r="BU25" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="BV25" s="16" t="s">
+        <v>598</v>
+      </c>
+      <c r="BX25" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="BV25" s="19" t="s">
+      <c r="CA25" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="BX25" s="1" t="s">
+      <c r="CB25" s="12" t="s">
         <v>601</v>
       </c>
-      <c r="CA25" s="1" t="s">
+      <c r="CD25" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="CB25" s="14" t="s">
+    </row>
+    <row r="26" spans="19:83" x14ac:dyDescent="0.2">
+      <c r="BU26" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="CD25" s="1" t="s">
+      <c r="BV26" s="12" t="s">
         <v>604</v>
       </c>
+      <c r="BX26" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="CA26" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="CB26" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="CC26" s="12" t="s">
+        <v>608</v>
+      </c>
+      <c r="CD26" s="1" t="s">
+        <v>609</v>
+      </c>
     </row>
-    <row r="26" spans="73:82">
-      <c r="BU26" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="BV26" s="14" t="s">
-        <v>606</v>
-      </c>
-      <c r="BX26" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="CA26" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="CB26" s="14" t="s">
-        <v>609</v>
-      </c>
-      <c r="CC26" s="14" t="s">
+    <row r="27" spans="19:83" x14ac:dyDescent="0.2">
+      <c r="BU27" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="CD26" s="1" t="s">
+      <c r="BV27" s="12" t="s">
         <v>611</v>
       </c>
+      <c r="BX27" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="CA27" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="CB27" s="12" t="s">
+        <v>614</v>
+      </c>
+      <c r="CD27" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="CE27" s="1" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="27" spans="73:83">
-      <c r="BU27" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="BV27" s="14" t="s">
-        <v>613</v>
-      </c>
-      <c r="BX27" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="CA27" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="CB27" s="14" t="s">
+    <row r="28" spans="19:83" x14ac:dyDescent="0.2">
+      <c r="BU28" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="CD27" s="1" t="s">
+      <c r="BV28" s="12" t="s">
         <v>617</v>
       </c>
-      <c r="CE27" s="1" t="s">
-        <v>71</v>
+      <c r="BX28" t="s">
+        <v>618</v>
+      </c>
+      <c r="CA28" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="CB28" s="12" t="s">
+        <v>620</v>
+      </c>
+      <c r="CC28" s="12" t="s">
+        <v>621</v>
+      </c>
+      <c r="CD28" s="1" t="s">
+        <v>622</v>
       </c>
     </row>
-    <row r="28" spans="73:82">
-      <c r="BU28" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="BV28" s="14" t="s">
-        <v>619</v>
-      </c>
-      <c r="BX28" t="s">
-        <v>620</v>
-      </c>
-      <c r="CA28" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="CB28" s="14" t="s">
+    <row r="29" spans="19:83" x14ac:dyDescent="0.2">
+      <c r="BU29" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="BV29" s="12" t="s">
+        <v>624</v>
+      </c>
+      <c r="BW29" s="12" t="s">
+        <v>625</v>
+      </c>
+      <c r="BX29" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="CA29" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="CB29" s="12" t="s">
+        <v>628</v>
+      </c>
+      <c r="CD29" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="CC28" s="14" t="s">
-        <v>623</v>
-      </c>
-      <c r="CD28" s="1" t="s">
-        <v>624</v>
-      </c>
     </row>
-    <row r="29" spans="73:82">
-      <c r="BU29" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="BV29" s="14" t="s">
-        <v>626</v>
-      </c>
-      <c r="BW29" s="14" t="s">
-        <v>627</v>
-      </c>
-      <c r="BX29" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="CA29" s="1" t="s">
+    <row r="30" spans="19:83" x14ac:dyDescent="0.2">
+      <c r="CA30" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="CB29" s="14" t="s">
+      <c r="CB30" s="12" t="s">
         <v>630</v>
       </c>
-      <c r="CD29" s="1" t="s">
-        <v>624</v>
+      <c r="CD30" s="1" t="s">
+        <v>622</v>
       </c>
     </row>
-    <row r="30" spans="79:82">
-      <c r="CA30" s="1" t="s">
+    <row r="31" spans="19:83" x14ac:dyDescent="0.2">
+      <c r="CA31" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="CB30" s="14" t="s">
+      <c r="CB31" s="10" t="s">
         <v>632</v>
       </c>
-      <c r="CD30" s="1" t="s">
-        <v>624</v>
+      <c r="CD31" s="1" t="s">
+        <v>633</v>
       </c>
     </row>
-    <row r="31" spans="79:82">
-      <c r="CA31" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="CB31" s="12" t="s">
+    <row r="32" spans="19:83" x14ac:dyDescent="0.2">
+      <c r="CA32" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="CD31" s="1" t="s">
+      <c r="CB32" s="12" t="s">
         <v>635</v>
       </c>
+      <c r="CD32" s="1" t="s">
+        <v>636</v>
+      </c>
     </row>
-    <row r="32" spans="79:82">
-      <c r="CA32" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="CB32" s="14" t="s">
+    <row r="33" spans="79:82" x14ac:dyDescent="0.2">
+      <c r="CA33" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="CD32" s="1" t="s">
+      <c r="CB33" s="13" t="s">
         <v>638</v>
       </c>
+      <c r="CC33" s="12" t="s">
+        <v>639</v>
+      </c>
+      <c r="CD33" s="1" t="s">
+        <v>640</v>
+      </c>
     </row>
-    <row r="33" spans="79:82">
-      <c r="CA33" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="CB33" s="15" t="s">
-        <v>640</v>
-      </c>
-      <c r="CC33" s="14" t="s">
+    <row r="34" spans="79:82" x14ac:dyDescent="0.2">
+      <c r="CA34" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="CD33" s="1" t="s">
+      <c r="CB34" s="12" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="34" spans="79:82">
-      <c r="CA34" s="1" t="s">
+      <c r="CD34" s="1" t="s">
         <v>643</v>
-      </c>
-      <c r="CB34" s="14" t="s">
-        <v>644</v>
-      </c>
-      <c r="CD34" s="1" t="s">
-        <v>645</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="http://www.addog.vip" tooltip="http://www.addog.vip"/>
-    <hyperlink ref="C3" r:id="rId2" display="https://pic.zhaotu.me/2023/04/16/o472x7bffb9ef3815840b.png" tooltip="https://pic.zhaotu.me/2023/04/16/o472x7bffb9ef3815840b.png"/>
-    <hyperlink ref="B4" r:id="rId3" display="https://ymck.me" tooltip="https://ymck.me"/>
-    <hyperlink ref="C4" r:id="rId4" display="https://ymck.me/wp-content/uploads/2022/12/head-removebg-preview-1-1.png" tooltip="https://ymck.me/wp-content/uploads/2022/12/head-removebg-preview-1-1.png"/>
-    <hyperlink ref="N3" r:id="rId5" display="http://hao.58pic.com" tooltip="http://hao.58pic.com"/>
-    <hyperlink ref="O3" r:id="rId6" display="https://icon.qiantucdn.com/static/images/logo/p-logo-q2.png" tooltip="https://icon.qiantucdn.com/static/images/logo/p-logo-q2.png"/>
-    <hyperlink ref="N4" r:id="rId7" display="http://nav.sbkko.com" tooltip="http://nav.sbkko.com"/>
-    <hyperlink ref="O4" r:id="rId8" display="https://nav.sbkko.com/wp-content/uploads/2020/04/logo-collapsed2.png" tooltip="https://nav.sbkko.com/wp-content/uploads/2020/04/logo-collapsed2.png"/>
-    <hyperlink ref="T6" r:id="rId9" display="http://www.uigreat.com" tooltip="http://www.uigreat.com"/>
-    <hyperlink ref="T7" r:id="rId10" display="http://www.ui100day.com" tooltip="http://www.ui100day.com"/>
-    <hyperlink ref="Z3" r:id="rId11" display="http://color.uisdc.com" tooltip="http://color.uisdc.com"/>
-    <hyperlink ref="Z4" r:id="rId12" display="http://color.oulu.me" tooltip="http://color.oulu.me"/>
-    <hyperlink ref="H3" r:id="rId13" display="https://screenlane.com" tooltip="https://screenlane.com"/>
-    <hyperlink ref="I3" r:id="rId14" display="https://pic.zhaotu.me/2023/04/16/302x9bb9a661e29e98f7.png" tooltip="https://pic.zhaotu.me/2023/04/16/302x9bb9a661e29e98f7.png"/>
-    <hyperlink ref="C5" r:id="rId15" display="https://17yongai.com/wp-content/uploads/2023/02/logo.png"/>
-    <hyperlink ref="B6" r:id="rId16" display="http://ziyuanhuishequ.ys168.com"/>
-    <hyperlink ref="B7" r:id="rId17" display="https://www.uy5.net/?aff=7168" tooltip="https://www.uy5.net/?aff=7168"/>
-    <hyperlink ref="C7" r:id="rId18" display="https://img.quankexia.com/kelongwo/wp-content/uploads/2021/07/2021071214094981.png"/>
-    <hyperlink ref="B8" r:id="rId19" display="https://airtap.io/w/xiadj"/>
-    <hyperlink ref="C8" r:id="rId20" display="/favicon.ico"/>
-    <hyperlink ref="B9" r:id="rId21" display="https://gpt.1nav.ml" tooltip="https://gpt.1nav.ml "/>
-    <hyperlink ref="C9" r:id="rId22" display="https://gpt.1nav.ml/favicon.ico" tooltip="https://gpt.1nav.ml/favicon.ico"/>
-    <hyperlink ref="C6" r:id="rId23" display="https://pic.zhaotu.me/2023/04/16/12x69a97f65a24ebf1a.png"/>
-    <hyperlink ref="H4" r:id="rId24" display="https://dribbble.com"/>
-    <hyperlink ref="H5" r:id="rId25" display="https://collectui.com"/>
-    <hyperlink ref="H6" r:id="rId26" display="https://pixso.cn/community/home"/>
-    <hyperlink ref="H8" r:id="rId27" display="https://search.muz.li"/>
-    <hyperlink ref="H7" r:id="rId28" display="https://www.streamlinehq.com"/>
-    <hyperlink ref="H9" r:id="rId29" display="https://lottiefiles.com"/>
-    <hyperlink ref="H10" r:id="rId30" display="https://lanfucai.com"/>
-    <hyperlink ref="H11" r:id="rId31" display="https://aescripts.com"/>
-    <hyperlink ref="H12" r:id="rId32" display="https://space.bilibili.com/485723138"/>
-    <hyperlink ref="I4" r:id="rId33" display="https://cdn.dribbble.com/assets/favicon-b38525134603b9513174ec887944bde1a869eb6cd414f4d640ee48ab2a15a26b.ico"/>
-    <hyperlink ref="I6" r:id="rId34" display="https://3o.hk/images/2023/04/17/12x.png" tooltip="https://3o.hk/images/2023/04/17/12x.png"/>
-    <hyperlink ref="I7" r:id="rId35" display="https://framerusercontent.com/images/xYWUE6fSnRyPyBimyskHG7Gws.png"/>
-    <hyperlink ref="I8" r:id="rId36" display="https://search.muz.li/assets/images/favicon.png"/>
-    <hyperlink ref="I9" r:id="rId37" display="https://lottiefiles.com/favicons-new/apple-icon-144x144.png" tooltip="https://lottiefiles.com/favicons-new/apple-icon-144x144.png"/>
-    <hyperlink ref="I10" r:id="rId38" display="https://3o.hk/images/2023/04/17/o42x.png" tooltip="https://3o.hk/images/2023/04/17/o42x.png"/>
-    <hyperlink ref="I11" r:id="rId39" display="https://3o.hk/images/2023/04/17/o22x5b2fc99ff2f00df8.png" tooltip="https://3o.hk/images/2023/04/17/o22x5b2fc99ff2f00df8.png"/>
-    <hyperlink ref="I12" r:id="rId40" display="https://3o.hk/images/2023/04/17/o92x.png" tooltip="https://3o.hk/images/2023/04/17/o92x.png"/>
-    <hyperlink ref="N5" r:id="rId1" display="http://www.addog.vip" tooltip="http://www.addog.vip"/>
-    <hyperlink ref="N6" r:id="rId41" display="http://hao.uisdc.com"/>
-    <hyperlink ref="N7" r:id="rId42" display="http://hao.shejidaren.com"/>
-    <hyperlink ref="N8" r:id="rId43" display="http://www.shejibox.cn"/>
-    <hyperlink ref="N9" r:id="rId16" display="http://ziyuanhuishequ.ys168.com"/>
-    <hyperlink ref="N10" r:id="rId44" display="http://www.pslkzs.com/nav.php"/>
-    <hyperlink ref="N11" r:id="rId45" display="http://so.uigreat.com"/>
-    <hyperlink ref="N12" r:id="rId46" display="http://www.chuangzaoshi.com"/>
-    <hyperlink ref="N13" r:id="rId47" display="http://hao.shijuechuanda.com"/>
-    <hyperlink ref="N14" r:id="rId48" display="http://ebook.name/nav.html"/>
-    <hyperlink ref="T8" r:id="rId49" display="https://www.sheboo.com/" tooltip="https://www.sheboo.com/"/>
-    <hyperlink ref="O5" r:id="rId50" display="https://3o.hk/images/2023/04/17/o472x.png" tooltip="https://3o.hk/images/2023/04/17/o472x.png"/>
-    <hyperlink ref="O6" r:id="rId51" display="https://image.uisdc.com/wp-content/uploads/2018/09/nav-dkt-new2018.jpg"/>
-    <hyperlink ref="O9" r:id="rId23" display="https://pic.zhaotu.me/2023/04/16/12x69a97f65a24ebf1a.png"/>
-    <hyperlink ref="O8" r:id="rId52" display="https://3o.hk/images/2023/04/17/17.png"/>
-    <hyperlink ref="O7" r:id="rId53" display="https://3o.hk/images/2023/04/17/18.png"/>
-    <hyperlink ref="T3" r:id="rId54" display="http://www.cndesign.com"/>
-    <hyperlink ref="T4" r:id="rId55" display="http://huaban.com"/>
-    <hyperlink ref="T5" r:id="rId56" display="http://www.zcool.com.cn"/>
-    <hyperlink ref="T9" r:id="rId57" display="http://www.doooor.com"/>
-    <hyperlink ref="T10" r:id="rId58" display="http://ui.cn"/>
-    <hyperlink ref="T11" r:id="rId59" display="http://wenzang.art"/>
-    <hyperlink ref="T12" r:id="rId60" display="http://www.motiongreat.com"/>
-    <hyperlink ref="T13" r:id="rId61" display="http://dribbble.com"/>
-    <hyperlink ref="T14" r:id="rId62" display="http://www.behance.net"/>
-    <hyperlink ref="T16" r:id="rId63" display="http://www.bossdesign.cn"/>
-    <hyperlink ref="T17" r:id="rId64" display="http://hello.eboy.com/pool/~Pixorama/1?q=project"/>
-    <hyperlink ref="U9" r:id="rId65" display="https://pic.zhaotu.me/2023/04/17/imagef66ab025fc79e3ca.png" tooltip="https://pic.zhaotu.me/2023/04/17/imagef66ab025fc79e3ca.png"/>
-    <hyperlink ref="T15" r:id="rId66" display="http://www.pinterest.com"/>
-    <hyperlink ref="Z5" r:id="rId67" display="http://zhongguose.com"/>
-    <hyperlink ref="Z6" r:id="rId68" display="http://webgradients.com"/>
-    <hyperlink ref="AF3" r:id="rId69" display="http://www.lookae.com"/>
-    <hyperlink ref="AF4" r:id="rId70" display="http://www.lookzy.cn"/>
-    <hyperlink ref="AF5" r:id="rId71" display="http://helpx.adobe.com/cn/camera-raw/kb/camera-raw-plug-in-installer.html"/>
-    <hyperlink ref="AF6" r:id="rId72" display="http://www.appinn.com/sagethumbs-for-windows/#google_vignette"/>
-    <hyperlink ref="AF7" r:id="rId73" display="http://www.extfans.com"/>
-    <hyperlink ref="AF8" r:id="rId74" display="https://chrome.zzzmh.cn"/>
-    <hyperlink ref="AF9" r:id="rId75" display="http://c4dnb.com"/>
-    <hyperlink ref="AF10" r:id="rId76" display="http://chajianps.cn"/>
-    <hyperlink ref="AF11" r:id="rId77" display="https://itab.link"/>
-    <hyperlink ref="AF12" r:id="rId78" display="http://cn.infinitynewtab.com"/>
-    <hyperlink ref="AL3" r:id="rId79" display="https://www.ooopn.com/tool/zlibrary"/>
-    <hyperlink ref="AL4" r:id="rId80" display="http://ebook.blinkol.com/#/"/>
-    <hyperlink ref="AL5" r:id="rId81" display="http://www.qqszz.com"/>
-    <hyperlink ref="AL6" r:id="rId82" display="http://xibianyun.com/book/"/>
-    <hyperlink ref="AL7" r:id="rId83" display="http://ebook.name"/>
-    <hyperlink ref="AR3" r:id="rId84" display="http://www.vfxcool.com"/>
-    <hyperlink ref="AR4" r:id="rId85" display="http://www.cgown.com"/>
-    <hyperlink ref="AX3" r:id="rId86" display="http://getquicker.net"/>
-    <hyperlink ref="AX4" r:id="rId87" display="https://lv.ulikecam.com/mobile_portal?_s=4"/>
-    <hyperlink ref="AX5" r:id="rId88" display="http://miao.wondershare.cn"/>
-    <hyperlink ref="AX6" r:id="rId16" display="http://ziyuanhuishequ.ys168.com"/>
-    <hyperlink ref="AX7" r:id="rId89" display="https://www.uy5.net/category/download_zy/adobe/?aff=7168" tooltip="https://www.uy5.net/category/download_zy/adobe/?aff=7168"/>
-    <hyperlink ref="AX8" r:id="rId90" display="http://pan.baidu.com/s/1eYDWh0J9E_Z9FaO2H-A96g#list/path=%2F&amp;vmode=list"/>
-    <hyperlink ref="AX9" r:id="rId91" display="http://zh.snipaste.com"/>
-    <hyperlink ref="AX10" r:id="rId92" display="http://www.lanzoux.com/s/wp"/>
-    <hyperlink ref="AX11" r:id="rId93" display="http://www.lanzoux.com/s/APP" tooltip="http://www.lanzoux.com/s/APP"/>
-    <hyperlink ref="BD3" r:id="rId94" display="http://space.bilibili.com/38053181?👋我和小白很早之前就关注的up主，上课老师还放了他的视频"/>
-    <hyperlink ref="BD4" r:id="rId95" display="https://space.bilibili.com/449144107"/>
-    <hyperlink ref="BD5" r:id="rId96" display="http://www.bilibili.com/video/BV177411P7d1?👋这是我推荐的，很棒的教程"/>
-    <hyperlink ref="BD6" r:id="rId97" display="http://www.bilibili.com/video/BV164411Y732?👋禹哥推荐的，兄弟们冲冲冲，学起来,评论区有up主的网站😏"/>
-    <hyperlink ref="BD7" r:id="rId98" display="http://www.hellocjc.com"/>
-    <hyperlink ref="BD8" r:id="rId99" display="http://space.bilibili.com/105133961?👋夏dj的头号粉丝推荐"/>
-    <hyperlink ref="BD9" r:id="rId100" display="http://space.bilibili.com/25433581"/>
-    <hyperlink ref="BD10" r:id="rId101" display="http://www.bilibili.com/video/BV1YW411e7n5/"/>
-    <hyperlink ref="BD11" r:id="rId102" display="http://www.bilibili.com/video/BV1EW411171A/"/>
-    <hyperlink ref="BD12" r:id="rId103" display="http://www.bilibili.com/video/BV1J4411C7am?p=5/"/>
-    <hyperlink ref="BD13" r:id="rId104" display="http://www.bilibili.com/video/BV12x411f7Gp?p=9"/>
-    <hyperlink ref="BD14" r:id="rId105" display="http://www.bilibili.com/video/BV1bb411F7Sh/"/>
-    <hyperlink ref="BJ3" r:id="rId106" display="http://m.52jingsai.com"/>
-    <hyperlink ref="BJ4" r:id="rId107" display="http://bbs.1zj.com/forum-41-1.html"/>
-    <hyperlink ref="BJ5" r:id="rId108" display="https://task.huitu.com"/>
-    <hyperlink ref="BJ6" r:id="rId109" display="http://www.5iidea.com/xyj"/>
-    <hyperlink ref="BJ7" r:id="rId110" display="http://designmag.cn"/>
-    <hyperlink ref="BP3" r:id="rId111" display="http://image.baidu.com/?fr=shitu/"/>
-    <hyperlink ref="BP4" r:id="rId112" display="http://trace.moe"/>
-    <hyperlink ref="BP5" r:id="rId113" display="http://saucenao.com"/>
-    <hyperlink ref="BP6" r:id="rId114" display="http://pic.sogou.com/pic/index.jsp" tooltip="http://pic.sogou.com/pic/index.jsp"/>
-    <hyperlink ref="BP7" r:id="rId115" display="http://m.image.so.com"/>
-    <hyperlink ref="BV3" r:id="rId116" display="https://www.gaituya.com"/>
-    <hyperlink ref="BV4" r:id="rId117" display="https://img.logosc.cn"/>
-    <hyperlink ref="BV5" r:id="rId118" display="http://www.bossdesign.cn/pdftools"/>
-    <hyperlink ref="BV6" r:id="rId119" display="https://www.pdf2go.com/zh"/>
-    <hyperlink ref="BV7" r:id="rId120" display="http://app.xunjiepdf.com"/>
-    <hyperlink ref="BV9" r:id="rId121" display="http://www.aconvert.com/cn/"/>
-    <hyperlink ref="BV10" r:id="rId122" display="http://zhuanhuan.supfree.net"/>
-    <hyperlink ref="BV11" r:id="rId123" display="https://ezgif.com"/>
-    <hyperlink ref="BV12" r:id="rId124" display="http://www.zamzar.com"/>
-    <hyperlink ref="BV13" r:id="rId125" display="http://smallpdf.com"/>
-    <hyperlink ref="BV14" r:id="rId126" display="http://www.pngtosvg.com"/>
-    <hyperlink ref="BV15" r:id="rId127" display="http://www.remove.bg/zh"/>
-    <hyperlink ref="BV16" r:id="rId128" display="http://tool.lanrentuku.com/guifan/ui.html"/>
-    <hyperlink ref="BV17" r:id="rId129" display="http://screensiz.es/"/>
-    <hyperlink ref="BV18" r:id="rId130" display="http://www.paintcodeapp.com/news/ultimate-guide-to-iphone-resolutions"/>
-    <hyperlink ref="BV19" r:id="rId131" display="http://material.io/blog/device-metrics"/>
-    <hyperlink ref="BV20" r:id="rId132" display="http://cli.im/deqr"/>
-    <hyperlink ref="BV21" r:id="rId133" display="http://tinify.cn"/>
-    <hyperlink ref="BV22" r:id="rId134" display="http://www.yasuotu.com"/>
-    <hyperlink ref="BV23" r:id="rId135" display="http://www.processon.com"/>
-    <hyperlink ref="BV24" r:id="rId136" display="http://koutu.58pic.com"/>
-    <hyperlink ref="BV25" r:id="rId137" display="http://www.unscreen.com/upload"/>
-    <hyperlink ref="BV26" r:id="rId138" display="https://products.groupdocs.app/zh/conversion/total"/>
-    <hyperlink ref="BV27" r:id="rId139" display="https://vectordad.com"/>
-    <hyperlink ref="CN3" r:id="rId140" display="http://www.freehost.cc"/>
-    <hyperlink ref="CN4" r:id="rId141" display="http://www.xiadj.cf"/>
-    <hyperlink ref="CN5" r:id="rId142" display="https://dh.4everland.app"/>
-    <hyperlink ref="CB3" r:id="rId16" display="http://ziyuanhuishequ.ys168.com"/>
-    <hyperlink ref="CB4" r:id="rId143" display="https://brandingstyleguides.com/guide"/>
-    <hyperlink ref="CB5" r:id="rId144" display="http://zymf.ys168.com"/>
-    <hyperlink ref="CB6" r:id="rId145" display="https://www.uy5.net/Resource_function/yuanjx/C/?aff=1799" tooltip="https://www.uy5.net/Resource_function/yuanjx/C/?aff=1799"/>
-    <hyperlink ref="CB8" r:id="rId146" display="http://www.ls.graphics"/>
-    <hyperlink ref="CB9" r:id="rId147" display="https://www.freepik.com"/>
-    <hyperlink ref="CB13" r:id="rId148" display="http://www.yunmiss.com/list/1.html"/>
-    <hyperlink ref="CB14" r:id="rId149" display="http://www.mcool.com/free.php"/>
-    <hyperlink ref="CB15" r:id="rId150" display="https://blender.kim"/>
-    <hyperlink ref="CB16" r:id="rId151" display="http://www.modown.cn/?aff=70874"/>
-    <hyperlink ref="CB17" r:id="rId152" display="https://www.3d66.com"/>
-    <hyperlink ref="CB18" r:id="rId153" display="https://www.cgmodel.com"/>
-    <hyperlink ref="CB19" r:id="rId154" display="http://www.51pptmoban.com"/>
-    <hyperlink ref="CB21" r:id="rId155" display="http://aigei.com/design/?m=b_4425938"/>
-    <hyperlink ref="CB20" r:id="rId156" display="http://www.1ppt.com"/>
-    <hyperlink ref="CB22" r:id="rId157" display="http://www.5sucai.com"/>
-    <hyperlink ref="CB23" r:id="rId158" display="http://www.sheji567.com"/>
-    <hyperlink ref="CB24" r:id="rId159" display="http://www.51yuansu.com"/>
-    <hyperlink ref="CB25" r:id="rId160" display="http://undraw.co/illustrations"/>
-    <hyperlink ref="CB26" r:id="rId161" display="http://www.huiyi8.com/yinxiao"/>
-    <hyperlink ref="CB27" r:id="rId162" display="http://www.zifh.com"/>
-    <hyperlink ref="CB28" r:id="rId163" display="http://www.maoken.com"/>
-    <hyperlink ref="CB29" r:id="rId164" display="http://www.ziticangku.com"/>
-    <hyperlink ref="CB30" r:id="rId165" display="http://www.100font.com"/>
-    <hyperlink ref="CB31" r:id="rId166" display="http://zh.fonts2u.com" tooltip="http://zh.fonts2u.com"/>
-    <hyperlink ref="CB32" r:id="rId167" display="http://www.pptfans.cn/pptcourse"/>
-    <hyperlink ref="CH3" r:id="rId168" display="http://by.360xueke.com"/>
-    <hyperlink ref="CH4" r:id="rId169" display="http://www.cnki.net"/>
-    <hyperlink ref="CH5" r:id="rId170" display="http://www.wanfangdata.com.cn"/>
-    <hyperlink ref="CH6" r:id="rId171" display="http://www.cqvip.com"/>
-    <hyperlink ref="CH7" r:id="rId172" display="http://www.paperask.com"/>
-    <hyperlink ref="CH8" r:id="rId21" display="https://gpt.1nav.ml"/>
-    <hyperlink ref="CH9" r:id="rId173" display="http://www.paperray.com"/>
-    <hyperlink ref="CH10" r:id="rId174" display="http://www.paperdatas.com"/>
-    <hyperlink ref="CH11" r:id="rId175" display="http://www.paperfree.cn" tooltip="http://www.paperfree.cn"/>
-    <hyperlink ref="AM3" r:id="rId176" display="https://3o.hk/images/2023/04/17/1.png"/>
-    <hyperlink ref="AM4" r:id="rId177" display="https://3o.hk/images/2023/04/17/19.png"/>
-    <hyperlink ref="AS3" r:id="rId178" display="https://pic.zhaotu.me/2023/04/17/1735b6021f0c714c3.png"/>
-    <hyperlink ref="AY4" r:id="rId179" display="https://lf-cdn-tos.bytescm.com/obj/static/ies/ulike/web/resource/fe_official/assets/imgs/lv/favicon.ico"/>
-    <hyperlink ref="U10" r:id="rId180" display="https://3o.hk/images/2023/04/17/20.png"/>
-    <hyperlink ref="U12" r:id="rId181" display="https://3o.hk/images/2023/04/18/image.png" tooltip="https://3o.hk/images/2023/04/18/image.png"/>
-    <hyperlink ref="U17" r:id="rId182" display="https://eboy.s3.us-west-1.amazonaws.com/bubble/projects/2005/Future%20Publishing/FTP-pixartcov-newst-15k.png"/>
-    <hyperlink ref="AG6" r:id="rId183" display="https://3o.hk/images/2023/04/17/21.png"/>
-    <hyperlink ref="AY6" r:id="rId23" display="https://pic.zhaotu.me/2023/04/16/12x69a97f65a24ebf1a.png"/>
-    <hyperlink ref="AY7" r:id="rId184" display="https://pic.zhaotu.me/2023/04/17/221f88baea1af3207d.png"/>
-    <hyperlink ref="AY8" r:id="rId185" display="https://pic.zhaotu.me/2023/04/17/35f02d4e73d3164ad.png"/>
-    <hyperlink ref="AY9" r:id="rId186" display="https://3o.hk/images/2023/04/17/o73.png"/>
-    <hyperlink ref="BE14" r:id="rId187" display="https://3o.hk/images/2023/04/17/27.png"/>
-    <hyperlink ref="BE12" r:id="rId188" display="https://3o.hk/images/2023/04/17/26.png"/>
-    <hyperlink ref="BE13" r:id="rId189" display="https://3o.hk/images/2023/04/17/24.png"/>
-    <hyperlink ref="BE10" r:id="rId189" display="https://3o.hk/images/2023/04/17/24.png"/>
-    <hyperlink ref="BE3" r:id="rId190" display="https://3o.hk/images/2023/04/17/o76.png"/>
-    <hyperlink ref="BE4" r:id="rId191" display="https://3o.hk/images/2023/04/17/16.png"/>
-    <hyperlink ref="BE5" r:id="rId192" display="https://3o.hk/images/2023/04/17/o77.png"/>
-    <hyperlink ref="BE6" r:id="rId193" display="https://3o.hk/images/2023/04/17/o56.png"/>
-    <hyperlink ref="BE7" r:id="rId194" display="https://3o.hk/images/2023/04/17/o55.png"/>
-    <hyperlink ref="BE8" r:id="rId195" display="https://3o.hk/images/2023/04/17/23.png"/>
-    <hyperlink ref="BE9" r:id="rId196" display="https://3o.hk/images/2023/04/17/o96.png"/>
-    <hyperlink ref="BE11" r:id="rId197" display="https://3o.hk/images/2023/04/17/25.png"/>
-    <hyperlink ref="BK4" r:id="rId198" display="https://3o.hk/images/2023/04/17/o87.png"/>
-    <hyperlink ref="BK3" r:id="rId199" display="https://3o.hk/images/2023/04/17/o86.png"/>
-    <hyperlink ref="BK6" r:id="rId200" display="https://3o.hk/images/2023/04/17/o68.png"/>
-    <hyperlink ref="BK7" r:id="rId201" display="https://3o.hk/images/2023/04/17/o41.png"/>
-    <hyperlink ref="BQ3" r:id="rId202" display="https://www.baidu.com/img/baidu_85beaf5496f291521eb75ba38eacbd87.svg"/>
-    <hyperlink ref="BW14" r:id="rId203" display="https://3o.hk/images/2023/04/17/o80.png"/>
-    <hyperlink ref="CC3" r:id="rId23" display="https://pic.zhaotu.me/2023/04/16/12x69a97f65a24ebf1a.png"/>
-    <hyperlink ref="CC5" r:id="rId23" display="https://pic.zhaotu.me/2023/04/16/12x69a97f65a24ebf1a.png"/>
-    <hyperlink ref="CC6" r:id="rId18" display="https://img.quankexia.com/kelongwo/wp-content/uploads/2021/07/2021071214094981.png"/>
-    <hyperlink ref="CC16" r:id="rId204" display="https://api.iowen.cn/favicon/www.modown.cn.png"/>
-    <hyperlink ref="CI8" r:id="rId22" display="https://gpt.1nav.ml/favicon.ico"/>
-    <hyperlink ref="CC13" r:id="rId205" display="https://3o.hk/images/2023/04/17/o66.png"/>
-    <hyperlink ref="CC28" r:id="rId206" display="https://3o.hk/images/2023/04/17/o1.png"/>
-    <hyperlink ref="CC21" r:id="rId207" display="https://3o.hk/images/2023/04/17/o63.png"/>
-    <hyperlink ref="CC26" r:id="rId208" display="https://3o.hk/images/2023/04/17/o69.png"/>
-    <hyperlink ref="CC23" r:id="rId209" display="https://3o.hk/images/2023/04/17/o78.png"/>
-    <hyperlink ref="BW16" r:id="rId210" display="https://3o.hk/images/2023/04/17/28.png"/>
-    <hyperlink ref="AF13" r:id="rId211" display="https://gan.cool" tooltip="https://gan.cool"/>
-    <hyperlink ref="BV8" r:id="rId212" display="https://www.flexclip.com/cn/tools/compress-video/"/>
-    <hyperlink ref="BW8" r:id="rId213" display="https://api.iowen.cn/favicon/www.flexclip.com.png"/>
-    <hyperlink ref="AX12" r:id="rId214" display="https://flowus.cn/share/ab4b6b86-34a6-4aa0-a679-b4a221b8e41d"/>
-    <hyperlink ref="AX13" r:id="rId215" display="http://www.ypojie.com"/>
-    <hyperlink ref="AX14" r:id="rId216" display="http://snip.qq.com"/>
-    <hyperlink ref="AX15" r:id="rId217" display="https://www.xxrjzs.com"/>
-    <hyperlink ref="AY14" r:id="rId218" display="https://3o.hk/images/2023/04/17/4.png"/>
-    <hyperlink ref="CC14" r:id="rId219" display="https://www.mcool.com/favicon.ico"/>
-    <hyperlink ref="T18" r:id="rId220" display="https://www.instagram.com"/>
-    <hyperlink ref="CB7" r:id="rId221" display="https://mockupplanet.com" tooltip="https://mockupplanet.com"/>
-    <hyperlink ref="H13" r:id="rId222" display="https://www.uy5.net/pc-xmind/" tooltip="https://www.uy5.net/pc-xmind/"/>
-    <hyperlink ref="I13" r:id="rId223" display="https://api.iowen.cn/favicon/xmind.cn/.png"/>
-    <hyperlink ref="B11" r:id="rId224" display="https://rightbrain.art"/>
-    <hyperlink ref="CB33" r:id="rId225" display="https://www.thosefree.com/design"/>
-    <hyperlink ref="CC33" r:id="rId226" display="https://img.thosefree.com/static/logo.png"/>
-    <hyperlink ref="B12" r:id="rId227" display="https://wormhole.app"/>
-    <hyperlink ref="CB10" r:id="rId228" display="https://resourceboy.com"/>
-    <hyperlink ref="Z7" r:id="rId229" display="https://color.adobe.com"/>
-    <hyperlink ref="CB12" r:id="rId230" display="https://mockdrop.io"/>
-    <hyperlink ref="CB11" r:id="rId231" display="https://www.anthonyboyd.graphics"/>
-    <hyperlink ref="H14" r:id="rId232" display="https://spline.design" tooltip="https://spline.design"/>
-    <hyperlink ref="CB34" r:id="rId233" display="https://www.mingcute.com"/>
-    <hyperlink ref="AR5" r:id="rId234" display="https://c4dco.com"/>
-    <hyperlink ref="AT5" r:id="rId235" display="一酷C4D - 一酷让设计更酷一下，免费C4D资源网站下载！ (c4dco.com)" tooltip="https://c4dco.com/"/>
-    <hyperlink ref="AR6" r:id="rId236" display="http://cgka3d.com" tooltip="http://cgka3d.com"/>
-    <hyperlink ref="AT6" r:id="rId237" display="CG咖 - 精选全网 Blender插件 | 3D模型 | 预设等优质CG资源 (cgka3d.com)" tooltip="http://cgka3d.com/"/>
-    <hyperlink ref="AR7" r:id="rId238" display="https://c4dsky.com"/>
-    <hyperlink ref="AT7" r:id="rId239" display="C4DSKY|书生 AE模板 FCPX插件 CG教程 CG插件 CG软件 CG素材 CG论坛 免费下载" tooltip="https://c4dsky.com/"/>
-    <hyperlink ref="BV28" r:id="rId240" display="https://www.67tool.com"/>
-    <hyperlink ref="BX28" r:id="rId241" display="即时工具-致力打造即用即走型在线工具箱 (67tool.com)" tooltip="https://www.67tool.com/"/>
-    <hyperlink ref="Z8" r:id="rId242" display="https://aicolors.co"/>
-    <hyperlink ref="AB8" r:id="rId243" display="👍ai配色，UI手机app配色，pc软件配色" tooltip="https://aicolors.co/"/>
-    <hyperlink ref="CH12" r:id="rId244" display="https://chsi.wanfangtech.net"/>
-    <hyperlink ref="CH13" r:id="rId245" display="https://www.paperok.com"/>
-    <hyperlink ref="CJ13" r:id="rId246" display="PaperOK论文查重 - 专注免费论文查重，论文查重免费，不限类型" tooltip="https://www.paperok.com/"/>
-    <hyperlink ref="AF14" r:id="rId247" display="https://www.newcger.com"/>
-    <hyperlink ref="AH14" r:id="rId248" display="新CG儿 - 数字视觉分享平台 | AE模板_视频素材_免费下载 (newcger.com)" tooltip="https://www.newcger.com/"/>
-    <hyperlink ref="B13" r:id="rId249" display="https://ai.1nav.ml"/>
-    <hyperlink ref="BV29" r:id="rId250" display="https://www.pixelconverter.com/zh/"/>
-    <hyperlink ref="BW29" r:id="rId251" display="https://www.pixelconverter.com/wp-content/uploads/2020/11/cropped-favicon-180x180.png"/>
+    <hyperlink ref="B3" r:id="rId1" tooltip="http://www.addog.vip" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" tooltip="https://pic.zhaotu.me/2023/04/16/o472x7bffb9ef3815840b.png" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" tooltip="https://ymck.me" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C4" r:id="rId4" tooltip="https://ymck.me/wp-content/uploads/2022/12/head-removebg-preview-1-1.png" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="N3" r:id="rId5" tooltip="http://hao.58pic.com" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="O3" r:id="rId6" tooltip="https://icon.qiantucdn.com/static/images/logo/p-logo-q2.png" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="N4" r:id="rId7" tooltip="http://nav.sbkko.com" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="O4" r:id="rId8" tooltip="https://nav.sbkko.com/wp-content/uploads/2020/04/logo-collapsed2.png" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="T6" r:id="rId9" tooltip="http://www.uigreat.com" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="T7" r:id="rId10" tooltip="http://www.ui100day.com" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="Z3" r:id="rId11" tooltip="http://color.uisdc.com" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="Z4" r:id="rId12" tooltip="http://color.oulu.me" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="H3" r:id="rId13" tooltip="https://screenlane.com" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="I3" r:id="rId14" tooltip="https://pic.zhaotu.me/2023/04/16/302x9bb9a661e29e98f7.png" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="C5" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B6" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B7" r:id="rId17" tooltip="https://www.uy5.net/?aff=7168" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="C7" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B8" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="C8" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="B9" r:id="rId21" tooltip="https://gpt.1nav.ml " xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="C9" r:id="rId22" tooltip="https://gpt.1nav.ml/favicon.ico" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="C6" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="H4" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="H5" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="H6" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="H8" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="H7" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="H9" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="H10" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="H11" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="H12" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="I4" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="I6" r:id="rId34" tooltip="https://3o.hk/images/2023/04/17/12x.png" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="I7" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="I8" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="I9" r:id="rId37" tooltip="https://lottiefiles.com/favicons-new/apple-icon-144x144.png" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="I10" r:id="rId38" tooltip="https://3o.hk/images/2023/04/17/o42x.png" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="I11" r:id="rId39" tooltip="https://3o.hk/images/2023/04/17/o22x5b2fc99ff2f00df8.png" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="I12" r:id="rId40" tooltip="https://3o.hk/images/2023/04/17/o92x.png" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="N5" r:id="rId41" tooltip="http://www.addog.vip" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="N6" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="N7" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="N8" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="N9" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="N10" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="N11" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="N12" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="N13" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="N14" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="T8" r:id="rId51" tooltip="https://www.sheboo.com/" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="O5" r:id="rId52" tooltip="https://3o.hk/images/2023/04/17/o472x.png" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="O6" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="O9" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="O8" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="O7" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="T3" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="T4" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="T5" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="T9" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="T10" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="T11" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="T12" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="T13" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="T14" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="T16" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="T17" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="U9" r:id="rId68" tooltip="https://pic.zhaotu.me/2023/04/17/imagef66ab025fc79e3ca.png" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="T15" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="Z5" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="Z6" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="AF3" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="AF4" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="AF5" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="AF6" r:id="rId75" location="google_vignette" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="AF7" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="AF8" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="AF9" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="AF10" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="AF11" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="AF12" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="AL3" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="AL4" r:id="rId83" location="/" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="AL5" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="AL6" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="AL7" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="AR3" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="AR4" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="AX3" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="AX4" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="AX5" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="AX6" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="AX7" r:id="rId93" tooltip="https://www.uy5.net/category/download_zy/adobe/?aff=7168" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="AX8" r:id="rId94" location="list/path=%2F&amp;vmode=list" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="AX9" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="AX10" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="AX11" r:id="rId97" tooltip="http://www.lanzoux.com/s/APP" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="BD3" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="BD4" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="BD5" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="BD6" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="BD7" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="BD8" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="BD9" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="BD10" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="BD11" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="BD12" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="BD13" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="BD14" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="BJ3" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="BJ4" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="BJ5" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="BJ6" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="BJ7" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="BP3" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="BP4" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="BP5" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="BP6" r:id="rId118" tooltip="http://pic.sogou.com/pic/index.jsp" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="BP7" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="BV3" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="BV4" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="BV5" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="BV6" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="BV7" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="BV9" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="BV10" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="BV11" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="BV12" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="BV13" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="BV14" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="BV15" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="BV16" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="BV17" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="BV18" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="BV19" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="BV20" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="BV21" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="BV22" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="BV23" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="BV24" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="BV25" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="BV26" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="BV27" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="CN3" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="CN4" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="CN5" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="CB3" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="CB4" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="CB5" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="CB6" r:id="rId150" tooltip="https://www.uy5.net/Resource_function/yuanjx/C/?aff=1799" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="CB8" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="CB9" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="CB13" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="CB14" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="CB15" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="CB16" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="CB17" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="CB18" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="CB19" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="CB21" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="CB20" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="CB22" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="CB23" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="CB24" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="CB25" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="CB26" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="CB27" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="CB28" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="CB29" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="CB30" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="CB31" r:id="rId171" tooltip="http://zh.fonts2u.com" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="CB32" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="CH3" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="CH4" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="CH5" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="CH6" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="CH7" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="CH8" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="CH9" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="CH10" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="CH11" r:id="rId181" tooltip="http://www.paperfree.cn" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="AM3" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="AM4" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="AS3" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="AY4" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="U10" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="U12" r:id="rId187" tooltip="https://3o.hk/images/2023/04/18/image.png" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="U17" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="AG6" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="AY6" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="AY7" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="AY8" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="AY9" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="BE14" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="BE12" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="BE13" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="BE10" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="BE3" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="BE4" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="BE5" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="BE6" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="BE7" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="BE8" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="BE9" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="BE11" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="BK4" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="BK3" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="BK6" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="BK7" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="BQ3" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="BW14" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="CC3" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="CC5" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="CC6" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="CC16" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="CI8" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="CC13" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="CC28" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="CC21" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="CC26" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="CC23" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="BW16" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="AF13" r:id="rId223" tooltip="https://gan.cool" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="BV8" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="BW8" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="AX12" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="AX13" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="AX14" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="AX15" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="AY14" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="CC14" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="T18" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="CB7" r:id="rId233" tooltip="https://mockupplanet.com" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="H13" r:id="rId234" tooltip="https://www.uy5.net/pc-xmind/" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="I13" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="B11" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="CB33" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="CC33" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="B12" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="CB10" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="Z7" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="CB12" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="CB11" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="H14" r:id="rId244" tooltip="https://spline.design" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="CB34" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="AR5" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="AT5" r:id="rId247" tooltip="https://c4dco.com/" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="AR6" r:id="rId248" tooltip="http://cgka3d.com" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="AT6" r:id="rId249" tooltip="http://cgka3d.com/" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="AR7" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="AT7" r:id="rId251" tooltip="https://c4dsky.com/" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="BV28" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="BX28" r:id="rId253" tooltip="https://www.67tool.com/" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="Z8" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="AB8" r:id="rId255" tooltip="https://aicolors.co/" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="CH12" r:id="rId256" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="CH13" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="CJ13" r:id="rId258" tooltip="https://www.paperok.com/" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="AF14" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="AH14" r:id="rId260" tooltip="https://www.newcger.com/" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="B13" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="BV29" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="BW29" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId264"/>
 </worksheet>
 </file>